--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1419.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1419.xlsx
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02011967094919599</v>
+        <v>0.05889797120761359</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007404107924279455</v>
+        <v>0.0011450155200235</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.05517541877994872</v>
+        <v>0.04366488000000002</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007746710881381971</v>
+        <v>0.000848874150583658</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.06731225040069305</v>
+        <v>0.07366488000000004</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007038420684566436</v>
+        <v>0.0008084515719844363</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1029278639499158</v>
+        <v>0.10366488</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006877062200943023</v>
+        <v>0.000848874150583658</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05889797120761359</v>
+        <v>0.1236857395359885</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0011450155200235</v>
+        <v>0.003435046560070499</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.08732976000000003</v>
+        <v>0.09129031153386716</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001697748301167316</v>
+        <v>0.002546622451750974</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1104503999999999</v>
+        <v>0.1395632625531225</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001368570478737887</v>
+        <v>0.002425354715953309</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1674504</v>
+        <v>0.1878362135723779</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001458713476693789</v>
+        <v>0.002546622451750974</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.08279463604017451</v>
+        <v>0.1174249772206198</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002221232377283836</v>
+        <v>0.004798451081567653</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09129031153386716</v>
+        <v>0.106621148636346</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002535348632579676</v>
+        <v>0.004785057753301529</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1333670898168944</v>
+        <v>0.1640328107347027</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002111526205369931</v>
+        <v>0.004783229596480459</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1878362135723779</v>
+        <v>0.2197966728513644</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002337572508884169</v>
+        <v>0.004785057753301529</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.09513401391403037</v>
+        <v>0.1317607258023813</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002961643169711782</v>
+        <v>0.006397934775423537</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0920861465820299</v>
+        <v>0.1161078209629148</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003098684352552789</v>
+        <v>0.006380077004402039</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1395632625531225</v>
+        <v>0.1777622048048759</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002470432248923478</v>
+        <v>0.006377639461973945</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1900793202636234</v>
+        <v>0.237966597331991</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002750824880377209</v>
+        <v>0.006380077004402039</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.05889797120761359</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1236857395359885</v>
+        <v>0.153486969494655</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003435046560070499</v>
+        <v>0.007997418469279422</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.09712905929827748</v>
+        <v>0.1236721734905974</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003873355440690986</v>
+        <v>0.007975096255502549</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1494297012925587</v>
+        <v>0.1918156480355639</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003519210342283218</v>
+        <v>0.007972049327467432</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1992268680177164</v>
+        <v>0.254576730342652</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003438531100471512</v>
+        <v>0.007975096255502549</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1166306375098895</v>
+        <v>0.1477384016273853</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004442464754567672</v>
+        <v>0.009596902163135307</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.09958424677066521</v>
+        <v>0.1309432904310536</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004648026528829183</v>
+        <v>0.009570115506603059</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1576936228349792</v>
+        <v>0.2023856076050115</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004223052410739861</v>
+        <v>0.009566459192960917</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2117896812246874</v>
+        <v>0.2693674685015596</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004126237320565814</v>
+        <v>0.009570115506603059</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1413213300814634</v>
+        <v>0.1636497155305171</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005182875546995618</v>
+        <v>0.01119638585699119</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.10363412426615</v>
+        <v>0.1372502559959429</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005422697616967381</v>
+        <v>0.01116513475770357</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1666902539127639</v>
+        <v>0.2113645506914631</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004926894479196505</v>
+        <v>0.0111608690584544</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2180612046446001</v>
+        <v>0.2826792084269255</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004813943540660117</v>
+        <v>0.01116513475770357</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1467143484419073</v>
+        <v>0.181355604533995</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005923286339423564</v>
+        <v>0.01279586955084707</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1071611070516883</v>
+        <v>0.1415221543969248</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006197368705105577</v>
+        <v>0.01276015400880408</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1738203956009158</v>
+        <v>0.2189449444731634</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005630736547653148</v>
+        <v>0.01275527892394789</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2284348830375184</v>
+        <v>0.2919523467369626</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005501649760754419</v>
+        <v>0.01276015400880408</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1368112110961878</v>
+        <v>0.1829907619677634</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006663697131851509</v>
+        <v>0.01439535324470296</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.110847610394237</v>
+        <v>0.146088069845659</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006972039793243775</v>
+        <v>0.01435517325990459</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1788848489744385</v>
+        <v>0.2240192561283569</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006334578616109792</v>
+        <v>0.01434968878944138</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2374041611635056</v>
+        <v>0.3003272800498828</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006189355980848721</v>
+        <v>0.01435517325990459</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.1546134365492718</v>
+        <v>0.191689881161767</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007404107924279454</v>
+        <v>0.01599483693855884</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.115676049560753</v>
+        <v>0.150277086553805</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007746710881381972</v>
+        <v>0.0159501925110051</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1852844151083351</v>
+        <v>0.2299799528352882</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007038420684566436</v>
+        <v>0.01594409865493486</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2458624837826258</v>
+        <v>0.3074444049838982</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006877062200943023</v>
+        <v>0.0159501925110051</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1531225433061259</v>
+        <v>0.1865876554459506</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.0081445187167074</v>
+        <v>0.01759432063241473</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1187288398181927</v>
+        <v>0.1534182887330226</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008521381969520169</v>
+        <v>0.01754521176210561</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.192819895077609</v>
+        <v>0.2345195017722017</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007742262753023079</v>
+        <v>0.01753850852042835</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2534032956549422</v>
+        <v>0.3154441181572214</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007564768421037326</v>
+        <v>0.01754521176210561</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.155340049871717</v>
+        <v>0.2088187781502585</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008884929509135345</v>
+        <v>0.01919380432627061</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1230883964335131</v>
+        <v>0.1556407605949711</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009296053057658366</v>
+        <v>0.01914023101320612</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1980920899572634</v>
+        <v>0.2391303701173421</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008446104821479722</v>
+        <v>0.01913291838592183</v>
       </c>
       <c r="N77" t="n">
-        <v>0.258820041540519</v>
+        <v>0.3194668161880643</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008252474641131628</v>
+        <v>0.01914023101320612</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1692674747510118</v>
+        <v>0.1985179426046356</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009625340301563291</v>
+        <v>0.0207932880201265</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1271371346736707</v>
+        <v>0.1588735863513104</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01007072414579656</v>
+        <v>0.02073525026430663</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2059018008223016</v>
+        <v>0.2414050250489539</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009149946889936365</v>
+        <v>0.02072732825141532</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2659061661994196</v>
+        <v>0.3262528956946392</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00894018086122593</v>
+        <v>0.02073525026430663</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1699063364489771</v>
+        <v>0.2138198421390264</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01036575109399124</v>
+        <v>0.02239277171398238</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1321574698056222</v>
+        <v>0.1598458502136997</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01084539523393476</v>
+        <v>0.02233026951540713</v>
       </c>
       <c r="L79" t="n">
-        <v>0.210149828747727</v>
+        <v>0.2447359337452817</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00985378895839301</v>
+        <v>0.02232173811690881</v>
       </c>
       <c r="N79" t="n">
-        <v>0.273655114391708</v>
+        <v>0.3310427532951582</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009627887081320233</v>
+        <v>0.02233026951540713</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1822581534705796</v>
+        <v>0.2028591700833755</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01110616188641918</v>
+        <v>0.02399225540783827</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1350318170963246</v>
+        <v>0.1624836584339771</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01162006632207296</v>
+        <v>0.02392528876650764</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2165369748085427</v>
+        <v>0.2491082517265311</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01055763102684965</v>
+        <v>0.0239161479824023</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2829603308774474</v>
+        <v>0.3347733270945814</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01031559330141454</v>
+        <v>0.02392528876650764</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.185324444320786</v>
+        <v>0.207768071861054</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01184657267884713</v>
+        <v>0.02559173910169415</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1396425918127344</v>
+        <v>0.1641967061917666</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01239473741021115</v>
+        <v>0.02552030801760816</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2223640400797521</v>
+        <v>0.2531314399096176</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0112614730953063</v>
+        <v>0.02551055784789578</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2898152604167019</v>
+        <v>0.3370210709378428</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01100329952150884</v>
+        <v>0.02552030801760816</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1861067275045631</v>
+        <v>0.2176000680275182</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01258698347127507</v>
+        <v>0.02719122279555003</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1434722092218084</v>
+        <v>0.166047850918686</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01316940849834935</v>
+        <v>0.02711532726870866</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2262318256363585</v>
+        <v>0.2537586529592538</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01196531516376294</v>
+        <v>0.02710496771338927</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2962133477695351</v>
+        <v>0.3415414449569474</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01169100574160314</v>
+        <v>0.02711532726870866</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1896065215268778</v>
+        <v>0.2243388937516578</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01332739426370302</v>
+        <v>0.02879070648940592</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1463030845905033</v>
+        <v>0.1689238815860848</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01394407958648755</v>
+        <v>0.02871034651980918</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2314411325533651</v>
+        <v>0.2578697171925467</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01266915723221958</v>
+        <v>0.02869937757888275</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3007480376960106</v>
+        <v>0.3479072665346222</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01237871196169744</v>
+        <v>0.02871034651980918</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.2018253448926967</v>
+        <v>0.2269664991983626</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01406780505613096</v>
+        <v>0.03039019018326181</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1496176331857758</v>
+        <v>0.1710115871653121</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01471875067462575</v>
+        <v>0.03030536577090969</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2345927619057753</v>
+        <v>0.2610444589266032</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01337299930067623</v>
+        <v>0.03029378744437624</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3074127749561922</v>
+        <v>0.3498913530535951</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01306641818179174</v>
+        <v>0.03030536577090969</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1957647161069864</v>
+        <v>0.2094648345325224</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01480821584855891</v>
+        <v>0.03198967387711769</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1531982702745827</v>
+        <v>0.1720977566277178</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01549342176276394</v>
+        <v>0.0319003850220102</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2393875147685923</v>
+        <v>0.2630627044785303</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01407684136913287</v>
+        <v>0.03188819730986973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3137010043101435</v>
+        <v>0.3560665218965935</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01375412440188605</v>
+        <v>0.0319003850220102</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.212426153674714</v>
+        <v>0.215815849919027</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01554862664098686</v>
+        <v>0.03358915757097357</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1556274111238808</v>
+        <v>0.1732691789446509</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01626809285090214</v>
+        <v>0.0334954042731107</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2437261922168194</v>
+        <v>0.2656042801654351</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01478068343758951</v>
+        <v>0.03348260717536321</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3177061705179283</v>
+        <v>0.3568055904463444</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01444183062198035</v>
+        <v>0.0334954042731107</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.213811176100846</v>
+        <v>0.2330014955227661</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0162890374334148</v>
+        <v>0.03518864126482946</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1598874710006265</v>
+        <v>0.175612643087461</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01704276393904034</v>
+        <v>0.03509042352421121</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2463095953254599</v>
+        <v>0.2689490123044246</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01548452550604616</v>
+        <v>0.0350770170408567</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3227217183396101</v>
+        <v>0.3616813760855757</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01512953684207465</v>
+        <v>0.03509042352421121</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.2089213018903492</v>
+        <v>0.2190037215086293</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01702944822584275</v>
+        <v>0.03678812495868534</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1624608651717767</v>
+        <v>0.1767149380274976</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01781743502717854</v>
+        <v>0.03668544277531172</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2496385251695172</v>
+        <v>0.2717767272126059</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0161883675745028</v>
+        <v>0.03667142690635019</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3295410925352529</v>
+        <v>0.3634666961970143</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01581724306216895</v>
+        <v>0.03668544277531172</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.2087580495481905</v>
+        <v>0.2258044780415065</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01776985901827069</v>
+        <v>0.03838760865254123</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1652300089042884</v>
+        <v>0.1790628527361101</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01859210611531673</v>
+        <v>0.03828046202641223</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2537137828239945</v>
+        <v>0.2718672512070857</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01689220964295944</v>
+        <v>0.03826583677184367</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3342577378649203</v>
+        <v>0.3659343681633883</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01650494928226326</v>
+        <v>0.03828046202641223</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.2183229375793365</v>
+        <v>0.2373857152862875</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01851026981069864</v>
+        <v>0.03998709234639711</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1670773174651179</v>
+        <v>0.1799431761846479</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01936677720345493</v>
+        <v>0.03987548127751275</v>
       </c>
       <c r="L90" t="n">
-        <v>0.254636169363895</v>
+        <v>0.2741004106049711</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01759605171141609</v>
+        <v>0.03986024663733716</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3395650990886758</v>
+        <v>0.3678572093674244</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01719265550235756</v>
+        <v>0.03987548127751275</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.230617484488754</v>
+        <v>0.2337293834078619</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01925068060312658</v>
+        <v>0.041586576040253</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1703852061212222</v>
+        <v>0.1805426973444604</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02014144829159313</v>
+        <v>0.04147050052861325</v>
       </c>
       <c r="L91" t="n">
-        <v>0.258406485864222</v>
+        <v>0.2759560317233694</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01829989377987273</v>
+        <v>0.04145465650283064</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3418566209665833</v>
+        <v>0.3723080371918507</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01788036172245186</v>
+        <v>0.04147050052861325</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.2166432087814097</v>
+        <v>0.2388174325711196</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01999109139555453</v>
+        <v>0.04318605973410888</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1722360901395577</v>
+        <v>0.1812482051868971</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02091611937973132</v>
+        <v>0.04306551977971376</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2599255333999788</v>
+        <v>0.277313940879387</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01900373584832938</v>
+        <v>0.04304906636832413</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3472257482587064</v>
+        <v>0.3724596690193942</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01856806794254616</v>
+        <v>0.04306551977971376</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.2374016289622704</v>
+        <v>0.2386318129409503</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02073150218798247</v>
+        <v>0.04478554342796476</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1730123847870817</v>
+        <v>0.1815464886833073</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02169079046786952</v>
+        <v>0.04466053903081427</v>
       </c>
       <c r="L93" t="n">
-        <v>0.263494113046169</v>
+        <v>0.2784539643901317</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01970757791678602</v>
+        <v>0.04464347623381761</v>
       </c>
       <c r="N93" t="n">
-        <v>0.347665925725109</v>
+        <v>0.3724849222327826</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01925577416264047</v>
+        <v>0.04466053903081427</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.2268942635363029</v>
+        <v>0.2473714790719771</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02147191298041042</v>
+        <v>0.04638502712182065</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1738965053307503</v>
+        <v>0.1825806230677343</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02246546155600772</v>
+        <v>0.04625555828191478</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2636130258777953</v>
+        <v>0.279126525106245</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02041141998524266</v>
+        <v>0.0462378860993111</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3533705981258543</v>
+        <v>0.3756724271447557</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01994348038273477</v>
+        <v>0.04625555828191478</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.2331226310084738</v>
+        <v>0.2353673679598897</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02221232377283836</v>
+        <v>0.04798451081567653</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1758708670375206</v>
+        <v>0.1822747698255116</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02324013264414592</v>
+        <v>0.04785057753301529</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2648830729698616</v>
+        <v>0.2786135442757139</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0211152620536993</v>
+        <v>0.04783229596480459</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3545332102210064</v>
+        <v>0.3728603836886896</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02063118660282907</v>
+        <v>0.04785057753301529</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.23808824988375</v>
+        <v>0.2303149627916927</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02295273456526631</v>
+        <v>0.04958399450953242</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1757178851743492</v>
+        <v>0.1822804608770063</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02401480373228411</v>
+        <v>0.0494455967841158</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2668050553973708</v>
+        <v>0.2788582981811843</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02181910412215595</v>
+        <v>0.04942670583029807</v>
       </c>
       <c r="N96" t="n">
-        <v>0.357047206770629</v>
+        <v>0.3738663364180032</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02131889282292337</v>
+        <v>0.0494455967841158</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.2397926386670984</v>
+        <v>0.2441064127449653</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02369314535769425</v>
+        <v>0.0511834782033883</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1771199750081928</v>
+        <v>0.1816763502087004</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02478947482042231</v>
+        <v>0.05104061603521631</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2688797742353262</v>
+        <v>0.2769359997877735</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02252294619061259</v>
+        <v>0.05102111569579156</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3582060325347857</v>
+        <v>0.3730463644139635</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02200659904301767</v>
+        <v>0.05104061603521631</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.2212373158634853</v>
+        <v>0.2407533146767813</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0244335561501222</v>
+        <v>0.05278296189724418</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1769692761721312</v>
+        <v>0.181269400413678</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02556414590856051</v>
+        <v>0.05263563528631682</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2692080305587312</v>
+        <v>0.2763572812081428</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02322678825906924</v>
+        <v>0.05261552556128505</v>
       </c>
       <c r="N98" t="n">
-        <v>0.35930313227354</v>
+        <v>0.3718147936997761</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02269430526311198</v>
+        <v>0.05263563528631682</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.2344237999778778</v>
+        <v>0.2322651813707722</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02517396694255015</v>
+        <v>0.05438244559110007</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1770552165297939</v>
+        <v>0.1815665740850227</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0263388169966987</v>
+        <v>0.05423065453741733</v>
       </c>
       <c r="L99" t="n">
-        <v>0.269790625442589</v>
+        <v>0.2761327745549536</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02393063032752588</v>
+        <v>0.05420993542677854</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3607319507469561</v>
+        <v>0.372985950298647</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02338201148320628</v>
+        <v>0.05423065453741733</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.2322942636650316</v>
+        <v>0.2326515256105695</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02591437773497809</v>
+        <v>0.05598192928495595</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1764227162215466</v>
+        <v>0.1800748338158185</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0271134880848369</v>
+        <v>0.05582567378851783</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2711283599619031</v>
+        <v>0.2749731119408668</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02463447239598252</v>
+        <v>0.05580434529227202</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3634859327150971</v>
+        <v>0.3697741602337822</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02406971770330058</v>
+        <v>0.05582567378851783</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.2347470976044629</v>
+        <v>0.2369218601798046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02665478852740604</v>
+        <v>0.05758141297881184</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1755958127916281</v>
+        <v>0.179601142199149</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0278881591729751</v>
+        <v>0.05742069303961835</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2693216687248599</v>
+        <v>0.2757889254785445</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02533831446443917</v>
+        <v>0.0573987551577655</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3636585229380271</v>
+        <v>0.3699937495283873</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02475742392339489</v>
+        <v>0.05742069303961835</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.2348363322917211</v>
+        <v>0.2320856978621091</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02739519931983398</v>
+        <v>0.05918089667266772</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1751985437842765</v>
+        <v>0.1793524618280981</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0286628302611133</v>
+        <v>0.05901571229071886</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2700431766072845</v>
+        <v>0.2738908472806475</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02604215653289581</v>
+        <v>0.05899316502325899</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3626422344406049</v>
+        <v>0.3677590442056683</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02544513014348919</v>
+        <v>0.05901571229071886</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.2346215336566051</v>
+        <v>0.2191525514411143</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02813561011226193</v>
+        <v>0.06078038036652361</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1741549467437304</v>
+        <v>0.1777357552957495</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02943750134925149</v>
+        <v>0.06061073154181938</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2697928780713935</v>
+        <v>0.2729895094598375</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02674599860135245</v>
+        <v>0.06058757488875248</v>
       </c>
       <c r="N103" t="n">
-        <v>0.361825566407608</v>
+        <v>0.367384370288831</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02613283636358349</v>
+        <v>0.06061073154181938</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.2181622676289133</v>
+        <v>0.220131933700452</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02887602090468987</v>
+        <v>0.06237986406037949</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1729890592142281</v>
+        <v>0.1775579851951871</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03021217243738969</v>
+        <v>0.06220575079291988</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2677953894496822</v>
+        <v>0.2708955441287756</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0274498406698091</v>
+        <v>0.06218198475424597</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3638338906464506</v>
+        <v>0.3647840538010813</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02682054258367779</v>
+        <v>0.06220575079291988</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.2235181001384446</v>
+        <v>0.2400333574237534</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02961643169711782</v>
+        <v>0.06397934775423537</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1715249187400081</v>
+        <v>0.1771261141194946</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03098684352552789</v>
+        <v>0.06380077004402039</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2684753270746458</v>
+        <v>0.2689195834001236</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02815368273826574</v>
+        <v>0.06377639461973945</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3612020865207224</v>
+        <v>0.3643724207656251</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02750824880377209</v>
+        <v>0.06380077004402039</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.2127485971149975</v>
+        <v>0.2378663353946501</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03035684248954576</v>
+        <v>0.06557883144809126</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1701865628653087</v>
+        <v>0.1752471046617559</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03176151461366609</v>
+        <v>0.0653957892951209</v>
       </c>
       <c r="L106" t="n">
-        <v>0.26635730727878</v>
+        <v>0.2698722593865421</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02885752480672238</v>
+        <v>0.06537080448523294</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3607650333940136</v>
+        <v>0.3622637972056684</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0281959550238664</v>
+        <v>0.0653957892951209</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.2229133244883708</v>
+        <v>0.2356403803967737</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03109725328197371</v>
+        <v>0.06717831514194714</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1696980291343684</v>
+        <v>0.1755279194150547</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03253618570180428</v>
+        <v>0.0669908085462214</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2659659463945802</v>
+        <v>0.2662642042006934</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02956136687517903</v>
+        <v>0.06696521435072642</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3591576106299138</v>
+        <v>0.3613725091444167</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0288836612439607</v>
+        <v>0.0669908085462214</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.230071848188363</v>
+        <v>0.2273650052137554</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03183766407440165</v>
+        <v>0.06877779883580303</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1674833550914256</v>
+        <v>0.1745755209724748</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03331085678994248</v>
+        <v>0.06858582779732192</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2640258607545414</v>
+        <v>0.2654060499552382</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03026520894363567</v>
+        <v>0.0685596242162199</v>
       </c>
       <c r="N108" t="n">
-        <v>0.355214697592013</v>
+        <v>0.357912882605076</v>
       </c>
       <c r="O108" t="n">
-        <v>0.029571367464055</v>
+        <v>0.06858582779732192</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.213283734144773</v>
+        <v>0.2180497226292268</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0325780748668296</v>
+        <v>0.07037728252965891</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1669665782807186</v>
+        <v>0.1736968719271001</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03408552787808068</v>
+        <v>0.07018084704842242</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2631616666911589</v>
+        <v>0.2642084287628381</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03096905101209232</v>
+        <v>0.07015403408171339</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3549711736439011</v>
+        <v>0.3544992436108524</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0302590736841493</v>
+        <v>0.07018084704842242</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.2056085482873992</v>
+        <v>0.2147040454268195</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03331848565925755</v>
+        <v>0.07197676622351479</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1655717362464859</v>
+        <v>0.1723989348720142</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03486019896621888</v>
+        <v>0.07177586629952294</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2613979805369284</v>
+        <v>0.2626819727361546</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03167289308054896</v>
+        <v>0.07174844394720688</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3529619181491677</v>
+        <v>0.3546459181849515</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03094677990424361</v>
+        <v>0.07177586629952294</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.2151058565460404</v>
+        <v>0.2153374863901649</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03405889645168549</v>
+        <v>0.07357624991737069</v>
       </c>
       <c r="J111" t="n">
-        <v>0.163922866532966</v>
+        <v>0.170788672400301</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03563487005435707</v>
+        <v>0.07337088555062345</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2584594186243453</v>
+        <v>0.2601373139878489</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0323767351490056</v>
+        <v>0.07334285381270038</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3511218104714026</v>
+        <v>0.3526672323505793</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0316344861243379</v>
+        <v>0.07337088555062345</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.2148352248504954</v>
+        <v>0.2079595583028945</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03479930724411344</v>
+        <v>0.07517573361122656</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1630440066843973</v>
+        <v>0.1707730471050443</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03640954114249526</v>
+        <v>0.07496590480172396</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2583705972859047</v>
+        <v>0.2606850846305822</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03308057721746225</v>
+        <v>0.07493726367819387</v>
       </c>
       <c r="N112" t="n">
-        <v>0.349085729974196</v>
+        <v>0.3483775121309418</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03232219234443221</v>
+        <v>0.07496590480172396</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.2068562191305626</v>
+        <v>0.2125797739486399</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03553971803654138</v>
+        <v>0.07677521730508245</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1611591942450179</v>
+        <v>0.1688590215793279</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03718421223063346</v>
+        <v>0.07656092405282447</v>
       </c>
       <c r="L113" t="n">
-        <v>0.256656132854102</v>
+        <v>0.2567359167770161</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03378441928591889</v>
+        <v>0.07653167354368734</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3457885560211372</v>
+        <v>0.3462910835492445</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03300989856452651</v>
+        <v>0.07656092405282447</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.2212284053160409</v>
+        <v>0.2162076461110323</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03628012882896933</v>
+        <v>0.07837470099893834</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1600924667590665</v>
+        <v>0.1672535584162357</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03795888331877167</v>
+        <v>0.07815594330392497</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2534406416614328</v>
+        <v>0.2568004425398122</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03448826135437553</v>
+        <v>0.07812608340918083</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3421651679758165</v>
+        <v>0.3448222726286936</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03369760478462082</v>
+        <v>0.07815594330392497</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.2060112948319896</v>
+        <v>0.2078492414227307</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03702053962139727</v>
+        <v>0.07997418469279421</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1601678617707815</v>
+        <v>0.1664328356979208</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03873355440690986</v>
+        <v>0.07975096255502549</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2510487400403922</v>
+        <v>0.2547327003833566</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03519210342283217</v>
+        <v>0.07972049327467431</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3412504452018236</v>
+        <v>0.3444220641038881</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03438531100471512</v>
+        <v>0.07975096255502549</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.2230671372527442</v>
+        <v>0.2033598847770319</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03776095041382522</v>
+        <v>0.0815736683866501</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1596094168244013</v>
+        <v>0.1652762084358994</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03950822549504805</v>
+        <v>0.081345981806126</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2508050443234756</v>
+        <v>0.2543530012233066</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03589594549128882</v>
+        <v>0.0813149031401678</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3379792670627482</v>
+        <v>0.3422422224562662</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03507301722480942</v>
+        <v>0.081345981806126</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.217226894416265</v>
+        <v>0.2236815455864499</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03850136120625317</v>
+        <v>0.08317315208050599</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1596411694641642</v>
+        <v>0.16469027123934</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04028289658318625</v>
+        <v>0.0829410010572265</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2477341708431785</v>
+        <v>0.2524777254743677</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03659978755974546</v>
+        <v>0.08290931300566129</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3359865129221802</v>
+        <v>0.3400963165563394</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03576072344490372</v>
+        <v>0.0829410010572265</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.2084846496154751</v>
+        <v>0.1988452176371688</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03924177199868111</v>
+        <v>0.08477263577436187</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1587871572343087</v>
+        <v>0.1627977090687846</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04105756767132446</v>
+        <v>0.08453602030832701</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2479607359319961</v>
+        <v>0.2482415138305024</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03730362962820211</v>
+        <v>0.08450372287115478</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3331070621437093</v>
+        <v>0.3360310223001773</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03644842966499803</v>
+        <v>0.08453602030832701</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.2108344861432973</v>
+        <v>0.2048818947153724</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03998218279110905</v>
+        <v>0.08637211946821775</v>
       </c>
       <c r="J119" t="n">
-        <v>0.158362438323347</v>
+        <v>0.1612212068847755</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04183223875946265</v>
+        <v>0.08613103955942752</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2465093559224239</v>
+        <v>0.2471790069856736</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03800747169665875</v>
+        <v>0.08609813273664826</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3319757940909258</v>
+        <v>0.3329930155838488</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03713613588509233</v>
+        <v>0.08613103955942752</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.2122704872926544</v>
+        <v>0.2108225706072451</v>
       </c>
       <c r="G120" t="n">
-        <v>0.040722593583537</v>
+        <v>0.08797160316207364</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1586078759025072</v>
+        <v>0.1605834496478547</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04260690984760084</v>
+        <v>0.08772605881052803</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2431046471469572</v>
+        <v>0.2449248456338439</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0387113137651154</v>
+        <v>0.08769254260214174</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3300275881274189</v>
+        <v>0.3288289723034229</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03782384210518663</v>
+        <v>0.08772605881052803</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.2017867363564694</v>
+        <v>0.211698239098971</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04146300437596494</v>
+        <v>0.08957108685592952</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1593993434487213</v>
+        <v>0.1575071223185644</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04338158093573904</v>
+        <v>0.08932107806162853</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2422712259380914</v>
+        <v>0.2419136704689762</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03941515583357204</v>
+        <v>0.08928695246763522</v>
       </c>
       <c r="N121" t="n">
-        <v>0.325897323616779</v>
+        <v>0.3255855683549688</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03851154832528093</v>
+        <v>0.08932107806162853</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.2123773166276653</v>
+        <v>0.2145398939767342</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04220341516839289</v>
+        <v>0.0911705705497854</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1592262153009707</v>
+        <v>0.1559149098574467</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04415625202387724</v>
+        <v>0.09091609731272905</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2425337086283217</v>
+        <v>0.2394801221850332</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04011899790202868</v>
+        <v>0.09088136233312871</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3268198799225955</v>
+        <v>0.3241094796345556</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03919925454537523</v>
+        <v>0.09091609731272905</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.2040363113991648</v>
+        <v>0.1883785290267185</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04294382596082084</v>
+        <v>0.09277005424364129</v>
       </c>
       <c r="J123" t="n">
-        <v>0.160577865798236</v>
+        <v>0.1561294972250437</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04493092311201544</v>
+        <v>0.09251111656382956</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2416167115501437</v>
+        <v>0.2377588414759773</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04082283997048532</v>
+        <v>0.0924757721986222</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3234301364084585</v>
+        <v>0.3196473820382524</v>
       </c>
       <c r="O123" t="n">
-        <v>0.03988696076546954</v>
+        <v>0.09251111656382956</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.224757803963891</v>
+        <v>0.1922451380351084</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04368423675324878</v>
+        <v>0.09436953793749718</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1611436692794982</v>
+        <v>0.1535735693818976</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04570559420015363</v>
+        <v>0.09410613581493008</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2396448510360526</v>
+        <v>0.2361844690357716</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04152668203894196</v>
+        <v>0.0940701820641157</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3228629724379576</v>
+        <v>0.3176459514621284</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04057466698556383</v>
+        <v>0.09410613581493008</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.2245358776147666</v>
+        <v>0.1991707147880878</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04442464754567672</v>
+        <v>0.09596902163135307</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1623130000837383</v>
+        <v>0.1525698112885504</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04648026528829183</v>
+        <v>0.09570115506603058</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2414427434185438</v>
+        <v>0.2324916455583785</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04223052410739861</v>
+        <v>0.09566459192960919</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3242532673746829</v>
+        <v>0.3146518638022524</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04126237320565814</v>
+        <v>0.09570115506603058</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.2253646156447147</v>
+        <v>0.1981862530718409</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04516505833810467</v>
+        <v>0.09756850532520894</v>
       </c>
       <c r="J126" t="n">
-        <v>0.162075232549937</v>
+        <v>0.150634126543848</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04725493637643003</v>
+        <v>0.0972961743171311</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2410201963489988</v>
+        <v>0.2296993591956916</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04293436617585526</v>
+        <v>0.09725900179510266</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3234348561521552</v>
+        <v>0.3109978418277686</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04195007942575244</v>
+        <v>0.0972961743171311</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.2262381013466581</v>
+        <v>0.1901993197104291</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04590546913053262</v>
+        <v>0.09916798901906483</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1639197410170754</v>
+        <v>0.1499181785494017</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04802960746456823</v>
+        <v>0.0988911935682316</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2400483021375715</v>
+        <v>0.2288714388974462</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0436382082443119</v>
+        <v>0.09885341166059615</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3217969168462376</v>
+        <v>0.3054786725921177</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04263778564584674</v>
+        <v>0.0988911935682316</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.2231504180135197</v>
+        <v>0.1990297842515774</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04664587992296056</v>
+        <v>0.1007674727129207</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1634358998241343</v>
+        <v>0.1480775360627628</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04880427855270642</v>
+        <v>0.1004862128193321</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2427083236991857</v>
+        <v>0.2259556296752554</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04434205031276854</v>
+        <v>0.1004478215260896</v>
       </c>
       <c r="N128" t="n">
-        <v>0.323404977022411</v>
+        <v>0.3032029357002365</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04332549186594105</v>
+        <v>0.1004862128193321</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.2150956489382224</v>
+        <v>0.1767177597675419</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04738629071538851</v>
+        <v>0.1023669564067766</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1651130833100947</v>
+        <v>0.1455446726115934</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04957894964084462</v>
+        <v>0.1020812320704326</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2416821548096228</v>
+        <v>0.224001519692675</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04504589238122519</v>
+        <v>0.1020422313915831</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3239323900862944</v>
+        <v>0.3009374477110219</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04401319808603535</v>
+        <v>0.1020812320704326</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.2200678774136891</v>
+        <v>0.190307613872325</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04812670150781645</v>
+        <v>0.1039664401006325</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1669406658139376</v>
+        <v>0.1431520617235547</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05035362072898282</v>
+        <v>0.1036762513215331</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2423516892446639</v>
+        <v>0.2209586971132604</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04574973444968183</v>
+        <v>0.1036366412570766</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3251525094435072</v>
+        <v>0.2945490251833709</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04470090430612966</v>
+        <v>0.1036762513215331</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.2140611867328428</v>
+        <v>0.1888437141799287</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0488671123002444</v>
+        <v>0.1055659237944884</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1669080216746437</v>
+        <v>0.1421321769263086</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05112829181712102</v>
+        <v>0.1052712705726336</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2453988207800903</v>
+        <v>0.2172767501005677</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04645357651813847</v>
+        <v>0.1052310511225701</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3266386884996684</v>
+        <v>0.2945044846761801</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04538861052622396</v>
+        <v>0.1052712705726336</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.2310696601886063</v>
+        <v>0.1903704283043554</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04960752309267234</v>
+        <v>0.1071654074883442</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1691045252311939</v>
+        <v>0.1395174917475166</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05190296290525921</v>
+        <v>0.1068662898237341</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2450054431916833</v>
+        <v>0.2159052668181522</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04715741858659511</v>
+        <v>0.1068254609880636</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3274642806603969</v>
+        <v>0.2906706427483459</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04607631674631826</v>
+        <v>0.1068662898237341</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.2250873810739025</v>
+        <v>0.1699321238596073</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0503479338851003</v>
+        <v>0.1087648911822001</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1692195508225693</v>
+        <v>0.1385404797148404</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05267763399339741</v>
+        <v>0.1084613090748347</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2479534502552241</v>
+        <v>0.2110938354295697</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04786126065505176</v>
+        <v>0.1084198708535571</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3302026393313124</v>
+        <v>0.285214315958765</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04676402296641256</v>
+        <v>0.1084613090748347</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.2271084326816545</v>
+        <v>0.1835731684596864</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05108834467752824</v>
+        <v>0.110364374876056</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1708424727877506</v>
+        <v>0.1374336143559416</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05345230508153561</v>
+        <v>0.1100563283259352</v>
       </c>
       <c r="L134" t="n">
-        <v>0.248924735746494</v>
+        <v>0.2088920440983758</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0485651027235084</v>
+        <v>0.1100142807190506</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3341271179180337</v>
+        <v>0.2824023208663343</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04745172918650686</v>
+        <v>0.1100563283259352</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.2311268983047849</v>
+        <v>0.1833379297185951</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05182875546995618</v>
+        <v>0.1119638585699119</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1723626654657189</v>
+        <v>0.1350293691984819</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0542269761696738</v>
+        <v>0.1116513475770357</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2510011934412743</v>
+        <v>0.2077494809881261</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04926894479196504</v>
+        <v>0.111608690584544</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3345110698261798</v>
+        <v>0.2788014740299505</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04813943540660116</v>
+        <v>0.1116513475770357</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.2251368612362167</v>
+        <v>0.1822707752503356</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05256916626238413</v>
+        <v>0.1135633422637678</v>
       </c>
       <c r="J136" t="n">
-        <v>0.173169503195455</v>
+        <v>0.1329602177701229</v>
       </c>
       <c r="K136" t="n">
-        <v>0.055001647257812</v>
+        <v>0.1132463668281362</v>
       </c>
       <c r="L136" t="n">
-        <v>0.252464717115346</v>
+        <v>0.2052157342623764</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04997278686042169</v>
+        <v>0.1132031004500375</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3366278484613702</v>
+        <v>0.2749785920085102</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04882714162669546</v>
+        <v>0.1132463668281362</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.2201324047688729</v>
+        <v>0.1694160726689101</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05330957705481208</v>
+        <v>0.1151628259576237</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1743523603159399</v>
+        <v>0.1326586335985261</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0557763183459502</v>
+        <v>0.1148413860792367</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2553972005444907</v>
+        <v>0.2039403920846823</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05067662892887834</v>
+        <v>0.114797510315531</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3391508072292237</v>
+        <v>0.27170049136091</v>
       </c>
       <c r="O137" t="n">
-        <v>0.04951484784678977</v>
+        <v>0.1148413860792367</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.2181076121956764</v>
+        <v>0.1568181895883208</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05404998784724002</v>
+        <v>0.1167623096514796</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1752006111661545</v>
+        <v>0.1311570902113534</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0565509894340884</v>
+        <v>0.1164364053303372</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2557805375044893</v>
+        <v>0.1997730426185994</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05138047099733498</v>
+        <v>0.1163919201810245</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3413532995353596</v>
+        <v>0.2713339886460467</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05020255406688407</v>
+        <v>0.1164364053303372</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.21905656680955</v>
+        <v>0.1705214936225699</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05479039863966797</v>
+        <v>0.1183617933453354</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1767036300850796</v>
+        <v>0.1312880611362663</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0573256605222266</v>
+        <v>0.1180314245814377</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2568966217711234</v>
+        <v>0.2009632740276834</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05208431306579162</v>
+        <v>0.117986330046518</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3476086787853973</v>
+        <v>0.2698459004228171</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05089026028697838</v>
+        <v>0.1180314245814377</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.2359733519034167</v>
+        <v>0.1535703523856596</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05553080943209591</v>
+        <v>0.1199612770391913</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1774507914116961</v>
+        <v>0.1299840199009264</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05810033161036478</v>
+        <v>0.1196264438325382</v>
       </c>
       <c r="L140" t="n">
-        <v>0.260227347120174</v>
+        <v>0.19976067447549</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05278815513424826</v>
+        <v>0.1195807399120115</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3501902983849554</v>
+        <v>0.2689030432501178</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05157796650707267</v>
+        <v>0.1196264438325382</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.2218520507701993</v>
+        <v>0.1670091334915923</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05627122022452385</v>
+        <v>0.1215607607330472</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1785314694849851</v>
+        <v>0.1296774400329953</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05887500269850299</v>
+        <v>0.1212214630836388</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2619546073274226</v>
+        <v>0.1969148321255749</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0534919972027049</v>
+        <v>0.121175149777505</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3496715117396534</v>
+        <v>0.2661722336868453</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05226567272716698</v>
+        <v>0.1212214630836388</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.2426867467028208</v>
+        <v>0.1758722809480446</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05701163101695179</v>
+        <v>0.1231602444269031</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1800350386439274</v>
+        <v>0.1292530476282049</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05964967378664119</v>
+        <v>0.1228164823347392</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2648602961686501</v>
+        <v>0.1972896158021052</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05419583927116155</v>
+        <v>0.1227695596429984</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3548256722551103</v>
+        <v>0.2669220446045782</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05295337894726129</v>
+        <v>0.1228164823347392</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.235471522994204</v>
+        <v>0.1599206308670214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05775204180937975</v>
+        <v>0.124759728120759</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1816508732275039</v>
+        <v>0.1288049735489254</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06042434487477938</v>
+        <v>0.1244115015858398</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2652263074196382</v>
+        <v>0.1981723446378188</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05489968133961819</v>
+        <v>0.1243639695084919</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3550261333369454</v>
+        <v>0.2681288858254102</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05364108516735558</v>
+        <v>0.1244115015858398</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.2332004629372719</v>
+        <v>0.1620333616220522</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05849245260180769</v>
+        <v>0.1263592118146148</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1825806230677343</v>
+        <v>0.1295033448266794</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06119901596291757</v>
+        <v>0.1260065208369403</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2688345348561677</v>
+        <v>0.1990258556864367</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05560352340807483</v>
+        <v>0.1259583793739854</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3590462483907778</v>
+        <v>0.2659312916232117</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05432879138744989</v>
+        <v>0.1260065208369403</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.2328676498249474</v>
+        <v>0.1762072130970218</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05923286339423563</v>
+        <v>0.1279586955084707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1829206328447432</v>
+        <v>0.1307457753184829</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06197368705105578</v>
+        <v>0.1276015400880408</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2680668722540203</v>
+        <v>0.1983465052277641</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05630736547653149</v>
+        <v>0.1275527892394789</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3595593708222264</v>
+        <v>0.267524352341574</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05501649760754419</v>
+        <v>0.1276015400880408</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.2374671669501534</v>
+        <v>0.156438925175815</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05997327418666358</v>
+        <v>0.1295581792023267</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1823834319445815</v>
+        <v>0.1305298788813527</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06274835813919398</v>
+        <v>0.1291965593391413</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2708052133889768</v>
+        <v>0.1987306495416065</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05701120754498813</v>
+        <v>0.1291471991049724</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3642388540369108</v>
+        <v>0.2686031583240887</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05570420382763849</v>
+        <v>0.1291965593391413</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.2319930976058128</v>
+        <v>0.1567252377423166</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06071368497909152</v>
+        <v>0.1311576628961825</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1828559230173156</v>
+        <v>0.1298532693723053</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06352302922733218</v>
+        <v>0.1307915785902418</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2727314520368187</v>
+        <v>0.198574644907769</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05771504961344476</v>
+        <v>0.1307416089704659</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3668580514404496</v>
+        <v>0.2696627999143471</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05639191004773279</v>
+        <v>0.1307915785902418</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.2473714790719771</v>
+        <v>0.1650628906804116</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06145409577151948</v>
+        <v>0.1327571465900384</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1847354513510719</v>
+        <v>0.1314135606483571</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06429770031547037</v>
+        <v>0.1323865978413423</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2733274819733273</v>
+        <v>0.1997748476060571</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05841889168190142</v>
+        <v>0.1323360188359594</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3670903164384625</v>
+        <v>0.2689983674559404</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05707961626782709</v>
+        <v>0.1323865978413423</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.2348607117944932</v>
+        <v>0.1564486238739846</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06219450656394742</v>
+        <v>0.1343566302838943</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1848193622339769</v>
+        <v>0.1316083665665246</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06507237140360857</v>
+        <v>0.1339816170924428</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2753751969742837</v>
+        <v>0.201427613916276</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05912273375035806</v>
+        <v>0.1339304287014528</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3708090024365681</v>
+        <v>0.2680049512924604</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0577673224879214</v>
+        <v>0.1339816170924428</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.2442819089533183</v>
+        <v>0.1648791772069205</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06293491735637537</v>
+        <v>0.1359561139777502</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1860050009541571</v>
+        <v>0.1308353009838243</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06584704249174676</v>
+        <v>0.1355766363435433</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2764564908154694</v>
+        <v>0.2003293001182311</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0598265758188147</v>
+        <v>0.1355248385669463</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3712874628403861</v>
+        <v>0.2693776417674982</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0584550287080157</v>
+        <v>0.1355766363435433</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.2287034021937417</v>
+        <v>0.1783512905631041</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06367532814880331</v>
+        <v>0.1375555976716061</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1863897127997387</v>
+        <v>0.1308919777572727</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06662171357988496</v>
+        <v>0.1371716555946438</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2758532572726654</v>
+        <v>0.2012762624917275</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06053041788727134</v>
+        <v>0.1371192484324398</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3725990510555349</v>
+        <v>0.2708115292246455</v>
       </c>
       <c r="O151" t="n">
-        <v>0.05914273492811</v>
+        <v>0.1371716555946438</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.228124289476297</v>
+        <v>0.1588617038264203</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06441573894123125</v>
+        <v>0.139155081365462</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1866708430588485</v>
+        <v>0.1321760107438863</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06739638466802315</v>
+        <v>0.1387666748457443</v>
       </c>
       <c r="L152" t="n">
-        <v>0.279126525106245</v>
+        <v>0.2026648573165709</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06123425995572798</v>
+        <v>0.1387136582979333</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3722171204876343</v>
+        <v>0.2734017040074934</v>
       </c>
       <c r="O152" t="n">
-        <v>0.05983044114820431</v>
+        <v>0.1387666748457443</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.2485436687615172</v>
+        <v>0.1604071568807539</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0651561497336592</v>
+        <v>0.1407545650593178</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1871457370196127</v>
+        <v>0.1321850138006817</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06817105575616135</v>
+        <v>0.1403616940968448</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2772036393521427</v>
+        <v>0.2022914408725662</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06193810202418464</v>
+        <v>0.1403080681634268</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3739150245423033</v>
+        <v>0.2736432564596334</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06051814736829861</v>
+        <v>0.1403616940968448</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.2299606380099355</v>
+        <v>0.1769843896099897</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06589656052608715</v>
+        <v>0.1423540487531737</v>
       </c>
       <c r="J154" t="n">
-        <v>0.188611739970158</v>
+        <v>0.1336286899539778</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06894572684429956</v>
+        <v>0.1419567133479454</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2798519188195882</v>
+        <v>0.202377936404675</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06264194409264127</v>
+        <v>0.1419024780289203</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3756724271447557</v>
+        <v>0.2738561512377019</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0612058535883929</v>
+        <v>0.1419567133479454</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.2373742951820851</v>
+        <v>0.1818342681761349</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06663697131851509</v>
+        <v>0.1439535324470296</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1891661971986107</v>
+        <v>0.1332804833224256</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06972039793243776</v>
+        <v>0.1435517325990459</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2779930882216362</v>
+        <v>0.2043525943687886</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06334578616109791</v>
+        <v>0.1434968878944138</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3736686613160692</v>
+        <v>0.2745030187786859</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06189355980848722</v>
+        <v>0.1435517325990459</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.2447837382384993</v>
+        <v>0.1642146040258222</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06737738211094303</v>
+        <v>0.1455530161408855</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1898064539930973</v>
+        <v>0.1338007419029101</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07049506902057594</v>
+        <v>0.1451467518501464</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2794259203051221</v>
+        <v>0.2062855437014663</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06404962822955457</v>
+        <v>0.1450912977599073</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3752539326565094</v>
+        <v>0.277608029315342</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06258126602858151</v>
+        <v>0.1451467518501464</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.2491880651397111</v>
+        <v>0.1610284843715805</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06811779290337099</v>
+        <v>0.1471524998347414</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1894298556417442</v>
+        <v>0.1367174337979208</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07126974010871415</v>
+        <v>0.1467417711012469</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2811491878168809</v>
+        <v>0.2090667892844627</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06475347029801121</v>
+        <v>0.1466857076254008</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3740282921030547</v>
+        <v>0.2786229721705734</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06326897224867581</v>
+        <v>0.1467417711012469</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.2365863738462539</v>
+        <v>0.1771774941764634</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06885820369579893</v>
+        <v>0.1487519835285973</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1904337474326779</v>
+        <v>0.1378585271099469</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07204441119685234</v>
+        <v>0.1483367903523474</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2822616635037482</v>
+        <v>0.2108863359995327</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06545731236646785</v>
+        <v>0.1482801174908942</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3736919809767626</v>
+        <v>0.2846996366672826</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06395667846877012</v>
+        <v>0.1483367903523474</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.2469777623186608</v>
+        <v>0.1895632184035244</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06959861448822688</v>
+        <v>0.1503514672224531</v>
       </c>
       <c r="J159" t="n">
-        <v>0.191015474654025</v>
+        <v>0.140451989941478</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07281908228499052</v>
+        <v>0.1499318096034479</v>
       </c>
       <c r="L159" t="n">
-        <v>0.280762120112559</v>
+        <v>0.2148341887284308</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0661611544349245</v>
+        <v>0.1498745273563877</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3738452405986903</v>
+        <v>0.2889898121283729</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06464438468886442</v>
+        <v>0.1499318096034479</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.2373613285174649</v>
+        <v>0.1860872420158172</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07033902528065482</v>
+        <v>0.151950950916309</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1915723825939118</v>
+        <v>0.141825790395003</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07359375337312873</v>
+        <v>0.1515268288545484</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2831493303901483</v>
+        <v>0.2166003523529119</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06686499650338114</v>
+        <v>0.1514689372218812</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3720883122898953</v>
+        <v>0.2921452878767471</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06533209090895872</v>
+        <v>0.1515268288545484</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.2367361704031996</v>
+        <v>0.1766511499763953</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07107943607308276</v>
+        <v>0.1535504346101649</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1926018165404647</v>
+        <v>0.1426078965730116</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07436842446126693</v>
+        <v>0.1531218481056489</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2811220670833519</v>
+        <v>0.2192748317547306</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06756883857183778</v>
+        <v>0.1530633470873747</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3744214373714343</v>
+        <v>0.2949178532353083</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06601979712905302</v>
+        <v>0.1531218481056489</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.2371013859363978</v>
+        <v>0.1891565272483124</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07181984686551071</v>
+        <v>0.1551499183040208</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1926011217818105</v>
+        <v>0.1451262765779928</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07514309554940513</v>
+        <v>0.1547168673567494</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2832791029390045</v>
+        <v>0.2215476318156416</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06827268064029442</v>
+        <v>0.1546577569528682</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3734448571643653</v>
+        <v>0.2983592975269591</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06670750334914732</v>
+        <v>0.1547168673567494</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.2354560730775931</v>
+        <v>0.199504958794622</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07256025765793865</v>
+        <v>0.1567494019978767</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1941676436060752</v>
+        <v>0.1468088985124363</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07591776663754334</v>
+        <v>0.1563118866078499</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2829192107039415</v>
+        <v>0.2252087574173998</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06897652270875106</v>
+        <v>0.1562521668183617</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3730588129897451</v>
+        <v>0.3036214100746026</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06739520956924164</v>
+        <v>0.1563118866078499</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.2407993297873184</v>
+        <v>0.1885980295783778</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0733006684503666</v>
+        <v>0.1583488856917326</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1940987273013856</v>
+        <v>0.1484837304788313</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07669243772568152</v>
+        <v>0.1579069058589505</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2823411631249982</v>
+        <v>0.2278482282877679</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06968036477720771</v>
+        <v>0.1578465766838551</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3744635461686311</v>
+        <v>0.304455980201142</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06808291578933594</v>
+        <v>0.1579069058589505</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.239130254026107</v>
+        <v>0.1934235708574868</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07404107924279454</v>
+        <v>0.1599483693855884</v>
       </c>
       <c r="J165" t="n">
-        <v>0.195091718155868</v>
+        <v>0.1497066596681117</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07746710881381973</v>
+        <v>0.159501925110051</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2841437329490101</v>
+        <v>0.2276678318255743</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07038420684566435</v>
+        <v>0.1594409865493486</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3718592980220808</v>
+        <v>0.3082779997184772</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06877062200943024</v>
+        <v>0.159501925110051</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.235447943754492</v>
+        <v>0.1971888143414771</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0747814900352225</v>
+        <v>0.1615478530794443</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1948439614576491</v>
+        <v>0.150297263689927</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07824177990195792</v>
+        <v>0.1610969443611515</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2838256929228118</v>
+        <v>0.2301383492928378</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07108804891412099</v>
+        <v>0.1610353964148421</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3729463098711513</v>
+        <v>0.3091335079384172</v>
       </c>
       <c r="O166" t="n">
-        <v>0.06945832822952454</v>
+        <v>0.1610969443611515</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.2417514969330067</v>
+        <v>0.1859124203291641</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07552190082765044</v>
+        <v>0.1631473367733002</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1950528024948549</v>
+        <v>0.1524579339073798</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0790164509900961</v>
+        <v>0.162691963612252</v>
       </c>
       <c r="L167" t="n">
-        <v>0.285485815793239</v>
+        <v>0.2333632700657708</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07179189098257764</v>
+        <v>0.1626298062803356</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3717248230368999</v>
+        <v>0.3148274252581313</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07014603444961884</v>
+        <v>0.162691963612252</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.2520400115221842</v>
+        <v>0.2025975108417278</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07626231162007838</v>
+        <v>0.1647468204671561</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1943155865556122</v>
+        <v>0.1528909553890595</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07979112207823431</v>
+        <v>0.1642869828633525</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2839228743071267</v>
+        <v>0.2344460835205853</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07249573305103428</v>
+        <v>0.1642242161458291</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3725950788403839</v>
+        <v>0.3139644533663791</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07083374066971315</v>
+        <v>0.1642869828633525</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.2433125854825579</v>
+        <v>0.2072472079003481</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07700272241250633</v>
+        <v>0.166346304161012</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1960296589280476</v>
+        <v>0.1552986132035556</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08056579316637251</v>
+        <v>0.165882002114453</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2843356412113105</v>
+        <v>0.2355902790334938</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07319957511949092</v>
+        <v>0.1658186260113226</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3744573186026605</v>
+        <v>0.3177492939519202</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07152144688980744</v>
+        <v>0.165882002114453</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.2385683167746607</v>
+        <v>0.2028646335262048</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07774313320493427</v>
+        <v>0.1679457878548679</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1950923649002872</v>
+        <v>0.1560831924194574</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08134046425451071</v>
+        <v>0.1674770213655535</v>
       </c>
       <c r="L170" t="n">
-        <v>0.284422889252625</v>
+        <v>0.2378993459807085</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07390341718794757</v>
+        <v>0.1674130358768161</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3737117836447872</v>
+        <v>0.3220866487035141</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07220915310990174</v>
+        <v>0.1674770213655535</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.244806303359026</v>
+        <v>0.210452909740478</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07848354399736222</v>
+        <v>0.1695452715487237</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1955010497604577</v>
+        <v>0.1569469781053547</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08211513534264892</v>
+        <v>0.169072040616654</v>
       </c>
       <c r="L171" t="n">
-        <v>0.286483391177906</v>
+        <v>0.2406767737384416</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07460725925640421</v>
+        <v>0.1690074457423096</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3722587152878213</v>
+        <v>0.3219812193099203</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07289685932999605</v>
+        <v>0.169072040616654</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.2480256431961869</v>
+        <v>0.2100151585643474</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07922395478979016</v>
+        <v>0.1711447552425796</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1966530587966854</v>
+        <v>0.1576922553298367</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0828898064307871</v>
+        <v>0.1706670598677545</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2875159197339885</v>
+        <v>0.2415260516829053</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07531110132486085</v>
+        <v>0.1706018556078031</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3740983548528197</v>
+        <v>0.3241377074598986</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07358456555009035</v>
+        <v>0.1706670598677545</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.2352254342466766</v>
+        <v>0.2095545020189932</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0799643655822181</v>
+        <v>0.1727442389364355</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1956235867567259</v>
+        <v>0.159821309161493</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08366447751892529</v>
+        <v>0.172262079118855</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2860192476677078</v>
+        <v>0.2433506691903119</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07601494339331751</v>
+        <v>0.1721962654732965</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3739309436608401</v>
+        <v>0.3266608148422087</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07427227177018465</v>
+        <v>0.172262079118855</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.2494047744710284</v>
+        <v>0.1950740621255951</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08070477637464606</v>
+        <v>0.1743437226302914</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1959312342964662</v>
+        <v>0.161236424668913</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0844391486070635</v>
+        <v>0.1738570983699556</v>
       </c>
       <c r="L174" t="n">
-        <v>0.287992147725899</v>
+        <v>0.2447541156368736</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07671878546177414</v>
+        <v>0.17379067533879</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3705567230329395</v>
+        <v>0.3306552431456097</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07495997799027895</v>
+        <v>0.1738570983699556</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.2405627618297754</v>
+        <v>0.206576960905333</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08144518716707401</v>
+        <v>0.1759432063241473</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1956789840449733</v>
+        <v>0.1607398869206862</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08521381969520168</v>
+        <v>0.1754521176210561</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2879333926553975</v>
+        <v>0.2465398803988029</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0774226275302308</v>
+        <v>0.1753850852042835</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3725759342901755</v>
+        <v>0.3323256940588617</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07564768421037325</v>
+        <v>0.1754521176210561</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.2466984942834509</v>
+        <v>0.1970681127155674</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08218559795950195</v>
+        <v>0.1775426900180032</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1951785441037775</v>
+        <v>0.1633421884629465</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08598849078333988</v>
+        <v>0.1770471368721566</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2879417552030386</v>
+        <v>0.2481260901491815</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07812646959868744</v>
+        <v>0.176979495069777</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3696888187536052</v>
+        <v>0.3343937567309488</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07633539043046757</v>
+        <v>0.1770471368721566</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.2328110697925879</v>
+        <v>0.2086265460386839</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08292600875192989</v>
+        <v>0.179142173711859</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1941416225744093</v>
+        <v>0.1638053908110003</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08676316187147809</v>
+        <v>0.1786421561232571</v>
       </c>
       <c r="L177" t="n">
-        <v>0.286616008115657</v>
+        <v>0.251406788939961</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07883031166714408</v>
+        <v>0.1785739049352704</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3726956177442858</v>
+        <v>0.3366871270788622</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07702309665056187</v>
+        <v>0.1786421561232571</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.2338995863177197</v>
+        <v>0.2192545617939884</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08366641954435783</v>
+        <v>0.1807416574057149</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1926799275583993</v>
+        <v>0.1648101057658033</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08753783295961629</v>
+        <v>0.1802371753743576</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2870549241400887</v>
+        <v>0.2518489099585993</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07953415373560073</v>
+        <v>0.180168314800764</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3728965725832748</v>
+        <v>0.33896591252435</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07771080287065617</v>
+        <v>0.1802371753743576</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.2509631418193796</v>
+        <v>0.2078985291640071</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08440683033678578</v>
+        <v>0.1823411410995708</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1927051671572777</v>
+        <v>0.1662170798792285</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08831250404775448</v>
+        <v>0.1818321946254581</v>
       </c>
       <c r="L179" t="n">
-        <v>0.287752765085268</v>
+        <v>0.2544925118760812</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08023799580405737</v>
+        <v>0.1817627246662574</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3716919245916294</v>
+        <v>0.3423493463470243</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07839850909075047</v>
+        <v>0.1818321946254581</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.2390008342581006</v>
+        <v>0.2245048173312663</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08514724112921374</v>
+        <v>0.1839406247934267</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1911290494725751</v>
+        <v>0.167387059703149</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08908717513589268</v>
+        <v>0.1834272138765586</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2863743884968352</v>
+        <v>0.2564776533633921</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08094183787251401</v>
+        <v>0.1833571345317509</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3711819150904068</v>
+        <v>0.3448566618264964</v>
       </c>
       <c r="O180" t="n">
-        <v>0.07908621531084477</v>
+        <v>0.1834272138765586</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.2570113681083929</v>
+        <v>0.2290197954782923</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08588765192164168</v>
+        <v>0.1855401084872826</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1896632826058219</v>
+        <v>0.167580791789438</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08986184622403087</v>
+        <v>0.1850222331276591</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2867153234990274</v>
+        <v>0.2574443930915171</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08164567994097065</v>
+        <v>0.1849515443972444</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3695667854006642</v>
+        <v>0.3459070922423783</v>
       </c>
       <c r="O181" t="n">
-        <v>0.07977392153093908</v>
+        <v>0.1850222331276591</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.2349484192338503</v>
+        <v>0.2303898327876112</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08662806271406961</v>
+        <v>0.1871395921811385</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1897195746585485</v>
+        <v>0.1691590226899687</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09063651731216908</v>
+        <v>0.1866172523787596</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2871789259342554</v>
+        <v>0.2581327897314414</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08234952200942729</v>
+        <v>0.1865459542627379</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3716467768434593</v>
+        <v>0.3499198708742816</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08046162775103338</v>
+        <v>0.1866172523787596</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.2357842336378523</v>
+        <v>0.2125612984417493</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08736847350649757</v>
+        <v>0.1887390758749944</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1871096337322854</v>
+        <v>0.1694824989566139</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09141118840030726</v>
+        <v>0.1882122716298602</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2858685516449303</v>
+        <v>0.2602829019541498</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08305336407788393</v>
+        <v>0.1881403641282314</v>
       </c>
       <c r="N183" t="n">
-        <v>0.370422130739849</v>
+        <v>0.348814231001818</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08114933397112767</v>
+        <v>0.1882122716298602</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.2525239017028368</v>
+        <v>0.2284805616232329</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08810888429892551</v>
+        <v>0.1903385595688502</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1872451679285631</v>
+        <v>0.1713119671412469</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09218585948844546</v>
+        <v>0.1898072908809607</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2850875564734627</v>
+        <v>0.2602347884306278</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08375720614634058</v>
+        <v>0.1897347739937249</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3715930884108908</v>
+        <v>0.3503094059045991</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08183704019122198</v>
+        <v>0.1898072908809607</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.2561725138112419</v>
+        <v>0.2151295652497424</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08884929509135345</v>
+        <v>0.1919380432627061</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1860378853489119</v>
+        <v>0.1711659899400209</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09296053057658367</v>
+        <v>0.1914023101320612</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2865392962622633</v>
+        <v>0.2629249940337289</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08446104821479722</v>
+        <v>0.1913291838592184</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3681598911776418</v>
+        <v>0.3512435896308272</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08252474641131628</v>
+        <v>0.1914023101320612</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.2367351603455055</v>
+        <v>0.2257211306550632</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0895897058837814</v>
+        <v>0.193537526956562</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1845994940948625</v>
+        <v>0.1717993527874317</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09373520166472186</v>
+        <v>0.1929973293831617</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2850271268537429</v>
+        <v>0.2625868326315404</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08516489028325386</v>
+        <v>0.1929235937247119</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3708227803611596</v>
+        <v>0.3535352640592837</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08321245263141058</v>
+        <v>0.1929973293831617</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.2442169316880656</v>
+        <v>0.2152999524116245</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09033011667620934</v>
+        <v>0.1951370106504179</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1819417022679451</v>
+        <v>0.172423330662808</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09450987275286006</v>
+        <v>0.1945923486342622</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2848544040903124</v>
+        <v>0.2644343280093403</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08586873235171051</v>
+        <v>0.1945180035902053</v>
       </c>
       <c r="N187" t="n">
-        <v>0.367281997282501</v>
+        <v>0.3536076282500842</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08390015885150488</v>
+        <v>0.1945923486342622</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.2516229182213603</v>
+        <v>0.2128658331507607</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09107052746863729</v>
+        <v>0.1967364943442738</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1817762179696902</v>
+        <v>0.1716377791081491</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09528454384099826</v>
+        <v>0.1961873678853627</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2828244838143826</v>
+        <v>0.2632672595749269</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08657257442016715</v>
+        <v>0.1961124134556988</v>
       </c>
       <c r="N188" t="n">
-        <v>0.368134686951041</v>
+        <v>0.3549603849707681</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08458786507159918</v>
+        <v>0.1961873678853627</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.2399582103278277</v>
+        <v>0.2164185755038064</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09181093826106523</v>
+        <v>0.1983359780381297</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1797147493016283</v>
+        <v>0.1725425536654543</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09605921492913645</v>
+        <v>0.1977823871364632</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2822407218683642</v>
+        <v>0.2639854067360983</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0872764164886238</v>
+        <v>0.1977068233211923</v>
       </c>
       <c r="N189" t="n">
-        <v>0.369954845896529</v>
+        <v>0.3575932369888757</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08527557129169348</v>
+        <v>0.1977823871364632</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.2382278983899058</v>
+        <v>0.2339579821020963</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09255134905349317</v>
+        <v>0.1999354617319855</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1787690043652898</v>
+        <v>0.1736375098767228</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09683388601727465</v>
+        <v>0.1993774063875637</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2810064740946682</v>
+        <v>0.2660885489006525</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08798025855708044</v>
+        <v>0.1993012331866858</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3698370225638684</v>
+        <v>0.3561058870719466</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0859632775117878</v>
+        <v>0.1993774063875637</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.2504370727900325</v>
+        <v>0.2224838555769647</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09329175984592113</v>
+        <v>0.2015349454258414</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1777506912622052</v>
+        <v>0.1739225032839538</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09760855710541284</v>
+        <v>0.2009724256386642</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2803250963357051</v>
+        <v>0.2647764654763879</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08868410062553708</v>
+        <v>0.2008956430521793</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3662817922988351</v>
+        <v>0.3560980379875206</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0866509837318821</v>
+        <v>0.2009724256386642</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.2295908239106458</v>
+        <v>0.2329959985597462</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09403217063834908</v>
+        <v>0.2031344291196973</v>
       </c>
       <c r="J192" t="n">
-        <v>0.176471518093905</v>
+        <v>0.1741973894291464</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09838322819355104</v>
+        <v>0.2025674448897647</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2792999444338857</v>
+        <v>0.2650489358711025</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08938794269399374</v>
+        <v>0.2024900529176727</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3657897304472046</v>
+        <v>0.3582693925031378</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0873386899519764</v>
+        <v>0.2025674448897647</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.247694242134184</v>
+        <v>0.2224942136817754</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09477258143077702</v>
+        <v>0.2047339128135532</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1756431929619195</v>
+        <v>0.1753620238543002</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09915789928168924</v>
+        <v>0.2041624641408653</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2797343742316212</v>
+        <v>0.2662057394925942</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09009178476245037</v>
+        <v>0.2040844627831662</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3686614123547536</v>
+        <v>0.360519653386338</v>
       </c>
       <c r="O193" t="n">
-        <v>0.0880263961720707</v>
+        <v>0.2041624641408653</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.2447524178430848</v>
+        <v>0.2379783035743867</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09551299222320496</v>
+        <v>0.2063333965074091</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1728774239677792</v>
+        <v>0.1757162621014141</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09993257036982744</v>
+        <v>0.2057574833919658</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2789317415713219</v>
+        <v>0.2659466557486616</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09079562683090701</v>
+        <v>0.2056788726486597</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3655974133672573</v>
+        <v>0.3595485234046607</v>
       </c>
       <c r="O194" t="n">
-        <v>0.088714102392165</v>
+        <v>0.2057574833919658</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.2327704414197865</v>
+        <v>0.2184480708689147</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0962534030156329</v>
+        <v>0.207932880201265</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1722859192130146</v>
+        <v>0.1749599597124875</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1007072414579656</v>
+        <v>0.2073525026430663</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2788954022953989</v>
+        <v>0.2672714640471023</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09149946889936367</v>
+        <v>0.2072732825141532</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3646983088304918</v>
+        <v>0.3619557053256464</v>
       </c>
       <c r="O195" t="n">
-        <v>0.08940180861225931</v>
+        <v>0.2073525026430663</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.2257534032467268</v>
+        <v>0.2149033181966941</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09699381380806087</v>
+        <v>0.2095323638951209</v>
       </c>
       <c r="J196" t="n">
-        <v>0.170980386799156</v>
+        <v>0.1763929722295195</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1014819125461038</v>
+        <v>0.2089475218941668</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2773287122462628</v>
+        <v>0.2685799437957151</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09220331096782031</v>
+        <v>0.2088676923796467</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3672646740902327</v>
+        <v>0.3599409019168344</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09008951483235361</v>
+        <v>0.2089475218941668</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.227706393706344</v>
+        <v>0.2173438481890592</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09773422460048881</v>
+        <v>0.2111318475889767</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1715725348277341</v>
+        <v>0.1761151551945094</v>
       </c>
       <c r="K197" t="n">
-        <v>0.102256583634242</v>
+        <v>0.2105425411452673</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2756350272663245</v>
+        <v>0.2697718744022979</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09290715303627695</v>
+        <v>0.2104621022451402</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3659970844922561</v>
+        <v>0.3629038159457648</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09077722105244791</v>
+        <v>0.2105425411452673</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.240634503181076</v>
+        <v>0.2397694634773446</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09847463539291675</v>
+        <v>0.2127313312828326</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1692740714002791</v>
+        <v>0.1767263641494564</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1030312547223802</v>
+        <v>0.2121375603963678</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2760177031979948</v>
+        <v>0.2703470352746484</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09361099510473359</v>
+        <v>0.2120565121106337</v>
       </c>
       <c r="N198" t="n">
-        <v>0.364896115382338</v>
+        <v>0.3616441501799774</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09146492727254221</v>
+        <v>0.2121375603963678</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.236542822053361</v>
+        <v>0.2371799666928849</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09921504618534469</v>
+        <v>0.2143308149766885</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1700967046183217</v>
+        <v>0.17682645463636</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1038059258105184</v>
+        <v>0.2137325796474683</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2740800958836844</v>
+        <v>0.2693052058205652</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09431483717319022</v>
+        <v>0.2136509219761272</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3637623421062539</v>
+        <v>0.3637616073870122</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09215263349263651</v>
+        <v>0.2137325796474683</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.2394364407056367</v>
+        <v>0.2385751604670145</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09995545697777264</v>
+        <v>0.2159302986705444</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1678521425833921</v>
+        <v>0.176915282197219</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1045805968986566</v>
+        <v>0.2153275988985688</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2733255611658042</v>
+        <v>0.2705461654478465</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09501867924164688</v>
+        <v>0.2152453318416206</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3626963400097799</v>
+        <v>0.364155890334409</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09284033971273083</v>
+        <v>0.2153275988985688</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.2303204495203414</v>
+        <v>0.2199548474310681</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1006958677702006</v>
+        <v>0.2175297823644003</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1678520933970208</v>
+        <v>0.1773927023740328</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1053552679867948</v>
+        <v>0.2169226181496693</v>
       </c>
       <c r="L201" t="n">
-        <v>0.272957454886765</v>
+        <v>0.2697696935642901</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09572252131010352</v>
+        <v>0.2168397417071141</v>
       </c>
       <c r="N201" t="n">
-        <v>0.361198684438692</v>
+        <v>0.3648267017897074</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09352804593282511</v>
+        <v>0.2169226181496693</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.2281999388799129</v>
+        <v>0.2373188302163802</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1014362785626285</v>
+        <v>0.2191292660582561</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1676082651607384</v>
+        <v>0.1775585707088009</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106129939074933</v>
+        <v>0.2185176374007698</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2716791328889775</v>
+        <v>0.2720755695776943</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09642636337856016</v>
+        <v>0.2184341515726076</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3598699507387656</v>
+        <v>0.3633737445204477</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09421575215291941</v>
+        <v>0.2185176374007698</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.2250799991667894</v>
+        <v>0.2276669114542852</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1021766893550565</v>
+        <v>0.220728749752112</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1677319667220969</v>
+        <v>0.1768127427435221</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1069046101630712</v>
+        <v>0.2201126566518704</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2685939510148525</v>
+        <v>0.2721635728958575</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09713020544701681</v>
+        <v>0.2200285614381011</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3617107142557769</v>
+        <v>0.3653967212941692</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09490345837301373</v>
+        <v>0.2201126566518704</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.236965720763409</v>
+        <v>0.2249988937761178</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1029171001474844</v>
+        <v>0.2223282334459679</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1681319703945394</v>
+        <v>0.1770550740201959</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1076792812512094</v>
+        <v>0.2217076759029708</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2686052651068008</v>
+        <v>0.2713334829265774</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09783404751547345</v>
+        <v>0.2216229713035946</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3616215503355019</v>
+        <v>0.3664953348784125</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09559116459310803</v>
+        <v>0.2217076759029708</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.2238621940522095</v>
+        <v>0.2283145798132125</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1036575109399124</v>
+        <v>0.2239277171398238</v>
       </c>
       <c r="J205" t="n">
-        <v>0.168531993434422</v>
+        <v>0.1770854200808215</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1084539523393476</v>
+        <v>0.2233026951540713</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2683164310072332</v>
+        <v>0.2729850790776523</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09853788958393009</v>
+        <v>0.2232173811690881</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3582030343237161</v>
+        <v>0.3658692880407167</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09627887081320233</v>
+        <v>0.2233026951540713</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.217774509415629</v>
+        <v>0.2276137721969037</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1043979217323403</v>
+        <v>0.2255272008336797</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1688320539969833</v>
+        <v>0.1774036364673981</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1092286234274858</v>
+        <v>0.2248977144051719</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2661308045585605</v>
+        <v>0.2713181407568808</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09924173165238674</v>
+        <v>0.2248117910345816</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3592557415661954</v>
+        <v>0.3660182835486222</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09696657703329663</v>
+        <v>0.2248977144051719</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.2137077572361055</v>
+        <v>0.225896273558526</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1051383325247683</v>
+        <v>0.2271266845275356</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1674321702374618</v>
+        <v>0.1782095787219249</v>
       </c>
       <c r="K207" t="n">
-        <v>0.110003294515624</v>
+        <v>0.2264927336562724</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2659517416031936</v>
+        <v>0.2739324473720601</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09994557372084338</v>
+        <v>0.226406200900075</v>
       </c>
       <c r="N207" t="n">
-        <v>0.358580247408716</v>
+        <v>0.3672420241696687</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09765428325339093</v>
+        <v>0.2264927336562724</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.2196670278960772</v>
+        <v>0.2301618865294141</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1058787433171962</v>
+        <v>0.2287261682213915</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1674323603110959</v>
+        <v>0.1782031023864012</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1107779656037622</v>
+        <v>0.2280877529073729</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2655825979835431</v>
+        <v>0.2737277783309892</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1006494157893</v>
+        <v>0.2280006107655685</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3554771271970535</v>
+        <v>0.3670402126713959</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09834198947348524</v>
+        <v>0.2280877529073729</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.2296574117779819</v>
+        <v>0.2204104137409023</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1066191541096242</v>
+        <v>0.2303256519152473</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1672326423731241</v>
+        <v>0.1785840630028263</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1115526366919004</v>
+        <v>0.2296827721584734</v>
       </c>
       <c r="L209" t="n">
-        <v>0.26422672954202</v>
+        <v>0.2721039130414659</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1013532578577567</v>
+        <v>0.229595020631062</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3546469562769836</v>
+        <v>0.3692125518213438</v>
       </c>
       <c r="O209" t="n">
-        <v>0.09902969569357954</v>
+        <v>0.2296827721584734</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.2296828389730813</v>
+        <v>0.2256416578243252</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1073595649020521</v>
+        <v>0.2319251356091032</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1683330345787849</v>
+        <v>0.1791523161131992</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1123273077800386</v>
+        <v>0.2312777914095739</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2629874921210348</v>
+        <v>0.2732606309112882</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1020570999262133</v>
+        <v>0.2311894304965555</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3553903099942827</v>
+        <v>0.3698587443870521</v>
       </c>
       <c r="O210" t="n">
-        <v>0.09971740191367384</v>
+        <v>0.2312777914095739</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.2137145985830353</v>
+        <v>0.2238554214110174</v>
       </c>
       <c r="G211" t="n">
-        <v>0.10809997569448</v>
+        <v>0.2335246193029591</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1684335550833167</v>
+        <v>0.1799077172595194</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1131019788681768</v>
+        <v>0.2328728106606744</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2600682415629986</v>
+        <v>0.2742977113482545</v>
       </c>
       <c r="M211" t="n">
-        <v>0.10276094199467</v>
+        <v>0.232783840362049</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3551077636947261</v>
+        <v>0.3697784931360608</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1004051081337681</v>
+        <v>0.2328728106606744</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.2087383959424057</v>
+        <v>0.2250515071323134</v>
       </c>
       <c r="G212" t="n">
-        <v>0.108840386486908</v>
+        <v>0.235124102996815</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1671342220419582</v>
+        <v>0.1783501219837859</v>
       </c>
       <c r="K212" t="n">
-        <v>0.113876649956315</v>
+        <v>0.2344678299117749</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2590723337103219</v>
+        <v>0.272714933760163</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1034647840631266</v>
+        <v>0.2343782502275425</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3535998927240899</v>
+        <v>0.3681715008359101</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1010928143538624</v>
+        <v>0.2344678299117749</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.2117542185264338</v>
+        <v>0.2292297176195477</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1095807972793359</v>
+        <v>0.2367235866906709</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1673350536099476</v>
+        <v>0.180279385827998</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1146513210444532</v>
+        <v>0.2360628491628754</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2589031244054156</v>
+        <v>0.2735120775548114</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1041686261315832</v>
+        <v>0.235972660093036</v>
       </c>
       <c r="N213" t="n">
-        <v>0.35136727242815</v>
+        <v>0.3699374702541391</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1017805205739568</v>
+        <v>0.2360628491628754</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.2137620538103612</v>
+        <v>0.2373898555040549</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1103212080717639</v>
+        <v>0.2383230703845267</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1677360679425236</v>
+        <v>0.1798953643341551</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1154259921325914</v>
+        <v>0.2376578684139759</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2594639694906907</v>
+        <v>0.2746889221399984</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1048724682000399</v>
+        <v>0.2375670699585295</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3497104781526822</v>
+        <v>0.3685761041582883</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1024682267940511</v>
+        <v>0.2376578684139759</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.2117618892694292</v>
+        <v>0.2355317234171695</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1110616188641918</v>
+        <v>0.2399225540783826</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1681372831949247</v>
+        <v>0.1789979130442562</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1162006632207296</v>
+        <v>0.2392528876650765</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2574582248085578</v>
+        <v>0.2756452469235219</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1055763102684965</v>
+        <v>0.2391614798240229</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3510300852434624</v>
+        <v>0.3692871053158975</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1031559330141453</v>
+        <v>0.2392528876650765</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.2047537123788794</v>
+        <v>0.234655123990226</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1118020296566198</v>
+        <v>0.2415220377722385</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1682387175223891</v>
+        <v>0.1801868875003008</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1169753343088678</v>
+        <v>0.240847906916177</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2550892462014277</v>
+        <v>0.2745808313131799</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1062801523369532</v>
+        <v>0.2407558896895164</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3504266690462663</v>
+        <v>0.3683701764945061</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1038436392342397</v>
+        <v>0.240847906916177</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.2017375106139531</v>
+        <v>0.2397598598545591</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1125424404490477</v>
+        <v>0.2431215214660944</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1684403890801556</v>
+        <v>0.1796621432442878</v>
       </c>
       <c r="K217" t="n">
-        <v>0.117750005397006</v>
+        <v>0.2424429261672775</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2569593085760788</v>
+        <v>0.2754954547167705</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1069839944054098</v>
+        <v>0.2423502995550099</v>
       </c>
       <c r="N217" t="n">
-        <v>0.34750080490687</v>
+        <v>0.3715250204616544</v>
       </c>
       <c r="O217" t="n">
-        <v>0.104531345454334</v>
+        <v>0.2424429261672775</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.2087132714498918</v>
+        <v>0.234845733641503</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1132828512414756</v>
+        <v>0.2447210051599503</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1687423160234626</v>
+        <v>0.1800235358182167</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1185246764851442</v>
+        <v>0.2440379454183779</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2555419552944758</v>
+        <v>0.2746888965420922</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1076878364738665</v>
+        <v>0.2439447094205034</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3464530681710494</v>
+        <v>0.3682513399848819</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1052190516744283</v>
+        <v>0.2440379454183779</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.2156809823619369</v>
+        <v>0.2349125479823926</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1140232620339036</v>
+        <v>0.2463204888538062</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1670445165075485</v>
+        <v>0.1806709207640866</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1192993475732824</v>
+        <v>0.2456329646694785</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2549245870606733</v>
+        <v>0.274760936196943</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1083916785423231</v>
+        <v>0.2455391192859969</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3435840341845802</v>
+        <v>0.368448837831729</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1059067578945226</v>
+        <v>0.2456329646694785</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.2176406308253298</v>
+        <v>0.2379601055085622</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1147636728263316</v>
+        <v>0.2479199725476621</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1688470086876518</v>
+        <v>0.1791041536238968</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1200740186614206</v>
+        <v>0.247227983920579</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2529072038063171</v>
+        <v>0.2748113530891209</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1090955206107797</v>
+        <v>0.2471335291514904</v>
       </c>
       <c r="N220" t="n">
-        <v>0.343494278293238</v>
+        <v>0.371617216769735</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1065944641146169</v>
+        <v>0.247227983920579</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.203592204315312</v>
+        <v>0.2399882088513464</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1155040836187595</v>
+        <v>0.2495194562415179</v>
       </c>
       <c r="J221" t="n">
-        <v>0.168249810719011</v>
+        <v>0.1800230899396465</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1208486897495588</v>
+        <v>0.2488230031716795</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2513898054630538</v>
+        <v>0.2744399266264242</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1097993626792364</v>
+        <v>0.2487279390169839</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3432610044923505</v>
+        <v>0.3684561795664399</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1072821703347112</v>
+        <v>0.2488230031716795</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.197535690307125</v>
+        <v>0.2339950643592379</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1162444944111874</v>
+        <v>0.2511189399353738</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1687529407568647</v>
+        <v>0.1796195571628826</v>
       </c>
       <c r="K222" t="n">
-        <v>0.121623360837697</v>
+        <v>0.2504180224227801</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2502723919625294</v>
+        <v>0.2752320140869353</v>
       </c>
       <c r="M222" t="n">
-        <v>0.110503204747693</v>
+        <v>0.2503223488824773</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3417213324318616</v>
+        <v>0.3686489106306726</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1079698765548055</v>
+        <v>0.2504180224227801</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.2194710762760101</v>
+        <v>0.2216483383825062</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1169849052036154</v>
+        <v>0.2527184236292297</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1677564169564512</v>
+        <v>0.1792141437439348</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1223980319258351</v>
+        <v>0.2520130416738806</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2496549632363901</v>
+        <v>0.2736548783485664</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1112070468161497</v>
+        <v>0.2519167587479709</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3389733349763426</v>
+        <v>0.3702205011179274</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1086575827748998</v>
+        <v>0.2520130416738806</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1963983496972088</v>
+        <v>0.238739945065795</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1177253159960433</v>
+        <v>0.2543179073230856</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1679602574730091</v>
+        <v>0.1780016523392653</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1231727030139734</v>
+        <v>0.2536080609249811</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2507375192162823</v>
+        <v>0.2743569609319745</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1119108888846063</v>
+        <v>0.2535111686134643</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3388187617145918</v>
+        <v>0.3681545001216846</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1093452889949941</v>
+        <v>0.2536080609249811</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.2173174980459625</v>
+        <v>0.2353314127844773</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1184657267884713</v>
+        <v>0.2559173910169415</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1687644804617768</v>
+        <v>0.1769271167746637</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1239473741021116</v>
+        <v>0.2552030801760816</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2478200598338522</v>
+        <v>0.2714070299963212</v>
       </c>
       <c r="M225" t="n">
-        <v>0.112614730953063</v>
+        <v>0.2551055784789578</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3363593622354072</v>
+        <v>0.3674435678944595</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1100329952150884</v>
+        <v>0.2552030801760816</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.2002285087975127</v>
+        <v>0.2264842699139265</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1192061375808992</v>
+        <v>0.2575168747107974</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1687691040779929</v>
+        <v>0.177235570875919</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1247220451902498</v>
+        <v>0.2567980994271821</v>
       </c>
       <c r="L226" t="n">
-        <v>0.248202585020746</v>
+        <v>0.2696738537007681</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1133185730215196</v>
+        <v>0.2566999883444513</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3334968861275869</v>
+        <v>0.3620803646887677</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1107207014351827</v>
+        <v>0.2567980994271821</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1931313694271009</v>
+        <v>0.2382600448295159</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1199465483733272</v>
+        <v>0.2591163584046533</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1682741464768957</v>
+        <v>0.1756720484688205</v>
       </c>
       <c r="K227" t="n">
-        <v>0.125496716278388</v>
+        <v>0.2583931186782826</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2474850947086099</v>
+        <v>0.2681262002044766</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1140224150899763</v>
+        <v>0.2582943982099448</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3346330829799289</v>
+        <v>0.3592575507571244</v>
       </c>
       <c r="O227" t="n">
-        <v>0.111408407655277</v>
+        <v>0.2583931186782826</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.2030260674099683</v>
+        <v>0.2147202659066189</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1206869591657551</v>
+        <v>0.2607158420985092</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1681796258137239</v>
+        <v>0.1732815833791575</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1262713873665262</v>
+        <v>0.2599881379293831</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2457675888290901</v>
+        <v>0.2652328376666088</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1147262571584329</v>
+        <v>0.2598888080754382</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3310697023812315</v>
+        <v>0.3550677863520447</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1120961138753713</v>
+        <v>0.2599881379293831</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.2079125902213565</v>
+        <v>0.2149264615206087</v>
       </c>
       <c r="G229" t="n">
-        <v>0.121427369958183</v>
+        <v>0.2623153257923651</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1677855602437159</v>
+        <v>0.1709092094327192</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1270460584546644</v>
+        <v>0.2615831571804836</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2457500673138329</v>
+        <v>0.2604625342463258</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1154300992268895</v>
+        <v>0.2614832179409318</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3283084939202927</v>
+        <v>0.3518037317260443</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1127838200954656</v>
+        <v>0.2615831571804836</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.2057909253365069</v>
+        <v>0.2109401600468587</v>
       </c>
       <c r="G230" t="n">
-        <v>0.122167780750611</v>
+        <v>0.2639148094862209</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1681919679221101</v>
+        <v>0.1689999604552949</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1278207295428025</v>
+        <v>0.2631781764315841</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2438325300944846</v>
+        <v>0.2579840581027896</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1161339412953462</v>
+        <v>0.2630776278064252</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3274512071859108</v>
+        <v>0.3458580471316381</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1134715263155599</v>
+        <v>0.2631781764315841</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1976610602306609</v>
+        <v>0.2228228898607421</v>
       </c>
       <c r="G231" t="n">
-        <v>0.122908191543039</v>
+        <v>0.2655142931800768</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1675988670041451</v>
+        <v>0.1658988702726738</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1285954006309407</v>
+        <v>0.2647731956826846</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2451149771026913</v>
+        <v>0.2532661773951616</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1168377833638028</v>
+        <v>0.2646720376719188</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3255995917668839</v>
+        <v>0.340823392821342</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1141592325356542</v>
+        <v>0.2647731956826846</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1955229823790602</v>
+        <v>0.2036361793376323</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1236486023354669</v>
+        <v>0.2671137768739327</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1682062756450593</v>
+        <v>0.1632509727106453</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1293700717190789</v>
+        <v>0.2663682149337852</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2425974082700992</v>
+        <v>0.2514776602826035</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1175416254322595</v>
+        <v>0.2662664475374122</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3220553972520098</v>
+        <v>0.3363924290476709</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1148469387557485</v>
+        <v>0.2663682149337852</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.188376679256946</v>
+        <v>0.2034415568529026</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1243890131278948</v>
+        <v>0.2687132605677885</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1676142120000913</v>
+        <v>0.1613013015949985</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1301447428072171</v>
+        <v>0.2679632341848856</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2417798235283546</v>
+        <v>0.247587274924277</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1182454675007161</v>
+        <v>0.2678608574029057</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3191203732300869</v>
+        <v>0.3317578160631404</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1155346449758428</v>
+        <v>0.2679632341848856</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1882221383395596</v>
+        <v>0.2133005507819263</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1251294239203228</v>
+        <v>0.2703127442616444</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1680226942244794</v>
+        <v>0.1600948907515228</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1309194138953553</v>
+        <v>0.2695582534359861</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2408622228091038</v>
+        <v>0.2443637894793435</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1189493095691728</v>
+        <v>0.2694552672683992</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3158962692899133</v>
+        <v>0.3265122141202655</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1162223511959371</v>
+        <v>0.2695582534359861</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1910593471021427</v>
+        <v>0.1932746895000766</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1258698347127507</v>
+        <v>0.2719122279555004</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1685317404734622</v>
+        <v>0.1566767740060071</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1316940849834935</v>
+        <v>0.2711532726870867</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2404446060439929</v>
+        <v>0.2408759721069648</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1196531516376294</v>
+        <v>0.2710496771338927</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3140848350202869</v>
+        <v>0.3247482834715619</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1169100574160314</v>
+        <v>0.2711532726870867</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1998882930199365</v>
+        <v>0.201425501382727</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1266102455051787</v>
+        <v>0.2735117116493562</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1688413689022783</v>
+        <v>0.1557919851842412</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1324687560716317</v>
+        <v>0.2727482919381872</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2399269731646684</v>
+        <v>0.2369925909663024</v>
       </c>
       <c r="M236" t="n">
-        <v>0.120356993706086</v>
+        <v>0.2726440869993862</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3115878200100061</v>
+        <v>0.3181586843695445</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1175977636361257</v>
+        <v>0.2727482919381872</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1847089635681828</v>
+        <v>0.1978124699181299</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1273506562976066</v>
+        <v>0.2751111953432121</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1674515976661659</v>
+        <v>0.1536814288316398</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1332434271597699</v>
+        <v>0.2743433111892877</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2393093241027761</v>
+        <v>0.2340753995276736</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1210608357745427</v>
+        <v>0.2742384968648796</v>
       </c>
       <c r="N237" t="n">
-        <v>0.3104069738478689</v>
+        <v>0.313127580782981</v>
       </c>
       <c r="O237" t="n">
-        <v>0.11828546985622</v>
+        <v>0.2743433111892877</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1825213462221227</v>
+        <v>0.1863010890460011</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1280910670900346</v>
+        <v>0.276710679037068</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1674624449203637</v>
+        <v>0.1513324932750769</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1340180982479081</v>
+        <v>0.2759383304403882</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2383916587899625</v>
+        <v>0.2301497495711222</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1217646778429993</v>
+        <v>0.2758329067303731</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3052440461226734</v>
+        <v>0.3111232663026293</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1189731760763143</v>
+        <v>0.2759383304403882</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1803254284569977</v>
+        <v>0.1877804121010686</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1288314778824625</v>
+        <v>0.2783101627309239</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1681739288201101</v>
+        <v>0.1502767269320757</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1347927693360463</v>
+        <v>0.2775333496914887</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2365739771578739</v>
+        <v>0.2270136631694695</v>
       </c>
       <c r="M239" t="n">
-        <v>0.122468519911456</v>
+        <v>0.2774273165958666</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3033007864232177</v>
+        <v>0.3088048970004819</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1196608822964086</v>
+        <v>0.2775333496914887</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1771211977480493</v>
+        <v>0.196250293320329</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1295718886748904</v>
+        <v>0.2799096464247798</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1683860675206437</v>
+        <v>0.1482140231158328</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1355674404241845</v>
+        <v>0.2791283689425892</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2369562791381564</v>
+        <v>0.225966977408396</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1231723619799126</v>
+        <v>0.2790217264613601</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3004789443382999</v>
+        <v>0.3018722533609639</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1203485885165029</v>
+        <v>0.2791283689425892</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.196908641570519</v>
+        <v>0.1867105869407797</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1303122994673184</v>
+        <v>0.2815091301186357</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1688988791772028</v>
+        <v>0.1448442751395449</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1363421115123227</v>
+        <v>0.2807233881936897</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2368385646624562</v>
+        <v>0.2226095293735827</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1238762040483693</v>
+        <v>0.2806161363268536</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2990802694567182</v>
+        <v>0.2997251158685011</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1210362947365972</v>
+        <v>0.2807233881936897</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1846877473996481</v>
+        <v>0.1921611471994176</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1310527102597464</v>
+        <v>0.2831086138124915</v>
       </c>
       <c r="J242" t="n">
-        <v>0.168712381945026</v>
+        <v>0.1438673763164086</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1371167826004609</v>
+        <v>0.2823184074447902</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2355208336624197</v>
+        <v>0.2203411561507103</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1245800461168259</v>
+        <v>0.2822105461923471</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2957065113672707</v>
+        <v>0.2947632650075194</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1217240009566915</v>
+        <v>0.2823184074447902</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.195458502710678</v>
+        <v>0.1856018283332397</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1317931210521743</v>
+        <v>0.2847080975063474</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1672265939793518</v>
+        <v>0.1426832199596208</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1378914536885991</v>
+        <v>0.2839134266958907</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2330030860696928</v>
+        <v>0.2158616948254597</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1252838881852825</v>
+        <v>0.2838049560578406</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2916594196587553</v>
+        <v>0.291986481262444</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1224117071767858</v>
+        <v>0.2839134266958907</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1952208949788503</v>
+        <v>0.1670324845792432</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1325335318446022</v>
+        <v>0.2863075812002033</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1672415334354186</v>
+        <v>0.140391699382378</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1386661247767373</v>
+        <v>0.2855084459469913</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2339853218159221</v>
+        <v>0.2142709824835115</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1259877302537392</v>
+        <v>0.2853993659233341</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2859407439199703</v>
+        <v>0.2874945451177009</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1230994133968801</v>
+        <v>0.2855084459469913</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1819749116794064</v>
+        <v>0.1874529701744251</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1332739426370302</v>
+        <v>0.2879070648940592</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1690572184684649</v>
+        <v>0.137492707897877</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1394407958648755</v>
+        <v>0.2871034651980918</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2336675408327537</v>
+        <v>0.2119688562105467</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1266915723221958</v>
+        <v>0.2869937757888275</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2832522337397138</v>
+        <v>0.2834872370577156</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1237871196169744</v>
+        <v>0.2871034651980918</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1877205402875877</v>
+        <v>0.1738631393557823</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1340143534294581</v>
+        <v>0.2895065485879151</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1676736672337292</v>
+        <v>0.1363861388193145</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1402154669530137</v>
+        <v>0.2886984844491923</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2313497430518338</v>
+        <v>0.2090551530922458</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1273954143906525</v>
+        <v>0.288588185654321</v>
       </c>
       <c r="N246" t="n">
-        <v>0.282095638706784</v>
+        <v>0.2794643375669135</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1244748258370687</v>
+        <v>0.2886984844491923</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1824577682786356</v>
+        <v>0.1622628463603121</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1347547642218861</v>
+        <v>0.291106032281771</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1681908978864501</v>
+        <v>0.1342718854598872</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1409901380411519</v>
+        <v>0.2902935037002927</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2302319284048086</v>
+        <v>0.2051297102142898</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1280992564591091</v>
+        <v>0.2901825955198145</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2771727084099789</v>
+        <v>0.2755256271297206</v>
       </c>
       <c r="O247" t="n">
-        <v>0.125162532057163</v>
+        <v>0.2902935037002927</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1711865831277916</v>
+        <v>0.1696519454250115</v>
       </c>
       <c r="G248" t="n">
-        <v>0.135495175014314</v>
+        <v>0.2927055159756268</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1677089285818658</v>
+        <v>0.1331498411327917</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1417648091292901</v>
+        <v>0.2918885229513933</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2292140968233244</v>
+        <v>0.2019923646623594</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1288030985275657</v>
+        <v>0.291777005385308</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2751851924380968</v>
+        <v>0.2709708862305624</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1258502382772573</v>
+        <v>0.2918885229513933</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1649069723102972</v>
+        <v>0.1740302907868773</v>
       </c>
       <c r="G249" t="n">
-        <v>0.136235585806742</v>
+        <v>0.2943049996694828</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1677277774752151</v>
+        <v>0.1305198991512247</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1425394802174283</v>
+        <v>0.2934835422024938</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2282962482390273</v>
+        <v>0.2005429535221354</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1295069405960224</v>
+        <v>0.2933714152508015</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2687348403799356</v>
+        <v>0.2695998953538644</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1265379444973516</v>
+        <v>0.2934835422024938</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1826189233013936</v>
+        <v>0.1723977366829069</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1369759965991699</v>
+        <v>0.2959044833633386</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1676474627217363</v>
+        <v>0.1275819528283831</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1433141513055665</v>
+        <v>0.2950785614535943</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2293783825835638</v>
+        <v>0.1976813138792986</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1302107826644791</v>
+        <v>0.2949658251162949</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2649234018242931</v>
+        <v>0.2651124349840523</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1272256507174459</v>
+        <v>0.2950785614535943</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1853224235763226</v>
+        <v>0.1527541373500971</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1377164073915979</v>
+        <v>0.2975039670571945</v>
       </c>
       <c r="J251" t="n">
-        <v>0.168568002476668</v>
+        <v>0.1262358954774634</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1440888223937047</v>
+        <v>0.2966735807046948</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2286604997885799</v>
+        <v>0.1935072828195297</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1309146247329357</v>
+        <v>0.2965602349817885</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2627526263599682</v>
+        <v>0.2616082856055517</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1279133569375402</v>
+        <v>0.2966735807046948</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1720174606103251</v>
+        <v>0.1560993470254451</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1384568181840258</v>
+        <v>0.2991034507510504</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1689894148952486</v>
+        <v>0.1247816204116623</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1448634934818429</v>
+        <v>0.2982685999557953</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2278425997857219</v>
+        <v>0.1910206974285096</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1316184668013923</v>
+        <v>0.2981546448472819</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2581242635757586</v>
+        <v>0.2547872277027883</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1286010631576345</v>
+        <v>0.2982685999557953</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1807040218786431</v>
+        <v>0.149433219945948</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1391972289764538</v>
+        <v>0.3007029344449063</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1684117181327165</v>
+        <v>0.1229190209441764</v>
       </c>
       <c r="K253" t="n">
-        <v>0.145638164569981</v>
+        <v>0.2998636192068959</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2275246825066359</v>
+        <v>0.1868213947919191</v>
       </c>
       <c r="M253" t="n">
-        <v>0.132322308869849</v>
+        <v>0.2997490547127755</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2537400630604623</v>
+        <v>0.2511490417601877</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1292887693777288</v>
+        <v>0.2998636192068959</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1663820948565177</v>
+        <v>0.1607556103486028</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1399376397688817</v>
+        <v>0.3023024181387621</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1682349303443103</v>
+        <v>0.1201479903882028</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1464128356581193</v>
+        <v>0.3014586384579963</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2253067478829685</v>
+        <v>0.1835092119954389</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1330261509383056</v>
+        <v>0.3013434645782689</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2513017744028777</v>
+        <v>0.2500935082621756</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1299764755978231</v>
+        <v>0.3014586384579963</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1700516670191905</v>
+        <v>0.1550663724704064</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1406780505613096</v>
+        <v>0.303901901832618</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1685590696852685</v>
+        <v>0.1192684220569376</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1471875067462575</v>
+        <v>0.3030536577090968</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2239887958463655</v>
+        <v>0.1804839861247498</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1337299930067623</v>
+        <v>0.3029378744437624</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2477111471918024</v>
+        <v>0.2439204076931775</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1306641818179174</v>
+        <v>0.3030536577090968</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.1797127258419028</v>
+        <v>0.139365360548356</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1414184613537376</v>
+        <v>0.3055013855264739</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1680841543108295</v>
+        <v>0.116780209263578</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1479621778343957</v>
+        <v>0.3046486769601973</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2239708263284734</v>
+        <v>0.1778455542655326</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1344338350752189</v>
+        <v>0.3045322843092559</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2416699310160352</v>
+        <v>0.2402295205376188</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1313518880380118</v>
+        <v>0.3046486769601973</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1673652587998962</v>
+        <v>0.1446524288194487</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1421588721461655</v>
+        <v>0.3071008692203298</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1679102023762319</v>
+        <v>0.1145832453213206</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1487368489225339</v>
+        <v>0.3062436962112979</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2224528392609383</v>
+        <v>0.175293753503468</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1351376771436756</v>
+        <v>0.3061266941747494</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2378798754643737</v>
+        <v>0.2343206272799258</v>
       </c>
       <c r="O257" t="n">
-        <v>0.132039594258106</v>
+        <v>0.3062436962112979</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.164009253368412</v>
+        <v>0.1419274315206814</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1428992829385935</v>
+        <v>0.3087003529141857</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1676372320367141</v>
+        <v>0.1132774235433618</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1495115200106721</v>
+        <v>0.3078387154623984</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2222348345754065</v>
+        <v>0.1717284209242369</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1358415192121322</v>
+        <v>0.3077211040402428</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2331427301256164</v>
+        <v>0.2303935084045233</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1327273004782004</v>
+        <v>0.3078387154623984</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1706446970226917</v>
+        <v>0.1301902228890513</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1436396937310214</v>
+        <v>0.3102998366080416</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1693652614475146</v>
+        <v>0.1112626372428986</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1502861910988103</v>
+        <v>0.3094337347134989</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2199168122035243</v>
+        <v>0.16974939361352</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1365453612805888</v>
+        <v>0.3093155139057363</v>
       </c>
       <c r="N259" t="n">
-        <v>0.231860244588561</v>
+        <v>0.2265479443958375</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1334150066982946</v>
+        <v>0.3094337347134989</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1652715772379767</v>
+        <v>0.1404406571615552</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1443801045234493</v>
+        <v>0.3118993203018975</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1680943087638719</v>
+        <v>0.1085387797331276</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1510608621869485</v>
+        <v>0.3110287539645994</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2214987720769376</v>
+        <v>0.1661565086569982</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1372492033490455</v>
+        <v>0.3109099237712298</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2258341684420058</v>
+        <v>0.223883715738294</v>
       </c>
       <c r="O260" t="n">
-        <v>0.134102712918389</v>
+        <v>0.3110287539645994</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1598898814895084</v>
+        <v>0.1276785885751905</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1451205153158773</v>
+        <v>0.3134988039957534</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1683243921410244</v>
+        <v>0.1075057443272456</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1518355332750867</v>
+        <v>0.3126237732156999</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2183807141272932</v>
+        <v>0.1618496031403522</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1379530454175021</v>
+        <v>0.3125043336367233</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2213662512747491</v>
+        <v>0.2200006029163183</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1347904191384833</v>
+        <v>0.3126237732156999</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1714995972525284</v>
+        <v>0.1409038713669541</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1458609261083053</v>
+        <v>0.3150982876896092</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1680555297342107</v>
+        <v>0.1044634243384489</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1526102043632248</v>
+        <v>0.3142187924668004</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2187626382862368</v>
+        <v>0.1611285141492627</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1386568874859588</v>
+        <v>0.3140987435022168</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2176582426755888</v>
+        <v>0.2141983864143359</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1354781253585776</v>
+        <v>0.3142187924668004</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1701007120022779</v>
+        <v>0.1281163597738431</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1466013369007332</v>
+        <v>0.3166977713834651</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1677877396986693</v>
+        <v>0.1025117130799347</v>
       </c>
       <c r="K263" t="n">
-        <v>0.153384875451363</v>
+        <v>0.3158138117179009</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2193445444854149</v>
+        <v>0.1580930787694106</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1393607295544154</v>
+        <v>0.3156931533677103</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2151118922333231</v>
+        <v>0.2098768467167725</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1361658315786719</v>
+        <v>0.3158138117179009</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1506932132139986</v>
+        <v>0.1313159080328545</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1473417476931612</v>
+        <v>0.318297255077321</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1685210401896385</v>
+        <v>0.1013505038648993</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1541595465395012</v>
+        <v>0.3174088309690014</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2184264326564737</v>
+        <v>0.1539431340864766</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1400645716228721</v>
+        <v>0.3172875632332038</v>
       </c>
       <c r="N264" t="n">
-        <v>0.21062894953675</v>
+        <v>0.208335764308054</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1368535377987662</v>
+        <v>0.3174088309690014</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1419.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1419.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.6744318455428433</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.09816328534602264</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.09816328534602264</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.1570612565536362</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.2692353395359885</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1236857395359885</v>
+        <v>0.09129031153386716</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003435046560070499</v>
+        <v>0.002535348632579676</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.05889797120761359</v>
+        <v>0.02514996061001712</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0011450155200235</v>
+        <v>0.0004293469558846432</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04366488000000002</v>
+        <v>0.02514996061001712</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000848874150583658</v>
+        <v>0.0004293469558846432</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.07366488000000004</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008084515719844363</v>
+        <v>0.0008404694560234241</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.10366488</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000848874150583658</v>
+        <v>0.0008008246703619414</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.1236857395359885</v>
+        <v>0.05112257445896562</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003435046560070499</v>
+        <v>0.0009938566639712335</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.09129031153386716</v>
+        <v>0.05112257445896562</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.002546622451750974</v>
+        <v>0.0009938566639712335</v>
       </c>
       <c r="L67" s="172" t="n">
         <v>0.1395632625531225</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002425354715953309</v>
+        <v>0.002274754447028549</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.1878362135723779</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.002546622451750974</v>
+        <v>0.00207294165882181</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.1174249772206198</v>
+        <v>0.06163823152747638</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004798451081567653</v>
+        <v>0.00128804086765393</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.106621148636346</v>
+        <v>0.06163823152747638</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004785057753301529</v>
+        <v>0.00128804086765393</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1640328107347027</v>
+        <v>0.1459228795574187</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004783229596480459</v>
+        <v>0.002931100047096207</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2197966728513644</v>
+        <v>0.1987807730624417</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004785057753301529</v>
+        <v>0.002928057643253894</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.1317607258023813</v>
+        <v>0.0760309590412328</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006397934775423537</v>
+        <v>0.001717387823538573</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1161078209629148</v>
+        <v>0.0760309590412328</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006380077004402039</v>
+        <v>0.001717387823538573</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1777622048048759</v>
+        <v>0.1578168624867967</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006377639461973945</v>
+        <v>0.003908133396128275</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.237966597331991</v>
+        <v>0.2165020782102244</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006380077004402039</v>
+        <v>0.003904076857671858</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0011450155200235</v>
+        <v>0.0009938566639712335</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05889797120761359</v>
+        <v>0.05112257445896562</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.153486969494655</v>
+        <v>0.08685160963196212</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007997418469279422</v>
+        <v>0.002146734779423216</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1236721734905974</v>
+        <v>0.08685160963196212</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007975096255502549</v>
+        <v>0.002146734779423216</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1918156480355639</v>
+        <v>0.1697637883467553</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007972049327467432</v>
+        <v>0.004885166745160344</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.254576730342652</v>
+        <v>0.2325227788248532</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007975096255502549</v>
+        <v>0.004880096072089823</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1477384016273853</v>
+        <v>0.09129031153386716</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009596902163135307</v>
+        <v>0.002535348632579676</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1309432904310536</v>
+        <v>0.09129031153386716</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009570115506603059</v>
+        <v>0.002535348632579676</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2023856076050115</v>
+        <v>0.178879135540516</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009566459192960917</v>
+        <v>0.005862200094192413</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2693674685015596</v>
+        <v>0.2441659136195257</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009570115506603059</v>
+        <v>0.005856115286507787</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1636497155305171</v>
+        <v>0.09270945552846516</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01119638585699119</v>
+        <v>0.003005428691192502</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1372502559959429</v>
+        <v>0.09270945552846516</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01116513475770357</v>
+        <v>0.003005428691192502</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2113645506914631</v>
+        <v>0.1886783824712999</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0111608690584544</v>
+        <v>0.006839233443224481</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2826792084269255</v>
+        <v>0.2593545213074391</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01116513475770357</v>
+        <v>0.006832134500925752</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.181355604533995</v>
+        <v>0.09398004172916544</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01279586955084707</v>
+        <v>0.003434775647077146</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1415221543969248</v>
+        <v>0.09398004172916544</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01276015400880408</v>
+        <v>0.003434775647077146</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2189449444731634</v>
+        <v>0.1983770075423285</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01275527892394789</v>
+        <v>0.007816266792256549</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2919523467369626</v>
+        <v>0.2684116406017913</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01276015400880408</v>
+        <v>0.007808153715343716</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.1829907619677634</v>
+        <v>0.09522643473538575</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01439535324470296</v>
+        <v>0.003864122602961789</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.146088069845659</v>
+        <v>0.09522643473538575</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01435517325990459</v>
+        <v>0.003864122602961789</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2240192561283569</v>
+        <v>0.2068904891568228</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01434968878944138</v>
+        <v>0.008793300141288618</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3003272800498828</v>
+        <v>0.2820603102157793</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01435517325990459</v>
+        <v>0.008784172929761681</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.191689881161767</v>
+        <v>0.09644886232856731</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01599483693855884</v>
+        <v>0.004293469558846433</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.150277086553805</v>
+        <v>0.09644886232856731</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0159501925110051</v>
+        <v>0.004293469558846433</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2299799528352882</v>
+        <v>0.2148343057180042</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01594409865493486</v>
+        <v>0.009770333490320688</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3074444049838982</v>
+        <v>0.2924235688626009</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0159501925110051</v>
+        <v>0.009760192144179647</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1865876554459506</v>
+        <v>0.09764755229015154</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01759432063241473</v>
+        <v>0.004722816514731075</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1534182887330226</v>
+        <v>0.09764755229015154</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01754521176210561</v>
+        <v>0.004722816514731075</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2345195017722017</v>
+        <v>0.2225239356290939</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01753850852042835</v>
+        <v>0.01074736683935276</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3154441181572214</v>
+        <v>0.3030244552554536</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01754521176210561</v>
+        <v>0.01073621135859761</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.2088187781502585</v>
+        <v>0.09882273240157974</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01919380432627061</v>
+        <v>0.005152163470615719</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1556407605949711</v>
+        <v>0.09882273240157974</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01914023101320612</v>
+        <v>0.005152163470615719</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2391303701173421</v>
+        <v>0.2300748572933134</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01913291838592183</v>
+        <v>0.01172440018838483</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3194668161880643</v>
+        <v>0.3119860081075344</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01914023101320612</v>
+        <v>0.01171223057301557</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1985179426046356</v>
+        <v>0.09997463044429319</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0207932880201265</v>
+        <v>0.005581510426500362</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1588735863513104</v>
+        <v>0.09997463044429319</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02073525026430663</v>
+        <v>0.005581510426500362</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2414050250489539</v>
+        <v>0.2357025491138837</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02072732825141532</v>
+        <v>0.01270143353741689</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3262528956946392</v>
+        <v>0.3190312661320414</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02073525026430663</v>
+        <v>0.01268824978743354</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.2138198421390264</v>
+        <v>0.1011034741997333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02239277171398238</v>
+        <v>0.006010857382385004</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1598458502136997</v>
+        <v>0.1011034741997333</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02233026951540713</v>
+        <v>0.006010857382385004</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2447359337452817</v>
+        <v>0.2413224894940263</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02232173811690881</v>
+        <v>0.01367846688644896</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3310427532951582</v>
+        <v>0.3282832680421717</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02233026951540713</v>
+        <v>0.0136642690018515</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.2028591700833755</v>
+        <v>0.1022094914493412</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02399225540783827</v>
+        <v>0.006440204338269648</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1624836584339771</v>
+        <v>0.1022094914493412</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02392528876650764</v>
+        <v>0.006440204338269648</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2491082517265311</v>
+        <v>0.2469501568369623</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0239161479824023</v>
+        <v>0.01465550023548103</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3347733270945814</v>
+        <v>0.3344650525511228</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02392528876650764</v>
+        <v>0.01464028821626947</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.207768071861054</v>
+        <v>0.1032929099745585</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02559173910169415</v>
+        <v>0.006869551294154292</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1641967061917666</v>
+        <v>0.1032929099745585</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02552030801760816</v>
+        <v>0.006869551294154292</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2531314399096176</v>
+        <v>0.251301029545913</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02551055784789578</v>
+        <v>0.0156325335845131</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3370210709378428</v>
+        <v>0.3393996583720924</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02552030801760816</v>
+        <v>0.01561630743068743</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.2176000680275182</v>
+        <v>0.1043539575568263</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02719122279555003</v>
+        <v>0.007298898250038935</v>
       </c>
       <c r="J82" t="n">
-        <v>0.166047850918686</v>
+        <v>0.1043539575568263</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02711532726870866</v>
+        <v>0.007298898250038935</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2537586529592538</v>
+        <v>0.2556905860240998</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02710496771338927</v>
+        <v>0.01660956693354517</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3415414449569474</v>
+        <v>0.3457101242182775</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02711532726870866</v>
+        <v>0.01659232664510539</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.2243388937516578</v>
+        <v>0.105392861977586</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02879070648940592</v>
+        <v>0.007728245205923578</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1689238815860848</v>
+        <v>0.105392861977586</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02871034651980918</v>
+        <v>0.007728245205923578</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2578697171925467</v>
+        <v>0.2593343046747437</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02869937757888275</v>
+        <v>0.01758660028257724</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3479072665346222</v>
+        <v>0.3523194888028761</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02871034651980918</v>
+        <v>0.01756834585952336</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.2269664991983626</v>
+        <v>0.1064098510182789</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03039019018326181</v>
+        <v>0.008157592161808221</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1710115871653121</v>
+        <v>0.1064098510182789</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03030536577090969</v>
+        <v>0.008157592161808221</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2610444589266032</v>
+        <v>0.2616476639010663</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03029378744437624</v>
+        <v>0.01856363363160931</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3498913530535951</v>
+        <v>0.3537507908390854</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03030536577090969</v>
+        <v>0.01854436507394133</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.2094648345325224</v>
+        <v>0.1074051524603463</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03198967387711769</v>
+        <v>0.008586939117692866</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1720977566277178</v>
+        <v>0.1074051524603463</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0319003850220102</v>
+        <v>0.008586939117692866</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2630627044785303</v>
+        <v>0.2671461421062887</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03188819730986973</v>
+        <v>0.01954066698064138</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3560665218965935</v>
+        <v>0.359527069040103</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0319003850220102</v>
+        <v>0.01952038428835929</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.215815849919027</v>
+        <v>0.1083789940852295</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03358915757097357</v>
+        <v>0.009016286073577507</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1732691789446509</v>
+        <v>0.1083789940852295</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0334954042731107</v>
+        <v>0.009016286073577507</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2656042801654351</v>
+        <v>0.2675452176936323</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03348260717536321</v>
+        <v>0.02051770032967344</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3568055904463444</v>
+        <v>0.3621713621191263</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0334954042731107</v>
+        <v>0.02049640350277725</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.2330014955227661</v>
+        <v>0.1093316036743701</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03518864126482946</v>
+        <v>0.00944563302946215</v>
       </c>
       <c r="J87" t="n">
-        <v>0.175612643087461</v>
+        <v>0.1093316036743701</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03509042352421121</v>
+        <v>0.00944563302946215</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2689490123044246</v>
+        <v>0.2719603690663183</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0350770170408567</v>
+        <v>0.02149473367870551</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3616813760855757</v>
+        <v>0.3671067087893526</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03509042352421121</v>
+        <v>0.02147242271719522</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.2190037215086293</v>
+        <v>0.110263209009209</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03678812495868534</v>
+        <v>0.009874979985346794</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1767149380274976</v>
+        <v>0.110263209009209</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03668544277531172</v>
+        <v>0.009874979985346794</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2717767272126059</v>
+        <v>0.2734070746275676</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03667142690635019</v>
+        <v>0.02247176702773758</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3634666961970143</v>
+        <v>0.3698561477639796</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03668544277531172</v>
+        <v>0.02244844193161319</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.2258044780415065</v>
+        <v>0.1111740378711878</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03838760865254123</v>
+        <v>0.01030432694123144</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1790628527361101</v>
+        <v>0.1111740378711878</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03828046202641223</v>
+        <v>0.01030432694123144</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2718672512070857</v>
+        <v>0.2743008127806021</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03826583677184367</v>
+        <v>0.02344880037676965</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3659343681633883</v>
+        <v>0.3698427177562047</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03828046202641223</v>
+        <v>0.02342446114603115</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.2373857152862875</v>
+        <v>0.1120643180417477</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03998709234639711</v>
+        <v>0.01073367389711608</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1799431761846479</v>
+        <v>0.1120643180417477</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03987548127751275</v>
+        <v>0.01073367389711608</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2741004106049711</v>
+        <v>0.2770570619286427</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03986024663733716</v>
+        <v>0.02442583372580172</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3678572093674244</v>
+        <v>0.3725894574792256</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03987548127751275</v>
+        <v>0.02440048036044911</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.2337293834078619</v>
+        <v>0.1129342773023302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.041586576040253</v>
+        <v>0.01116302085300072</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1805426973444604</v>
+        <v>0.1129342773023302</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04147050052861325</v>
+        <v>0.01116302085300072</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2759560317233694</v>
+        <v>0.276591300474911</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04145465650283064</v>
+        <v>0.02540286707483379</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3723080371918507</v>
+        <v>0.3737194056462394</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04147050052861325</v>
+        <v>0.02537649957486708</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.2388174325711196</v>
+        <v>0.1137841434343763</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04318605973410888</v>
+        <v>0.01159236780888537</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1812482051868971</v>
+        <v>0.1137841434343763</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04306551977971376</v>
+        <v>0.01159236780888537</v>
       </c>
       <c r="L92" t="n">
-        <v>0.277313940879387</v>
+        <v>0.2774190068226278</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04304906636832413</v>
+        <v>0.02637990042386585</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3724596690193942</v>
+        <v>0.3724556009704437</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04306551977971376</v>
+        <v>0.02635251878928504</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.2386318129409503</v>
+        <v>0.1146141442193277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04478554342796476</v>
+        <v>0.01202171476477001</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1815464886833073</v>
+        <v>0.1146141442193277</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04466053903081427</v>
+        <v>0.01202171476477001</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2784539643901317</v>
+        <v>0.279126525106245</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04464347623381761</v>
+        <v>0.02735693377289792</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3724849222327826</v>
+        <v>0.3756724271447557</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04466053903081427</v>
+        <v>0.02732853800370301</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.2473714790719771</v>
+        <v>0.1154245074386253</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04638502712182065</v>
+        <v>0.01245106172065465</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1825806230677343</v>
+        <v>0.1154245074386253</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04625555828191478</v>
+        <v>0.01245106172065465</v>
       </c>
       <c r="L94" t="n">
-        <v>0.279126525106245</v>
+        <v>0.2789229101709667</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0462378860993111</v>
+        <v>0.02833396712193</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3756724271447557</v>
+        <v>0.3741564163337731</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04625555828191478</v>
+        <v>0.02830455721812097</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.2353673679598897</v>
+        <v>0.1162154608737108</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04798451081567653</v>
+        <v>0.0128804086765393</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1822747698255116</v>
+        <v>0.1162154608737108</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04785057753301529</v>
+        <v>0.0128804086765393</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2786135442757139</v>
+        <v>0.2786494257361926</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04783229596480459</v>
+        <v>0.02931100047096206</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3728603836886896</v>
+        <v>0.3728096583908057</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04785057753301529</v>
+        <v>0.02928057643253894</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.2303149627916927</v>
+        <v>0.1169872323060254</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04958399450953242</v>
+        <v>0.01330975563242394</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1822804608770063</v>
+        <v>0.1169872323060254</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0494455967841158</v>
+        <v>0.01330975563242394</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2788582981811843</v>
+        <v>0.2761856641561975</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04942670583029807</v>
+        <v>0.03028803381999413</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3738663364180032</v>
+        <v>0.3734178702198516</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0494455967841158</v>
+        <v>0.0302565956469569</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.2441064127449653</v>
+        <v>0.1177400495170103</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0511834782033883</v>
+        <v>0.01373910258830858</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1816763502087004</v>
+        <v>0.1177400495170103</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05104061603521631</v>
+        <v>0.01373910258830858</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2769359997877735</v>
+        <v>0.2777373931561278</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05102111569579156</v>
+        <v>0.0312650671690262</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3730463644139635</v>
+        <v>0.3720912386551638</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05104061603521631</v>
+        <v>0.03123261486137486</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.2407533146767813</v>
+        <v>0.118474140288107</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05278296189724418</v>
+        <v>0.01416844954419323</v>
       </c>
       <c r="J98" t="n">
-        <v>0.181269400413678</v>
+        <v>0.118474140288107</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05263563528631682</v>
+        <v>0.01416844954419323</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2763572812081428</v>
+        <v>0.2774103804611298</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05261552556128505</v>
+        <v>0.03224210051805827</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3718147936997761</v>
+        <v>0.3729399505309954</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05263563528631682</v>
+        <v>0.03220863407579283</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.2322651813707722</v>
+        <v>0.1191897324007568</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05438244559110007</v>
+        <v>0.01459779650007787</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1815665740850227</v>
+        <v>0.1191897324007568</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05423065453741733</v>
+        <v>0.01459779650007787</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2761327745549536</v>
+        <v>0.2765103937963498</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05420993542677854</v>
+        <v>0.03321913386709033</v>
       </c>
       <c r="N99" t="n">
-        <v>0.372985950298647</v>
+        <v>0.3722741926815994</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05423065453741733</v>
+        <v>0.03318465329021079</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.2326515256105695</v>
+        <v>0.1198870536364008</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05598192928495595</v>
+        <v>0.01502714345596251</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1800748338158185</v>
+        <v>0.1198870536364008</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05582567378851783</v>
+        <v>0.01502714345596251</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2749731119408668</v>
+        <v>0.2767432008869338</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05580434529227202</v>
+        <v>0.0341961672161224</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3697741602337822</v>
+        <v>0.3693041519412293</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05582567378851783</v>
+        <v>0.03416067250462876</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.2369218601798046</v>
+        <v>0.1205663317764806</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05758141297881184</v>
+        <v>0.01545649041184716</v>
       </c>
       <c r="J101" t="n">
-        <v>0.179601142199149</v>
+        <v>0.1205663317764806</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05742069303961835</v>
+        <v>0.01545649041184716</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2757889254785445</v>
+        <v>0.2769145694580285</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0573987551577655</v>
+        <v>0.03517320056515447</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3699937495283873</v>
+        <v>0.3716400151441379</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05742069303961835</v>
+        <v>0.03513669171904672</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.2320856978621091</v>
+        <v>0.1212277946024374</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05918089667266772</v>
+        <v>0.0158858373677318</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1793524618280981</v>
+        <v>0.1212277946024374</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05901571229071886</v>
+        <v>0.0158858373677318</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2738908472806475</v>
+        <v>0.27433026723478</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05899316502325899</v>
+        <v>0.03615023391418654</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3677590442056683</v>
+        <v>0.3705919691245786</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05901571229071886</v>
+        <v>0.03611271093346469</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.2191525514411143</v>
+        <v>0.1218716698957125</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06078038036652361</v>
+        <v>0.01631518432361644</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1777357552957495</v>
+        <v>0.1218716698957125</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06061073154181938</v>
+        <v>0.01631518432361644</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2729895094598375</v>
+        <v>0.2748960619423346</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06058757488875248</v>
+        <v>0.03712726726321861</v>
       </c>
       <c r="N103" t="n">
-        <v>0.367384370288831</v>
+        <v>0.3676702007168043</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06061073154181938</v>
+        <v>0.03708873014788265</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.220131933700452</v>
+        <v>0.1224981854377473</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06237986406037949</v>
+        <v>0.01674453127950109</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1775579851951871</v>
+        <v>0.1224981854377473</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06220575079291988</v>
+        <v>0.01674453127950109</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2708955441287756</v>
+        <v>0.2739177213058387</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06218198475424597</v>
+        <v>0.03810430061225068</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3647840538010813</v>
+        <v>0.3678848967550684</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06220575079291988</v>
+        <v>0.03806474936230062</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.2400333574237534</v>
+        <v>0.1231075690099831</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06397934775423537</v>
+        <v>0.01717387823538573</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1771261141194946</v>
+        <v>0.1231075690099831</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06380077004402039</v>
+        <v>0.01717387823538573</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2689195834001236</v>
+        <v>0.2718010130504385</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06377639461973945</v>
+        <v>0.03908133396128275</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3643724207656251</v>
+        <v>0.367646244073624</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06380077004402039</v>
+        <v>0.03904076857671859</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.2378663353946501</v>
+        <v>0.1237000483938611</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06557883144809126</v>
+        <v>0.01760322519127037</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1752471046617559</v>
+        <v>0.1237000483938611</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0653957892951209</v>
+        <v>0.01760322519127037</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2698722593865421</v>
+        <v>0.27085170490128</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06537080448523294</v>
+        <v>0.04005836731031481</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3622637972056684</v>
+        <v>0.3644644295067241</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0653957892951209</v>
+        <v>0.04001678779113654</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.2356403803967737</v>
+        <v>0.1242758513708227</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06717831514194714</v>
+        <v>0.01803257214715501</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1755279194150547</v>
+        <v>0.1242758513708227</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0669908085462214</v>
+        <v>0.01803257214715501</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2662642042006934</v>
+        <v>0.27127556458351</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06696521435072642</v>
+        <v>0.04103540065934689</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3613725091444167</v>
+        <v>0.3622496398886219</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0669908085462214</v>
+        <v>0.04099280700555451</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.2273650052137554</v>
+        <v>0.1248352057223093</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06877779883580303</v>
+        <v>0.01846191910303966</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1745755209724748</v>
+        <v>0.1248352057223093</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06858582779732192</v>
+        <v>0.01846191910303966</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2654060499552382</v>
+        <v>0.2698783598222744</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0685596242162199</v>
+        <v>0.04201243400837896</v>
       </c>
       <c r="N108" t="n">
-        <v>0.357912882605076</v>
+        <v>0.3621120620535706</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06858582779732192</v>
+        <v>0.04196882621997247</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.2180497226292268</v>
+        <v>0.1253783392297622</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07037728252965891</v>
+        <v>0.0188912660589243</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1736968719271001</v>
+        <v>0.1253783392297622</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07018084704842242</v>
+        <v>0.0188912660589243</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2642084287628381</v>
+        <v>0.2707658583427197</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07015403408171339</v>
+        <v>0.04298946735741103</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3544992436108524</v>
+        <v>0.3619618828358233</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07018084704842242</v>
+        <v>0.04294484543439044</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.2147040454268195</v>
+        <v>0.1259054796746227</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07197676622351479</v>
+        <v>0.01932061301480895</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1723989348720142</v>
+        <v>0.1259054796746227</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07177586629952294</v>
+        <v>0.01932061301480895</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2626819727361546</v>
+        <v>0.2690438278699921</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07174844394720688</v>
+        <v>0.04396650070644309</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3546459181849515</v>
+        <v>0.3595092890696332</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07177586629952294</v>
+        <v>0.0439208646488084</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.2153374863901649</v>
+        <v>0.126416854838332</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07357624991737069</v>
+        <v>0.01974995997069359</v>
       </c>
       <c r="J111" t="n">
-        <v>0.170788672400301</v>
+        <v>0.126416854838332</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07337088555062345</v>
+        <v>0.01974995997069359</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2601373139878489</v>
+        <v>0.269218036129238</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07334285381270038</v>
+        <v>0.04494353405547516</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3526672323505793</v>
+        <v>0.3589644675892536</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07337088555062345</v>
+        <v>0.04489688386322637</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.2079595583028945</v>
+        <v>0.1269126925023316</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07517573361122656</v>
+        <v>0.02017930692657823</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1707730471050443</v>
+        <v>0.1269126925023316</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07496590480172396</v>
+        <v>0.02017930692657823</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2606850846305822</v>
+        <v>0.2676942508456035</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07493726367819387</v>
+        <v>0.04592056740450723</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3483775121309418</v>
+        <v>0.3588376052289373</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07496590480172396</v>
+        <v>0.04587290307764434</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.2125797739486399</v>
+        <v>0.1273932204480628</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07677521730508245</v>
+        <v>0.02060865388246287</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1688590215793279</v>
+        <v>0.1273932204480628</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07656092405282447</v>
+        <v>0.02060865388246287</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2567359167770161</v>
+        <v>0.2653782397442352</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07653167354368734</v>
+        <v>0.0468976007535393</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3462910835492445</v>
+        <v>0.3557388888229375</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07656092405282447</v>
+        <v>0.0468489222920623</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.2162076461110323</v>
+        <v>0.1278586664569668</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07837470099893834</v>
+        <v>0.02103800083834752</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1672535584162357</v>
+        <v>0.1278586664569668</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07815594330392497</v>
+        <v>0.02103800083834752</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2568004425398122</v>
+        <v>0.2643757705502788</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07812608340918083</v>
+        <v>0.04787463410257137</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3448222726286936</v>
+        <v>0.3563785052055075</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07815594330392497</v>
+        <v>0.04782494150648026</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.2078492414227307</v>
+        <v>0.128309258310485</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07997418469279421</v>
+        <v>0.02146734779423216</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1664328356979208</v>
+        <v>0.128309258310485</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07975096255502549</v>
+        <v>0.02146734779423216</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2547327003833566</v>
+        <v>0.2637926109888814</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07972049327467431</v>
+        <v>0.04885166745160344</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3444220641038881</v>
+        <v>0.3527666412109004</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07975096255502549</v>
+        <v>0.04880096072089822</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.2033598847770319</v>
+        <v>0.1287452237900587</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0815736683866501</v>
+        <v>0.02189669475011681</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1652762084358994</v>
+        <v>0.1287452237900587</v>
       </c>
       <c r="K116" t="n">
-        <v>0.081345981806126</v>
+        <v>0.02189669475011681</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2543530012233066</v>
+        <v>0.2634345287851887</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0813149031401678</v>
+        <v>0.04982870080063551</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3422422224562662</v>
+        <v>0.3543134836733696</v>
       </c>
       <c r="O116" t="n">
-        <v>0.081345981806126</v>
+        <v>0.04977697993531619</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.2236815455864499</v>
+        <v>0.1291667906771293</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08317315208050599</v>
+        <v>0.02232604170600145</v>
       </c>
       <c r="J117" t="n">
-        <v>0.16469027123934</v>
+        <v>0.1291667906771293</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0829410010572265</v>
+        <v>0.02232604170600145</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2524777254743677</v>
+        <v>0.2621072916643471</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08290931300566129</v>
+        <v>0.05080573414966758</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3400963165563394</v>
+        <v>0.3512292194271679</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0829410010572265</v>
+        <v>0.05075299914973416</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1988452176371688</v>
+        <v>0.1295741867531381</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08477263577436187</v>
+        <v>0.02275538866188609</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1627977090687846</v>
+        <v>0.1295741867531381</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08453602030832701</v>
+        <v>0.02275538866188609</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2482415138305024</v>
+        <v>0.261716667351503</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08450372287115478</v>
+        <v>0.05178276749869964</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3360310223001773</v>
+        <v>0.3500240353065484</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08453602030832701</v>
+        <v>0.05172901836415212</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.2048818947153724</v>
+        <v>0.1299676397995263</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08637211946821775</v>
+        <v>0.02318473561777074</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1612212068847755</v>
+        <v>0.1299676397995263</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08613103955942752</v>
+        <v>0.02318473561777074</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2471790069856736</v>
+        <v>0.2609684235718026</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08609813273664826</v>
+        <v>0.05275980084773171</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3329930155838488</v>
+        <v>0.3499081181457644</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08613103955942752</v>
+        <v>0.05270503757857008</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.2108225706072451</v>
+        <v>0.1303473775977353</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08797160316207364</v>
+        <v>0.02361408257365538</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1605834496478547</v>
+        <v>0.1303473775977353</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08772605881052803</v>
+        <v>0.02361408257365538</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2449248456338439</v>
+        <v>0.2628683280503922</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08769254260214174</v>
+        <v>0.05373683419676378</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3288289723034229</v>
+        <v>0.3509916547790691</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08772605881052803</v>
+        <v>0.05368105679298805</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.211698239098971</v>
+        <v>0.1307136279292065</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08957108685592952</v>
+        <v>0.02404342952954002</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1575071223185644</v>
+        <v>0.1307136279292065</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08932107806162853</v>
+        <v>0.02404342952954002</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2419136704689762</v>
+        <v>0.2608221485124181</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08928695246763522</v>
+        <v>0.05471386754579585</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3255855683549688</v>
+        <v>0.3484848320407156</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08932107806162853</v>
+        <v>0.05465707600740601</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.2145398939767342</v>
+        <v>0.1310666185753811</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0911705705497854</v>
+        <v>0.02447277648542466</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1559149098574467</v>
+        <v>0.1310666185753811</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09091609731272905</v>
+        <v>0.02447277648542466</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2394801221850332</v>
+        <v>0.2598354156929533</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09088136233312871</v>
+        <v>0.05569090089482791</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3241094796345556</v>
+        <v>0.3471942086476035</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09091609731272905</v>
+        <v>0.05563309522182398</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1883785290267185</v>
+        <v>0.1314065773177005</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09277005424364129</v>
+        <v>0.02490212344130931</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1561294972250437</v>
+        <v>0.1314065773177005</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09251111656382956</v>
+        <v>0.02490212344130931</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2377588414759773</v>
+        <v>0.2607782141090461</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0924757721986222</v>
+        <v>0.05666793424385999</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3196473820382524</v>
+        <v>0.3465397382690039</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09251111656382956</v>
+        <v>0.05660911443624193</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1922451380351084</v>
+        <v>0.1317337319376059</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09436953793749718</v>
+        <v>0.02533147039719395</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1535735693818976</v>
+        <v>0.1317337319376059</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09410613581493008</v>
+        <v>0.02533147039719395</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2361844690357716</v>
+        <v>0.2582268164395594</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0940701820641157</v>
+        <v>0.05764496759289206</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3176459514621284</v>
+        <v>0.3468861165343703</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09410613581493008</v>
+        <v>0.0575851336506599</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1991707147880878</v>
+        <v>0.1320483102165388</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09596902163135307</v>
+        <v>0.02576081735307859</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1525698112885504</v>
+        <v>0.1320483102165388</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09570115506603058</v>
+        <v>0.02576081735307859</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2324916455583785</v>
+        <v>0.2580813879341306</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09566459192960919</v>
+        <v>0.05862200094192413</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3146518638022524</v>
+        <v>0.3455348384562451</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09570115506603058</v>
+        <v>0.05856115286507788</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1981862530718409</v>
+        <v>0.1323505399359405</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09756850532520894</v>
+        <v>0.02619016430896324</v>
       </c>
       <c r="J126" t="n">
-        <v>0.150634126543848</v>
+        <v>0.1323505399359405</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0972961743171311</v>
+        <v>0.02619016430896324</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2296993591956916</v>
+        <v>0.2588420938423968</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09725900179510266</v>
+        <v>0.0595990342909562</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3109978418277686</v>
+        <v>0.346587399047171</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0972961743171311</v>
+        <v>0.05953717207949583</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1901993197104291</v>
+        <v>0.1326406488772522</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09916798901906483</v>
+        <v>0.02661951126484788</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1499181785494017</v>
+        <v>0.1326406488772522</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0988911935682316</v>
+        <v>0.02661951126484788</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2288714388974462</v>
+        <v>0.2575090994139948</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09885341166059615</v>
+        <v>0.06057606763998826</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3054786725921177</v>
+        <v>0.3462452933196905</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0988911935682316</v>
+        <v>0.0605131912939138</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1990297842515774</v>
+        <v>0.1329188648219153</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1007674727129207</v>
+        <v>0.02704885822073252</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1480775360627628</v>
+        <v>0.1329188648219153</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1004862128193321</v>
+        <v>0.02704885822073252</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2259556296752554</v>
+        <v>0.2574825698985621</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1004478215260896</v>
+        <v>0.06155310098902033</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3032029357002365</v>
+        <v>0.3444100162863459</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1004862128193321</v>
+        <v>0.06148921050833176</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1767177597675419</v>
+        <v>0.133185415551371</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1023669564067766</v>
+        <v>0.02747820517661717</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1455446726115934</v>
+        <v>0.133185415551371</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1020812320704326</v>
+        <v>0.02747820517661717</v>
       </c>
       <c r="L129" t="n">
-        <v>0.224001519692675</v>
+        <v>0.2570626705457356</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1020422313915831</v>
+        <v>0.06253013433805239</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3009374477110219</v>
+        <v>0.34588306295968</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1020812320704326</v>
+        <v>0.06246522972274973</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.190307613872325</v>
+        <v>0.1334405288470608</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1039664401006325</v>
+        <v>0.02790755213250181</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1431520617235547</v>
+        <v>0.1334405288470608</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1036762513215331</v>
+        <v>0.02790755213250181</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2209586971132604</v>
+        <v>0.2570495666051525</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1036366412570766</v>
+        <v>0.06350716768708446</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2945490251833709</v>
+        <v>0.343465928352235</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1036762513215331</v>
+        <v>0.0634412489371677</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1888437141799287</v>
+        <v>0.133684432490426</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1055659237944884</v>
+        <v>0.02833689908838645</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1421321769263086</v>
+        <v>0.133684432490426</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1052712705726336</v>
+        <v>0.02833689908838645</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2172767501005677</v>
+        <v>0.2575434233264502</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1052310511225701</v>
+        <v>0.06448420103611653</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2945044846761801</v>
+        <v>0.3443601074765534</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1052712705726336</v>
+        <v>0.06441726815158566</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1903704283043554</v>
+        <v>0.1339173542629078</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1071654074883442</v>
+        <v>0.0287662460442711</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1395174917475166</v>
+        <v>0.1339173542629078</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1068662898237341</v>
+        <v>0.0287662460442711</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2159052668181522</v>
+        <v>0.2555444059592654</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1068254609880636</v>
+        <v>0.0654612343851486</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2906706427483459</v>
+        <v>0.3454670953451781</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1068662898237341</v>
+        <v>0.06539328736600362</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1699321238596073</v>
+        <v>0.1341395219459476</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1087648911822001</v>
+        <v>0.02919559300015574</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1385404797148404</v>
+        <v>0.1341395219459476</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1084613090748347</v>
+        <v>0.02919559300015574</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2110938354295697</v>
+        <v>0.2546526797532356</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1084198708535571</v>
+        <v>0.06643826773418067</v>
       </c>
       <c r="N133" t="n">
-        <v>0.285214315958765</v>
+        <v>0.3418883869706513</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1084613090748347</v>
+        <v>0.06636930658042157</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1835731684596864</v>
+        <v>0.1343511633209868</v>
       </c>
       <c r="G134" t="n">
-        <v>0.110364374876056</v>
+        <v>0.02962493995604039</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1374336143559416</v>
+        <v>0.1343511633209868</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1100563283259352</v>
+        <v>0.02962493995604039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2088920440983758</v>
+        <v>0.2552684099579977</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1100142807190506</v>
+        <v>0.06741530108321274</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2824023208663343</v>
+        <v>0.3440254773655154</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1100563283259352</v>
+        <v>0.06734532579483955</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1833379297185951</v>
+        <v>0.1345525061694666</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1119638585699119</v>
+        <v>0.03005428691192503</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1350293691984819</v>
+        <v>0.1345525061694666</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1116513475770357</v>
+        <v>0.03005428691192503</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2077494809881261</v>
+        <v>0.2536917618231887</v>
       </c>
       <c r="M135" t="n">
-        <v>0.111608690584544</v>
+        <v>0.06839233443224481</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2788014740299505</v>
+        <v>0.343279861542313</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1116513475770357</v>
+        <v>0.06832134500925752</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1822707752503356</v>
+        <v>0.1347437782728283</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1135633422637678</v>
+        <v>0.03048363386780967</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1329602177701229</v>
+        <v>0.1347437782728283</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1132463668281362</v>
+        <v>0.03048363386780967</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2052157342623764</v>
+        <v>0.2533229005984461</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1132031004500375</v>
+        <v>0.06936936778127689</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2749785920085102</v>
+        <v>0.3434530345135866</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1132463668281362</v>
+        <v>0.06929736422367548</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1694160726689101</v>
+        <v>0.1349252074125133</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1151628259576237</v>
+        <v>0.03091298082369431</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1326586335985261</v>
+        <v>0.1349252074125133</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1148413860792367</v>
+        <v>0.03091298082369431</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2039403920846823</v>
+        <v>0.255461991533407</v>
       </c>
       <c r="M137" t="n">
-        <v>0.114797510315531</v>
+        <v>0.07034640113030895</v>
       </c>
       <c r="N137" t="n">
-        <v>0.27170049136091</v>
+        <v>0.3416464912918787</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1148413860792367</v>
+        <v>0.07027338343809345</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1568181895883208</v>
+        <v>0.135097021369963</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1167623096514796</v>
+        <v>0.03134232777957896</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1311570902113534</v>
+        <v>0.135097021369963</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1164364053303372</v>
+        <v>0.03134232777957896</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1997730426185994</v>
+        <v>0.2548091998777082</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1163919201810245</v>
+        <v>0.07132343447934102</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2713339886460467</v>
+        <v>0.3404617268897321</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1164364053303372</v>
+        <v>0.07124940265251141</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1705214936225699</v>
+        <v>0.1352594479266185</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1183617933453354</v>
+        <v>0.0317716747354636</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1312880611362663</v>
+        <v>0.1352594479266185</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1180314245814377</v>
+        <v>0.0317716747354636</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2009632740276834</v>
+        <v>0.2547646908809871</v>
       </c>
       <c r="M139" t="n">
-        <v>0.117986330046518</v>
+        <v>0.07230046782837309</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2698459004228171</v>
+        <v>0.3415002363196888</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1180314245814377</v>
+        <v>0.07222542186692937</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1535703523856596</v>
+        <v>0.1354127148639213</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1199612770391913</v>
+        <v>0.03220102169134825</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1299840199009264</v>
+        <v>0.1354127148639213</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1196264438325382</v>
+        <v>0.03220102169134825</v>
       </c>
       <c r="L140" t="n">
-        <v>0.19976067447549</v>
+        <v>0.2527286297928807</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1195807399120115</v>
+        <v>0.07327750117740515</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2689030432501178</v>
+        <v>0.3398635145942916</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1196264438325382</v>
+        <v>0.07320144108134734</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1670091334915923</v>
+        <v>0.1355570499633127</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1215607607330472</v>
+        <v>0.03263036864723289</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1296774400329953</v>
+        <v>0.1355570499633127</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1212214630836388</v>
+        <v>0.03263036864723289</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1969148321255749</v>
+        <v>0.2541011818630263</v>
       </c>
       <c r="M141" t="n">
-        <v>0.121175149777505</v>
+        <v>0.07425453452643722</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2661722336868453</v>
+        <v>0.3416530567260829</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1212214630836388</v>
+        <v>0.0741774602957653</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1758722809480446</v>
+        <v>0.135692681006234</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1231602444269031</v>
+        <v>0.03305971560311753</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1292530476282049</v>
+        <v>0.135692681006234</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1228164823347392</v>
+        <v>0.03305971560311753</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1972896158021052</v>
+        <v>0.2526825123410609</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1227695596429984</v>
+        <v>0.07523156787546929</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2669220446045782</v>
+        <v>0.3396703577276053</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1228164823347392</v>
+        <v>0.07515347951018327</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1599206308670214</v>
+        <v>0.1358198357741265</v>
       </c>
       <c r="G143" t="n">
-        <v>0.124759728120759</v>
+        <v>0.03348906255900217</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1288049735489254</v>
+        <v>0.1358198357741265</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1244115015858398</v>
+        <v>0.03348906255900217</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1981723446378188</v>
+        <v>0.2533727864766216</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1243639695084919</v>
+        <v>0.07620860122450136</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2681288858254102</v>
+        <v>0.3427169126114012</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1244115015858398</v>
+        <v>0.07612949872460123</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1620333616220522</v>
+        <v>0.1359387420484315</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1263592118146148</v>
+        <v>0.03391840951488682</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1295033448266794</v>
+        <v>0.1359387420484315</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1260065208369403</v>
+        <v>0.03391840951488682</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1990258556864367</v>
+        <v>0.2512721695193458</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1259583793739854</v>
+        <v>0.07718563457353343</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2659312916232117</v>
+        <v>0.3415942163900131</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1260065208369403</v>
+        <v>0.07710551793901919</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1762072130970218</v>
+        <v>0.1360496276105904</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1279586955084707</v>
+        <v>0.03434775647077146</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1307457753184829</v>
+        <v>0.1360496276105904</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1276015400880408</v>
+        <v>0.03434775647077146</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1983465052277641</v>
+        <v>0.2516808267188703</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1275527892394789</v>
+        <v>0.0781626679225655</v>
       </c>
       <c r="N145" t="n">
-        <v>0.267524352341574</v>
+        <v>0.3388037640759834</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1276015400880408</v>
+        <v>0.07808153715343717</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.156438925175815</v>
+        <v>0.1361527202420444</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1295581792023267</v>
+        <v>0.0347771034266561</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1305298788813527</v>
+        <v>0.1361527202420444</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1291965593391413</v>
+        <v>0.0347771034266561</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1987306495416065</v>
+        <v>0.2508989233248323</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1291471991049724</v>
+        <v>0.07913970127159757</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2686031583240887</v>
+        <v>0.341647050681855</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1291965593391413</v>
+        <v>0.07905755636785512</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1567252377423166</v>
+        <v>0.136248247724235</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1311576628961825</v>
+        <v>0.03520645038254074</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1298532693723053</v>
+        <v>0.136248247724235</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1307915785902418</v>
+        <v>0.03520645038254074</v>
       </c>
       <c r="L147" t="n">
-        <v>0.198574644907769</v>
+        <v>0.2503266245868691</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1307416089704659</v>
+        <v>0.08011673462062963</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2696627999143471</v>
+        <v>0.3400255712201702</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1307915785902418</v>
+        <v>0.08003357558227309</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1650628906804116</v>
+        <v>0.1363364378386034</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1327571465900384</v>
+        <v>0.03563579733842539</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1314135606483571</v>
+        <v>0.1363364378386034</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1323865978413423</v>
+        <v>0.03563579733842539</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1997748476060571</v>
+        <v>0.250764445487311</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1323360188359594</v>
+        <v>0.0810937679696617</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2689983674559404</v>
+        <v>0.3394426831306484</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1323865978413423</v>
+        <v>0.08100959479669105</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1564486238739846</v>
+        <v>0.1364175183665909</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1343566302838943</v>
+        <v>0.03606514429431003</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1316083665665246</v>
+        <v>0.1364175183665909</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1339816170924428</v>
+        <v>0.03606514429431003</v>
       </c>
       <c r="L149" t="n">
-        <v>0.201427613916276</v>
+        <v>0.2507128957998819</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1339304287014528</v>
+        <v>0.08207080131869378</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2680049512924604</v>
+        <v>0.3409002631729904</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1339816170924428</v>
+        <v>0.08198561401110901</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1648791772069205</v>
+        <v>0.1364917170896389</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1359561139777502</v>
+        <v>0.03649449125019467</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1308353009838243</v>
+        <v>0.1364917170896389</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1355766363435433</v>
+        <v>0.03649449125019467</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2003293001182311</v>
+        <v>0.2497714041086373</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1355248385669463</v>
+        <v>0.08304783466772585</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2693776417674982</v>
+        <v>0.3416961256922008</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1355766363435433</v>
+        <v>0.08296163322552698</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1783512905631041</v>
+        <v>0.1365592617891887</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1375555976716061</v>
+        <v>0.03692383820607931</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1308919777572727</v>
+        <v>0.1365592617891887</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1371716555946438</v>
+        <v>0.03692383820607931</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2012762624917275</v>
+        <v>0.2488393676543091</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1371192484324398</v>
+        <v>0.08402486801675792</v>
       </c>
       <c r="N151" t="n">
-        <v>0.2708115292246455</v>
+        <v>0.3425280610151968</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1371716555946438</v>
+        <v>0.08393765243994494</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1588617038264203</v>
+        <v>0.1366203802466817</v>
       </c>
       <c r="G152" t="n">
-        <v>0.139155081365462</v>
+        <v>0.03735318516196396</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1321760107438863</v>
+        <v>0.1366203802466817</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1387666748457443</v>
+        <v>0.03735318516196396</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2026648573165709</v>
+        <v>0.2512161836776297</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1387136582979333</v>
+        <v>0.08500190136578999</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2734017040074934</v>
+        <v>0.3406938594688955</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1387666748457443</v>
+        <v>0.08491367165436292</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1604071568807539</v>
+        <v>0.136675300243559</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1407545650593178</v>
+        <v>0.0377825321178486</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1321850138006817</v>
+        <v>0.136675300243559</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1403616940968448</v>
+        <v>0.0377825321178486</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2022914408725662</v>
+        <v>0.248701249419331</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1403080681634268</v>
+        <v>0.08597893471482206</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2736432564596334</v>
+        <v>0.339991311380214</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1403616940968448</v>
+        <v>0.08588969086878087</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1769843896099897</v>
+        <v>0.1367242495612621</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1423540487531737</v>
+        <v>0.03821187907373325</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1336286899539778</v>
+        <v>0.1367242495612621</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1419567133479454</v>
+        <v>0.03821187907373325</v>
       </c>
       <c r="L154" t="n">
-        <v>0.202377936404675</v>
+        <v>0.2485939621201454</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1419024780289203</v>
+        <v>0.08695596806385412</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2738561512377019</v>
+        <v>0.3414182070760695</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1419567133479454</v>
+        <v>0.08686571008319884</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1818342681761349</v>
+        <v>0.1367674559812323</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1439535324470296</v>
+        <v>0.03864122602961789</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1332804833224256</v>
+        <v>0.1367674559812323</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1435517325990459</v>
+        <v>0.03864122602961789</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2043525943687886</v>
+        <v>0.2487937190208049</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1434968878944138</v>
+        <v>0.08793300141288618</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2745030187786859</v>
+        <v>0.3429723368833789</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1435517325990459</v>
+        <v>0.0878417292976168</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1642146040258222</v>
+        <v>0.1368051472849109</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1455530161408855</v>
+        <v>0.03907057298550253</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1338007419029101</v>
+        <v>0.1368051472849109</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1451467518501464</v>
+        <v>0.03907057298550253</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2062855437014663</v>
+        <v>0.2490999173620417</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1450912977599073</v>
+        <v>0.08891003476191825</v>
       </c>
       <c r="N156" t="n">
-        <v>0.277608029315342</v>
+        <v>0.3431514911290596</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1451467518501464</v>
+        <v>0.08881774851203476</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1610284843715805</v>
+        <v>0.1368375512537392</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1471524998347414</v>
+        <v>0.03949991994138718</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1367174337979208</v>
+        <v>0.1368375512537392</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1467417711012469</v>
+        <v>0.03949991994138718</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2090667892844627</v>
+        <v>0.2500119543845881</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1466857076254008</v>
+        <v>0.08988706811095032</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2786229721705734</v>
+        <v>0.3409534601400287</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1467417711012469</v>
+        <v>0.08979376772645274</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1771774941764634</v>
+        <v>0.1368648956691586</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1487519835285973</v>
+        <v>0.03992926689727182</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1378585271099469</v>
+        <v>0.1368648956691586</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1483367903523474</v>
+        <v>0.03992926689727182</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2108863359995327</v>
+        <v>0.2495292273291761</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1482801174908942</v>
+        <v>0.09086410145998239</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2846996366672826</v>
+        <v>0.341076034243203</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1483367903523474</v>
+        <v>0.09076978694087069</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1895632184035244</v>
+        <v>0.1368874083126103</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1503514672224531</v>
+        <v>0.04035861385315646</v>
       </c>
       <c r="J159" t="n">
-        <v>0.140451989941478</v>
+        <v>0.1368874083126103</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1499318096034479</v>
+        <v>0.04035861385315646</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2148341887284308</v>
+        <v>0.2492511334365378</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1498745273563877</v>
+        <v>0.09184113480901446</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2889898121283729</v>
+        <v>0.3436170037654999</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1499318096034479</v>
+        <v>0.09174580615528867</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1860872420158172</v>
+        <v>0.1369053169655357</v>
       </c>
       <c r="G160" t="n">
-        <v>0.151950950916309</v>
+        <v>0.0407879608090411</v>
       </c>
       <c r="J160" t="n">
-        <v>0.141825790395003</v>
+        <v>0.1369053169655357</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1515268288545484</v>
+        <v>0.0407879608090411</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2166003523529119</v>
+        <v>0.2495770699474056</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1514689372218812</v>
+        <v>0.09281816815804653</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2921452878767471</v>
+        <v>0.341574159033836</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1515268288545484</v>
+        <v>0.09272182536970662</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1766511499763953</v>
+        <v>0.1369188494093762</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1535504346101649</v>
+        <v>0.04121730776492575</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1426078965730116</v>
+        <v>0.1369188494093762</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1531218481056489</v>
+        <v>0.04121730776492575</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2192748317547306</v>
+        <v>0.2487064341025114</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1530633470873747</v>
+        <v>0.09379520150707861</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2949178532353083</v>
+        <v>0.3441452903751292</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1531218481056489</v>
+        <v>0.0936978445841246</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1891565272483124</v>
+        <v>0.1369282334255728</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1551499183040208</v>
+        <v>0.0416466547208104</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1451262765779928</v>
+        <v>0.1369282334255728</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1547168673567494</v>
+        <v>0.0416466547208104</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2215476318156416</v>
+        <v>0.2468386231425875</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1546577569528682</v>
+        <v>0.09477223485611068</v>
       </c>
       <c r="N162" t="n">
-        <v>0.2983592975269591</v>
+        <v>0.3434281881162962</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1547168673567494</v>
+        <v>0.09467386379854256</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.199504958794622</v>
+        <v>0.1369336967955674</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1567494019978767</v>
+        <v>0.04207600167669504</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1468088985124363</v>
+        <v>0.1369336967955674</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1563118866078499</v>
+        <v>0.04207600167669504</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2252087574173998</v>
+        <v>0.2480730343083661</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1562521668183617</v>
+        <v>0.09574926820514273</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3036214100746026</v>
+        <v>0.3434206425842539</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1563118866078499</v>
+        <v>0.09564988301296051</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1885980295783778</v>
+        <v>0.1369354673008007</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1583488856917326</v>
+        <v>0.04250534863257968</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1484837304788313</v>
+        <v>0.1369354673008007</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1579069058589505</v>
+        <v>0.04250534863257968</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2278482282877679</v>
+        <v>0.2483090648405792</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1578465766838551</v>
+        <v>0.0967263015541748</v>
       </c>
       <c r="N164" t="n">
-        <v>0.304455980201142</v>
+        <v>0.3450204441059197</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1579069058589505</v>
+        <v>0.09662590222737849</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1934235708574868</v>
+        <v>0.1369354673008007</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1599483693855884</v>
+        <v>0.04250534863257968</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1497066596681117</v>
+        <v>0.1369354673008007</v>
       </c>
       <c r="K165" t="n">
-        <v>0.159501925110051</v>
+        <v>0.04250534863257968</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2276678318255743</v>
+        <v>0.2475461119799591</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1594409865493486</v>
+        <v>0.09770333490320687</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3082779997184772</v>
+        <v>0.3461253830082106</v>
       </c>
       <c r="O165" t="n">
-        <v>0.159501925110051</v>
+        <v>0.09760192144179644</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1971888143414771</v>
+        <v>0.1345109667572309</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1615478530794443</v>
+        <v>0.04250508010411567</v>
       </c>
       <c r="J166" t="n">
-        <v>0.150297263689927</v>
+        <v>0.1345109667572309</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1610969443611515</v>
+        <v>0.04250508010411567</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2301383492928378</v>
+        <v>0.2463835729672378</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1610353964148421</v>
+        <v>0.09868036825223894</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3091335079384172</v>
+        <v>0.3472332496180438</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1610969443611515</v>
+        <v>0.09857794065621442</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1859124203291641</v>
+        <v>0.1321148996149351</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1631473367733002</v>
+        <v>0.04250481157565165</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1524579339073798</v>
+        <v>0.1321148996149351</v>
       </c>
       <c r="K167" t="n">
-        <v>0.162691963612252</v>
+        <v>0.04250481157565165</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2333632700657708</v>
+        <v>0.2475208450431478</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1626298062803356</v>
+        <v>0.09965740160127101</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3148274252581313</v>
+        <v>0.3468418342623365</v>
       </c>
       <c r="O167" t="n">
-        <v>0.162691963612252</v>
+        <v>0.09955395987063238</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.2025975108417278</v>
+        <v>0.1297490518672727</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1647468204671561</v>
+        <v>0.04250454304718763</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1528909553890595</v>
+        <v>0.1297490518672727</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1642869828633525</v>
+        <v>0.04250454304718763</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2344460835205853</v>
+        <v>0.2478573254484209</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1642242161458291</v>
+        <v>0.1006344349503031</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3139644533663791</v>
+        <v>0.3454489272680054</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1642869828633525</v>
+        <v>0.1005299790850503</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.2072472079003481</v>
+        <v>0.1274152095073957</v>
       </c>
       <c r="G169" t="n">
-        <v>0.166346304161012</v>
+        <v>0.04250427451872361</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1552986132035556</v>
+        <v>0.1274152095073957</v>
       </c>
       <c r="K169" t="n">
-        <v>0.165882002114453</v>
+        <v>0.04250427451872361</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2355902790334938</v>
+        <v>0.2457924114237893</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1658186260113226</v>
+        <v>0.1016114682993352</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3177492939519202</v>
+        <v>0.345452318961968</v>
       </c>
       <c r="O169" t="n">
-        <v>0.165882002114453</v>
+        <v>0.1015059982994683</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.2028646335262048</v>
+        <v>0.1251151585286608</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1679457878548679</v>
+        <v>0.04250400599025959</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1560831924194574</v>
+        <v>0.1251151585286608</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1674770213655535</v>
+        <v>0.04250400599025959</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2378993459807085</v>
+        <v>0.2462255002099853</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1674130358768161</v>
+        <v>0.1025885016483672</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3220866487035141</v>
+        <v>0.3462497996711412</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1674770213655535</v>
+        <v>0.1024820175138863</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.210452909740478</v>
+        <v>0.1228506849242229</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1695452715487237</v>
+        <v>0.04250373746179557</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1569469781053547</v>
+        <v>0.1228506849242229</v>
       </c>
       <c r="K171" t="n">
-        <v>0.169072040616654</v>
+        <v>0.04250373746179557</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2406767737384416</v>
+        <v>0.247555989047741</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1690074457423096</v>
+        <v>0.1035655349973993</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3219812193099203</v>
+        <v>0.3481391597224425</v>
       </c>
       <c r="O171" t="n">
-        <v>0.169072040616654</v>
+        <v>0.1034580367283042</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.2100151585643474</v>
+        <v>0.1206235746874356</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1711447552425796</v>
+        <v>0.04250346893333156</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1576922553298367</v>
+        <v>0.1206235746874356</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1706670598677545</v>
+        <v>0.04250346893333156</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2415260516829053</v>
+        <v>0.2460832751777886</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1706018556078031</v>
+        <v>0.1045425683464313</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3241377074598986</v>
+        <v>0.3468181894427883</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1706670598677545</v>
+        <v>0.1044340559427222</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.2095545020189932</v>
+        <v>0.1184356138114573</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1727442389364355</v>
+        <v>0.04250320040486754</v>
       </c>
       <c r="J173" t="n">
-        <v>0.159821309161493</v>
+        <v>0.1184356138114573</v>
       </c>
       <c r="K173" t="n">
-        <v>0.172262079118855</v>
+        <v>0.04250320040486754</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2433506691903119</v>
+        <v>0.2464067558408601</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1721962654732965</v>
+        <v>0.1055196016954634</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3266608148422087</v>
+        <v>0.3488846791590964</v>
       </c>
       <c r="O173" t="n">
-        <v>0.172262079118855</v>
+        <v>0.1054100751571402</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1950740621255951</v>
+        <v>0.1162885882896379</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1743437226302914</v>
+        <v>0.04250293187640353</v>
       </c>
       <c r="J174" t="n">
-        <v>0.161236424668913</v>
+        <v>0.1162885882896379</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1738570983699556</v>
+        <v>0.04250293187640353</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2447541156368736</v>
+        <v>0.2473258282776879</v>
       </c>
       <c r="M174" t="n">
-        <v>0.17379067533879</v>
+        <v>0.1064966350444955</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3306552431456097</v>
+        <v>0.3497364191982835</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1738570983699556</v>
+        <v>0.1063860943715581</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.206576960905333</v>
+        <v>0.1141842841151392</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1759432063241473</v>
+        <v>0.04250266334793951</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1607398869206862</v>
+        <v>0.1141842841151392</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1754521176210561</v>
+        <v>0.04250266334793951</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2465398803988029</v>
+        <v>0.2459398897290039</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1753850852042835</v>
+        <v>0.1074736683935276</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3323256940588617</v>
+        <v>0.3509711998872669</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1754521176210561</v>
+        <v>0.1073621135859761</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1970681127155674</v>
+        <v>0.1121244872813078</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1775426900180032</v>
+        <v>0.04250239481947549</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1633421884629465</v>
+        <v>0.1121244872813078</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1770471368721566</v>
+        <v>0.04250239481947549</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2481260901491815</v>
+        <v>0.2446483374355405</v>
       </c>
       <c r="M176" t="n">
-        <v>0.176979495069777</v>
+        <v>0.1084507017425596</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3343937567309488</v>
+        <v>0.3502868115529635</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1770471368721566</v>
+        <v>0.1083381328003941</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.2086265460386839</v>
+        <v>0.1101109837813093</v>
       </c>
       <c r="G177" t="n">
-        <v>0.179142173711859</v>
+        <v>0.04250212629101147</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1638053908110003</v>
+        <v>0.1101109837813093</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1786421561232571</v>
+        <v>0.04250212629101147</v>
       </c>
       <c r="L177" t="n">
-        <v>0.251406788939961</v>
+        <v>0.2464505686380298</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1785739049352704</v>
+        <v>0.1094277350915917</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3366871270788622</v>
+        <v>0.3513810445222907</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1786421561232571</v>
+        <v>0.109314152014812</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.2192545617939884</v>
+        <v>0.1081455596084861</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1807416574057149</v>
+        <v>0.04250185776254746</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1648101057658033</v>
+        <v>0.1081455596084861</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1802371753743576</v>
+        <v>0.04250185776254746</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2518489099585993</v>
+        <v>0.2461459805772038</v>
       </c>
       <c r="M178" t="n">
-        <v>0.180168314800764</v>
+        <v>0.1104047684406238</v>
       </c>
       <c r="N178" t="n">
-        <v>0.33896591252435</v>
+        <v>0.3484516891221654</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1802371753743576</v>
+        <v>0.11029017122923</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.2078985291640071</v>
+        <v>0.1062300007560079</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1823411410995708</v>
+        <v>0.04250158923408344</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1662170798792285</v>
+        <v>0.1062300007560079</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1818321946254581</v>
+        <v>0.04250158923408344</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2544925118760812</v>
+        <v>0.2440339704937948</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1817627246662574</v>
+        <v>0.1113818017896558</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3423493463470243</v>
+        <v>0.3504965356795047</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1818321946254581</v>
+        <v>0.111266190443648</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.2245048173312663</v>
+        <v>0.1043660932172132</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1839406247934267</v>
+        <v>0.04250132070561943</v>
       </c>
       <c r="J180" t="n">
-        <v>0.167387059703149</v>
+        <v>0.1043660932172132</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1834272138765586</v>
+        <v>0.04250132070561943</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2564776533633921</v>
+        <v>0.245013935628535</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1833571345317509</v>
+        <v>0.1123588351386879</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3448566618264964</v>
+        <v>0.3504133745212258</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1834272138765586</v>
+        <v>0.1122422096580659</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.2290197954782923</v>
+        <v>0.1025556229852758</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1855401084872826</v>
+        <v>0.04250105217715541</v>
       </c>
       <c r="J181" t="n">
-        <v>0.167580791789438</v>
+        <v>0.1025556229852758</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1850222331276591</v>
+        <v>0.04250105217715541</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2574443930915171</v>
+        <v>0.2435852732221564</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1849515443972444</v>
+        <v>0.11333586848772</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3459070922423783</v>
+        <v>0.3507999959742458</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1850222331276591</v>
+        <v>0.1132182288724839</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.2303898327876112</v>
+        <v>0.1008003760535296</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1871395921811385</v>
+        <v>0.04250078364869139</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1691590226899687</v>
+        <v>0.1008003760535296</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1866172523787596</v>
+        <v>0.04250078364869139</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2581327897314414</v>
+        <v>0.2457473805153912</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1865459542627379</v>
+        <v>0.1143129018367521</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3499198708742816</v>
+        <v>0.351454190365482</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1866172523787596</v>
+        <v>0.1141942480869019</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.2125612984417493</v>
+        <v>0.09910213841518956</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1887390758749944</v>
+        <v>0.04250051512022737</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1694824989566139</v>
+        <v>0.09910213841518956</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1882122716298602</v>
+        <v>0.04250051512022737</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2602829019541498</v>
+        <v>0.2439996547489717</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1881403641282314</v>
+        <v>0.1152899351857841</v>
       </c>
       <c r="N183" t="n">
-        <v>0.348814231001818</v>
+        <v>0.3492737480218511</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1882122716298602</v>
+        <v>0.1151702673013198</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.2284805616232329</v>
+        <v>0.09746269606347568</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1903385595688502</v>
+        <v>0.04250024659176335</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1713119671412469</v>
+        <v>0.09746269606347568</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1898072908809607</v>
+        <v>0.04250024659176335</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2602347884306278</v>
+        <v>0.2435414931636299</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1897347739937249</v>
+        <v>0.1162669685348162</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3503094059045991</v>
+        <v>0.3492564592702703</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1898072908809607</v>
+        <v>0.1161462865157378</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.2151295652497424</v>
+        <v>0.09588383499171441</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1919380432627061</v>
+        <v>0.04249997806329934</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1711659899400209</v>
+        <v>0.09588383499171441</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1914023101320612</v>
+        <v>0.04249997806329934</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2629249940337289</v>
+        <v>0.2442722930000981</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1913291838592184</v>
+        <v>0.1172440018838483</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3512435896308272</v>
+        <v>0.3514001144376571</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1914023101320612</v>
+        <v>0.1171223057301558</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.2257211306550632</v>
+        <v>0.09436734119309212</v>
       </c>
       <c r="G186" t="n">
-        <v>0.193537526956562</v>
+        <v>0.04249970953483532</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1717993527874317</v>
+        <v>0.09436734119309212</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1929973293831617</v>
+        <v>0.04249970953483532</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2625868326315404</v>
+        <v>0.2438894739787598</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1929235937247119</v>
+        <v>0.1182210352328803</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3535352640592837</v>
+        <v>0.3505953934199579</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1929973293831617</v>
+        <v>0.1180983249445737</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.2152999524116245</v>
+        <v>0.09291500066092973</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1951370106504179</v>
+        <v>0.04249944100637131</v>
       </c>
       <c r="J187" t="n">
-        <v>0.172423330662808</v>
+        <v>0.09291500066092973</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1945923486342622</v>
+        <v>0.04249944100637131</v>
       </c>
       <c r="L187" t="n">
-        <v>0.2644343280093403</v>
+        <v>0.2426711944221265</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1945180035902053</v>
+        <v>0.1191980685819124</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3536076282500842</v>
+        <v>0.3516883802736779</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1945923486342622</v>
+        <v>0.1190743441589917</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.2128658331507607</v>
+        <v>0.09152859938841928</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1967364943442738</v>
+        <v>0.04249917247790728</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1716377791081491</v>
+        <v>0.09152859938841928</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1961873678853627</v>
+        <v>0.04249917247790728</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2632672595749269</v>
+        <v>0.2440137473657157</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1961124134556988</v>
+        <v>0.1201751019309445</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3549603849707681</v>
+        <v>0.3519730331298515</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1961873678853627</v>
+        <v>0.1200503633734096</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.2164185755038064</v>
+        <v>0.09020992336887601</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1983359780381297</v>
+        <v>0.04249890394944327</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1725425536654543</v>
+        <v>0.09020992336887601</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1977823871364632</v>
+        <v>0.04249890394944327</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2639854067360983</v>
+        <v>0.2416199002076353</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1977068233211923</v>
+        <v>0.1211521352799765</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3575932369888757</v>
+        <v>0.3507551000532607</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1977823871364632</v>
+        <v>0.1210263825878276</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.2339579821020963</v>
+        <v>0.08895346578970634</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1999354617319855</v>
+        <v>0.04249863542097925</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1736375098767228</v>
+        <v>0.08895346578970634</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1993774063875637</v>
+        <v>0.04249863542097925</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2660885489006525</v>
+        <v>0.2407924203459934</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1993012331866858</v>
+        <v>0.1221291686290086</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3561058870719466</v>
+        <v>0.3510403291086863</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1993774063875637</v>
+        <v>0.1220024018022456</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.2224838555769647</v>
+        <v>0.08771725580947159</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2015349454258414</v>
+        <v>0.04249836689251524</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1739225032839538</v>
+        <v>0.08771725580947159</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2009724256386642</v>
+        <v>0.04249836689251524</v>
       </c>
       <c r="L191" t="n">
-        <v>0.2647764654763879</v>
+        <v>0.2417340751788981</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2008956430521793</v>
+        <v>0.1231062019780407</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3560980379875206</v>
+        <v>0.3507344683609098</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2009724256386642</v>
+        <v>0.1229784210166635</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.2329959985597462</v>
+        <v>0.08649578661558102</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2031344291196973</v>
+        <v>0.04249809836405122</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1741973894291464</v>
+        <v>0.08649578661558102</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2025674448897647</v>
+        <v>0.04249809836405122</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2650489358711025</v>
+        <v>0.2417476321044575</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2024900529176727</v>
+        <v>0.1240832353270727</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3582693925031378</v>
+        <v>0.3497432658747125</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2025674448897647</v>
+        <v>0.1239544402310815</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.2224942136817754</v>
+        <v>0.08529084420134297</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2047339128135532</v>
+        <v>0.0424978298355872</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1753620238543002</v>
+        <v>0.08529084420134297</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2041624641408653</v>
+        <v>0.0424978298355872</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2662057394925942</v>
+        <v>0.2397358585207795</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2040844627831662</v>
+        <v>0.1250602686761048</v>
       </c>
       <c r="N193" t="n">
-        <v>0.360519653386338</v>
+        <v>0.3465724697148757</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2041624641408653</v>
+        <v>0.1249304594454995</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.2379783035743867</v>
+        <v>0.08410421455995992</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2063333965074091</v>
+        <v>0.04249756130712318</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1757162621014141</v>
+        <v>0.08410421455995992</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2057574833919658</v>
+        <v>0.04249756130712318</v>
       </c>
       <c r="L194" t="n">
-        <v>0.2659466557486616</v>
+        <v>0.2404015218259723</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2056788726486597</v>
+        <v>0.1260373020251369</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3595485234046607</v>
+        <v>0.3458278279461807</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2057574833919658</v>
+        <v>0.1259064786599174</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.2184480708689147</v>
+        <v>0.08293768368473867</v>
       </c>
       <c r="G195" t="n">
-        <v>0.207932880201265</v>
+        <v>0.04249729277865916</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1749599597124875</v>
+        <v>0.08293768368473867</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2073525026430663</v>
+        <v>0.04249729277865916</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2672714640471023</v>
+        <v>0.2388473894181439</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2072732825141532</v>
+        <v>0.1270143353741689</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3619557053256464</v>
+        <v>0.3458150886334088</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2073525026430663</v>
+        <v>0.1268824978743354</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.2149033181966941</v>
+        <v>0.08179303756888348</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2095323638951209</v>
+        <v>0.04249702425019514</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1763929722295195</v>
+        <v>0.08179303756888348</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2089475218941668</v>
+        <v>0.04249702425019514</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2685799437957151</v>
+        <v>0.2384762286954025</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2088676923796467</v>
+        <v>0.127991368723201</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3599409019168344</v>
+        <v>0.3446399998413414</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2089475218941668</v>
+        <v>0.1278585170887533</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.2173438481890592</v>
+        <v>0.08067206220569922</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2111318475889767</v>
+        <v>0.04249675572173113</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1761151551945094</v>
+        <v>0.08067206220569922</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2105425411452673</v>
+        <v>0.04249675572173113</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2697718744022979</v>
+        <v>0.2392908070558559</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2104621022451402</v>
+        <v>0.1289684020722331</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3629038159457648</v>
+        <v>0.3453083096347597</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2105425411452673</v>
+        <v>0.1288345363031713</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.2397694634773446</v>
+        <v>0.07957654358841576</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2127313312828326</v>
+        <v>0.04249648719326712</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1767263641494564</v>
+        <v>0.07957654358841576</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2121375603963678</v>
+        <v>0.04249648719326712</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2703470352746484</v>
+        <v>0.2374938918976123</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2120565121106337</v>
+        <v>0.1299454354212651</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3616441501799774</v>
+        <v>0.3426257660784451</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2121375603963678</v>
+        <v>0.1298105555175893</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.2371799666928849</v>
+        <v>0.07850826771026512</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2143308149766885</v>
+        <v>0.0424962186648031</v>
       </c>
       <c r="J199" t="n">
-        <v>0.17682645463636</v>
+        <v>0.07850826771026512</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2137325796474683</v>
+        <v>0.0424962186648031</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2693052058205652</v>
+        <v>0.2376882506187799</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2136509219761272</v>
+        <v>0.1309224687702972</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3637616073870122</v>
+        <v>0.3416981172371788</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2137325796474683</v>
+        <v>0.1307865747320072</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.2385751604670145</v>
+        <v>0.07746902056454893</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2159302986705444</v>
+        <v>0.04249595013633908</v>
       </c>
       <c r="J200" t="n">
-        <v>0.176915282197219</v>
+        <v>0.07746902056454893</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2153275988985688</v>
+        <v>0.04249595013633908</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2705461654478465</v>
+        <v>0.2372766506174664</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2152453318416206</v>
+        <v>0.1318995021193293</v>
       </c>
       <c r="N200" t="n">
-        <v>0.364155890334409</v>
+        <v>0.3417311111757422</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2153275988985688</v>
+        <v>0.1317625939464252</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.2199548474310681</v>
+        <v>0.07646058814447695</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2175297823644003</v>
+        <v>0.04249568160787506</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1773927023740328</v>
+        <v>0.07646058814447695</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2169226181496693</v>
+        <v>0.04249568160787506</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2697696935642901</v>
+        <v>0.2352618592917803</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2168397417071141</v>
+        <v>0.1328765354683613</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3648267017897074</v>
+        <v>0.3392304959589166</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2169226181496693</v>
+        <v>0.1327386131608431</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.2373188302163802</v>
+        <v>0.07548475644334818</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2191292660582561</v>
+        <v>0.04249541307941105</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1775585707088009</v>
+        <v>0.07548475644334818</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2185176374007698</v>
+        <v>0.04249541307941105</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2720755695776943</v>
+        <v>0.2357466440398293</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2184341515726076</v>
+        <v>0.1338535688173934</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3633737445204477</v>
+        <v>0.3399020196514835</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2185176374007698</v>
+        <v>0.1337146323752612</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.2276669114542852</v>
+        <v>0.07454331145437518</v>
       </c>
       <c r="G203" t="n">
-        <v>0.220728749752112</v>
+        <v>0.04249514455094703</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1768127427435221</v>
+        <v>0.07454331145437518</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2201126566518704</v>
+        <v>0.04249514455094703</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2721635728958575</v>
+        <v>0.2356337722597217</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2200285614381011</v>
+        <v>0.1348306021664255</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3653967212941692</v>
+        <v>0.3376514303182238</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2201126566518704</v>
+        <v>0.1346906515896791</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.2249988937761178</v>
+        <v>0.07363803917085401</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2223282334459679</v>
+        <v>0.04249487602248301</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1770550740201959</v>
+        <v>0.07363803917085401</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2217076759029708</v>
+        <v>0.04249487602248301</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2713334829265774</v>
+        <v>0.2344260113495654</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2216229713035946</v>
+        <v>0.1358076355154575</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3664953348784125</v>
+        <v>0.3376844760239192</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2217076759029708</v>
+        <v>0.1356666708040971</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.2283145798132125</v>
+        <v>0.07277072558600034</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2239277171398238</v>
+        <v>0.04249460749401899</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1770854200808215</v>
+        <v>0.07277072558600034</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2233026951540713</v>
+        <v>0.04249460749401899</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2729850790776523</v>
+        <v>0.2319261287074685</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2232173811690881</v>
+        <v>0.1367846688644896</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3658692880407167</v>
+        <v>0.3342069048333507</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2233026951540713</v>
+        <v>0.136642690018515</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.2276137721969037</v>
+        <v>0.07194315669310697</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2255272008336797</v>
+        <v>0.04249433896555498</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1774036364673981</v>
+        <v>0.07194315669310697</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2248977144051719</v>
+        <v>0.04249433896555498</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2713181407568808</v>
+        <v>0.2317368917315392</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2248117910345816</v>
+        <v>0.1377617022135217</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3660182835486222</v>
+        <v>0.3361244648112999</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2248977144051719</v>
+        <v>0.137618709232933</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.225896273558526</v>
+        <v>0.07115711848539297</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2271266845275356</v>
+        <v>0.04249407043709096</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1782095787219249</v>
+        <v>0.07115711848539297</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2264927336562724</v>
+        <v>0.04249407043709096</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2739324473720601</v>
+        <v>0.2320610678198853</v>
       </c>
       <c r="M207" t="n">
-        <v>0.226406200900075</v>
+        <v>0.1387387355625538</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3672420241696687</v>
+        <v>0.334942904022548</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2264927336562724</v>
+        <v>0.138594728447351</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.2301618865294141</v>
+        <v>0.07041439695614757</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2287261682213915</v>
+        <v>0.04249380190862694</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1782031023864012</v>
+        <v>0.07041439695614757</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2280877529073729</v>
+        <v>0.04249380190862694</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2737277783309892</v>
+        <v>0.230601424370615</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2280006107655685</v>
+        <v>0.1397157689115859</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3670402126713959</v>
+        <v>0.3325679705318763</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2280877529073729</v>
+        <v>0.1395707476617689</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.2204104137409023</v>
+        <v>0.06971677809859356</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2303256519152473</v>
+        <v>0.04249353338016292</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1785840630028263</v>
+        <v>0.06971677809859356</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2296827721584734</v>
+        <v>0.04249353338016292</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2721039130414659</v>
+        <v>0.2304607287818365</v>
       </c>
       <c r="M209" t="n">
-        <v>0.229595020631062</v>
+        <v>0.1406928022606179</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3692125518213438</v>
+        <v>0.3305054124040659</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2296827721584734</v>
+        <v>0.1405467668761869</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.2256416578243252</v>
+        <v>0.06906604790601634</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2319251356091032</v>
+        <v>0.04249326485169891</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1791523161131992</v>
+        <v>0.06906604790601634</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2312777914095739</v>
+        <v>0.04249326485169891</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2732606309112882</v>
+        <v>0.2292417484516576</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2311894304965555</v>
+        <v>0.14166983560965</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3698587443870521</v>
+        <v>0.3300609777038986</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2312777914095739</v>
+        <v>0.1415227860906048</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.2238554214110174</v>
+        <v>0.06846399237164261</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2335246193029591</v>
+        <v>0.04249299632323489</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1799077172595194</v>
+        <v>0.06846399237164261</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2328728106606744</v>
+        <v>0.04249299632323489</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2742977113482545</v>
+        <v>0.2292472507781866</v>
       </c>
       <c r="M211" t="n">
-        <v>0.232783840362049</v>
+        <v>0.142646868958682</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3697784931360608</v>
+        <v>0.3297404144961553</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2328728106606744</v>
+        <v>0.1424988053050228</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.2250515071323134</v>
+        <v>0.06791239748875372</v>
       </c>
       <c r="G212" t="n">
-        <v>0.235124102996815</v>
+        <v>0.04249272779477088</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1783501219837859</v>
+        <v>0.06791239748875372</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2344678299117749</v>
+        <v>0.04249272779477088</v>
       </c>
       <c r="L212" t="n">
-        <v>0.272714933760163</v>
+        <v>0.2303800031595314</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2343782502275425</v>
+        <v>0.1436239023077141</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3681715008359101</v>
+        <v>0.3296494708456175</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2344678299117749</v>
+        <v>0.1434748245194408</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.2292297176195477</v>
+        <v>0.06741304925058073</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2367235866906709</v>
+        <v>0.04249245926630685</v>
       </c>
       <c r="J213" t="n">
-        <v>0.180279385827998</v>
+        <v>0.06741304925058073</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2360628491628754</v>
+        <v>0.04249245926630685</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2735120775548114</v>
+        <v>0.2298427729938001</v>
       </c>
       <c r="M213" t="n">
-        <v>0.235972660093036</v>
+        <v>0.1446009356567462</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3699374702541391</v>
+        <v>0.3272938948170665</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2360628491628754</v>
+        <v>0.1444508437338587</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.2373898555040549</v>
+        <v>0.06696773365040035</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2383230703845267</v>
+        <v>0.04249219073784284</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1798953643341551</v>
+        <v>0.06696773365040035</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2376578684139759</v>
+        <v>0.04249219073784284</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2746889221399984</v>
+        <v>0.2299383276791008</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2375670699585295</v>
+        <v>0.1455779690057782</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3685761041582883</v>
+        <v>0.3252794344752835</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2376578684139759</v>
+        <v>0.1454268629482767</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.2355317234171695</v>
+        <v>0.06696773365040035</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2399225540783826</v>
+        <v>0.04249219073784284</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1789979130442562</v>
+        <v>0.06696773365040035</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2392528876650765</v>
+        <v>0.04249219073784284</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2756452469235219</v>
+        <v>0.2286694346135414</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2391614798240229</v>
+        <v>0.1465550023548103</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3692871053158975</v>
+        <v>0.3244118378850499</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2392528876650765</v>
+        <v>0.1464028821626947</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.234655123990226</v>
+        <v>0.06497300558076435</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2415220377722385</v>
+        <v>0.0424833455101474</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1801868875003008</v>
+        <v>0.06497300558076435</v>
       </c>
       <c r="K216" t="n">
-        <v>0.240847906916177</v>
+        <v>0.0424833455101474</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2745808313131799</v>
+        <v>0.2280388611952302</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2407558896895164</v>
+        <v>0.1475320357038424</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3683701764945061</v>
+        <v>0.3238968531111469</v>
       </c>
       <c r="O216" t="n">
-        <v>0.240847906916177</v>
+        <v>0.1473789013771127</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.2397598598545591</v>
+        <v>0.06300074570969252</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2431215214660944</v>
+        <v>0.04247450028245196</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1796621432442878</v>
+        <v>0.06300074570969252</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2424429261672775</v>
+        <v>0.04247450028245196</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2754954547167705</v>
+        <v>0.2285493748222752</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2423502995550099</v>
+        <v>0.1485090690528744</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3715250204616544</v>
+        <v>0.3247402282183561</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2424429261672775</v>
+        <v>0.1483549205915306</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.234845733641503</v>
+        <v>0.06105203888992655</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2447210051599503</v>
+        <v>0.04246565505475651</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1800235358182167</v>
+        <v>0.06105203888992655</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2440379454183779</v>
+        <v>0.04246565505475651</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2746888965420922</v>
+        <v>0.2267037428927843</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2439447094205034</v>
+        <v>0.1494861024019065</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3682513399848819</v>
+        <v>0.3224477112714585</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2440379454183779</v>
+        <v>0.1493309398059486</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.2349125479823926</v>
+        <v>0.0591279699742121</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2463204888538062</v>
+        <v>0.04245680982706107</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1806709207640866</v>
+        <v>0.0591279699742121</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2456329646694785</v>
+        <v>0.04245680982706107</v>
       </c>
       <c r="L219" t="n">
-        <v>0.274760936196943</v>
+        <v>0.2286047328048657</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2455391192859969</v>
+        <v>0.1504631357509386</v>
       </c>
       <c r="N219" t="n">
-        <v>0.368448837831729</v>
+        <v>0.3235250503352356</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2456329646694785</v>
+        <v>0.1503069590203665</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.2379601055085622</v>
+        <v>0.05722962381529476</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2479199725476621</v>
+        <v>0.04244796459936563</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1791041536238968</v>
+        <v>0.05722962381529476</v>
       </c>
       <c r="K220" t="n">
-        <v>0.247227983920579</v>
+        <v>0.04244796459936563</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2748113530891209</v>
+        <v>0.2283551119566275</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2471335291514904</v>
+        <v>0.1514401690999707</v>
       </c>
       <c r="N220" t="n">
-        <v>0.371617216769735</v>
+        <v>0.3225779934744687</v>
       </c>
       <c r="O220" t="n">
-        <v>0.247227983920579</v>
+        <v>0.1512829782347845</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.2399882088513464</v>
+        <v>0.0553580852659164</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2495194562415179</v>
+        <v>0.04243911937167019</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1800230899396465</v>
+        <v>0.0553580852659164</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2488230031716795</v>
+        <v>0.04243911937167019</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2744399266264242</v>
+        <v>0.2282484202570596</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2487279390169839</v>
+        <v>0.1524172024490027</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3684561795664399</v>
+        <v>0.3217954888303196</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2488230031716795</v>
+        <v>0.1522589974492025</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.2339950643592379</v>
+        <v>0.05351443917882256</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2511189399353738</v>
+        <v>0.04243027414397474</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1796195571628826</v>
+        <v>0.05351443917882256</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2504180224227801</v>
+        <v>0.04243027414397474</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2752320140869353</v>
+        <v>0.2256476867999422</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2503223488824773</v>
+        <v>0.1533942357980348</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3686489106306726</v>
+        <v>0.3186210612773088</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2504180224227801</v>
+        <v>0.1532350166636204</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.2216483383825062</v>
+        <v>0.05169977040675883</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2527184236292297</v>
+        <v>0.0424214289162793</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1792141437439348</v>
+        <v>0.05169977040675883</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2520130416738806</v>
+        <v>0.0424214289162793</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2736548783485664</v>
+        <v>0.2281487514382707</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2519167587479709</v>
+        <v>0.1543712691470669</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3702205011179274</v>
+        <v>0.3204498389743898</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2520130416738806</v>
+        <v>0.1542110358780384</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.238739945065795</v>
+        <v>0.04991516380246719</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2543179073230856</v>
+        <v>0.04241258368858386</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1780016523392653</v>
+        <v>0.04991516380246719</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2536080609249811</v>
+        <v>0.04241258368858386</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2743569609319745</v>
+        <v>0.2253516417446029</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2535111686134643</v>
+        <v>0.1553483024960989</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3681545001216846</v>
+        <v>0.3197821180849312</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2536080609249811</v>
+        <v>0.1551870550924563</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.2353314127844773</v>
+        <v>0.04816170421869312</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2559173910169415</v>
+        <v>0.04240373846088841</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1769271167746637</v>
+        <v>0.04816170421869312</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2552030801760816</v>
+        <v>0.04240373846088841</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2714070299963212</v>
+        <v>0.2278563852914967</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2551055784789578</v>
+        <v>0.156325335845131</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3674435678944595</v>
+        <v>0.3200181947723019</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2552030801760816</v>
+        <v>0.1561630743068743</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.2264842699139265</v>
+        <v>0.04644047650818212</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2575168747107974</v>
+        <v>0.04239489323319297</v>
       </c>
       <c r="J226" t="n">
-        <v>0.177235570875919</v>
+        <v>0.04644047650818212</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2567980994271821</v>
+        <v>0.04239489323319297</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2696738537007681</v>
+        <v>0.2264630096515101</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2566999883444513</v>
+        <v>0.1573023691941631</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3620803646887677</v>
+        <v>0.3179583651998702</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2567980994271821</v>
+        <v>0.1571390935212923</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.2382600448295159</v>
+        <v>0.04475256552367626</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2591163584046533</v>
+        <v>0.04238604800549753</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1756720484688205</v>
+        <v>0.04475256552367626</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2583931186782826</v>
+        <v>0.04238604800549753</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2681262002044766</v>
+        <v>0.227471542397201</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2582943982099448</v>
+        <v>0.1582794025431951</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3592575507571244</v>
+        <v>0.3170029255310048</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2583931186782826</v>
+        <v>0.1581151127357102</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.2147202659066189</v>
+        <v>0.043099056117921</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2607158420985092</v>
+        <v>0.04237720277780208</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1732815833791575</v>
+        <v>0.043099056117921</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2599881379293831</v>
+        <v>0.04237720277780208</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2652328376666088</v>
+        <v>0.2260820111011273</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2598888080754382</v>
+        <v>0.1592564358922272</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3550677863520447</v>
+        <v>0.3165521719290748</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2599881379293831</v>
+        <v>0.1590911319501282</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.2149264615206087</v>
+        <v>0.04148103314366183</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2623153257923651</v>
+        <v>0.04236835755010665</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1709092094327192</v>
+        <v>0.04148103314366183</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2615831571804836</v>
+        <v>0.04236835755010665</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2604625342463258</v>
+        <v>0.2267944433358469</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2614832179409318</v>
+        <v>0.1602334692412593</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3518037317260443</v>
+        <v>0.3162064005574483</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2615831571804836</v>
+        <v>0.1600671511645462</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.2109401600468587</v>
+        <v>0.03989958145364089</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2639148094862209</v>
+        <v>0.0423595123224112</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1689999604552949</v>
+        <v>0.03989958145364089</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2631781764315841</v>
+        <v>0.0423595123224112</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2579840581027896</v>
+        <v>0.2257088666739179</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2630776278064252</v>
+        <v>0.1612105025902913</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3458580471316381</v>
+        <v>0.3147659075794944</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2631781764315841</v>
+        <v>0.1610431703789642</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.2228228898607421</v>
+        <v>0.03835578590060362</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2655142931800768</v>
+        <v>0.04235066709471576</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1658988702726738</v>
+        <v>0.03835578590060362</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2647731956826846</v>
+        <v>0.04235066709471576</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2532661773951616</v>
+        <v>0.2270253086878982</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2646720376719188</v>
+        <v>0.1621875359393234</v>
       </c>
       <c r="N231" t="n">
-        <v>0.340823392821342</v>
+        <v>0.3165309891585816</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2647731956826846</v>
+        <v>0.1620191895933821</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.2036361793376323</v>
+        <v>0.03685073133729533</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2671137768739327</v>
+        <v>0.04234182186702032</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1632509727106453</v>
+        <v>0.03685073133729533</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2663682149337852</v>
+        <v>0.04234182186702032</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2514776602826035</v>
+        <v>0.2250437969503456</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2662664475374122</v>
+        <v>0.1631645692883555</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3363924290476709</v>
+        <v>0.3151019414580783</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2663682149337852</v>
+        <v>0.1629952088078001</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.2034415568529026</v>
+        <v>0.03538550261645843</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2687132605677885</v>
+        <v>0.04233297663932487</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1613013015949985</v>
+        <v>0.03538550261645843</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2679632341848856</v>
+        <v>0.04233297663932487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.247587274924277</v>
+        <v>0.2246643590338182</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2678608574029057</v>
+        <v>0.1641416026373876</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3317578160631404</v>
+        <v>0.3123790606413536</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2679632341848856</v>
+        <v>0.163971228022218</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.2133005507819263</v>
+        <v>0.03396118459083822</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2703127442616444</v>
+        <v>0.04232413141162943</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1600948907515228</v>
+        <v>0.03396118459083822</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2695582534359861</v>
+        <v>0.04232413141162943</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2443637894793435</v>
+        <v>0.2244870225108737</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2694552672683992</v>
+        <v>0.1651186359864196</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3265122141202655</v>
+        <v>0.313662642871776</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2695582534359861</v>
+        <v>0.164947247236636</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.1932746895000766</v>
+        <v>0.03257886211317995</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2719122279555004</v>
+        <v>0.04231528618393399</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1566767740060071</v>
+        <v>0.03257886211317995</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2711532726870867</v>
+        <v>0.04231528618393399</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2408759721069648</v>
+        <v>0.2260118149540702</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2710496771338927</v>
+        <v>0.1660956693354517</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3247482834715619</v>
+        <v>0.3124529843127141</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2711532726870867</v>
+        <v>0.165923266451054</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.201425501382727</v>
+        <v>0.03123962003622618</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2735117116493562</v>
+        <v>0.04230644095623855</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1557919851842412</v>
+        <v>0.03123962003622618</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2727482919381872</v>
+        <v>0.04230644095623855</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2369925909663024</v>
+        <v>0.2266387639359657</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2726440869993862</v>
+        <v>0.1670727026844838</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3181586843695445</v>
+        <v>0.3119503811275365</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2727482919381872</v>
+        <v>0.1668992856654719</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1978124699181299</v>
+        <v>0.02994454321272214</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2751111953432121</v>
+        <v>0.0422975957285431</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1536814288316398</v>
+        <v>0.02994454321272214</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2743433111892877</v>
+        <v>0.0422975957285431</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2340753995276736</v>
+        <v>0.2267678970291181</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2742384968648796</v>
+        <v>0.1680497360335158</v>
       </c>
       <c r="N237" t="n">
-        <v>0.313127580782981</v>
+        <v>0.3123551294796121</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2743433111892877</v>
+        <v>0.1678753048798899</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.1863010890460011</v>
+        <v>0.02869471649541297</v>
       </c>
       <c r="G238" t="n">
-        <v>0.276710679037068</v>
+        <v>0.04228875050084766</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1513324932750769</v>
+        <v>0.02869471649541297</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2759383304403882</v>
+        <v>0.04228875050084766</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2301497495711222</v>
+        <v>0.2258992418060852</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2758329067303731</v>
+        <v>0.1690267693825479</v>
       </c>
       <c r="N238" t="n">
-        <v>0.3111232663026293</v>
+        <v>0.3106675255323093</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2759383304403882</v>
+        <v>0.1688513240943078</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1877804121010686</v>
+        <v>0.02749122473704141</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2783101627309239</v>
+        <v>0.04227990527315222</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1502767269320757</v>
+        <v>0.02749122473704141</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2775333496914887</v>
+        <v>0.04227990527315222</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2270136631694695</v>
+        <v>0.225432825839425</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2774273165958666</v>
+        <v>0.17000380273158</v>
       </c>
       <c r="N239" t="n">
-        <v>0.3088048970004819</v>
+        <v>0.3116878654489967</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2775333496914887</v>
+        <v>0.1698273433087258</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.196250293320329</v>
+        <v>0.0263307229749799</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2799096464247798</v>
+        <v>0.04227106004545678</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1482140231158328</v>
+        <v>0.0263307229749799</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2791283689425892</v>
+        <v>0.04227106004545678</v>
       </c>
       <c r="L240" t="n">
-        <v>0.225966977408396</v>
+        <v>0.2259686767016955</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2790217264613601</v>
+        <v>0.170980836080612</v>
       </c>
       <c r="N240" t="n">
-        <v>0.3018722533609639</v>
+        <v>0.3122164453930435</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2791283689425892</v>
+        <v>0.1708033625231438</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.1867105869407797</v>
+        <v>0.02518771716973631</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2815091301186357</v>
+        <v>0.04226221481776133</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1448442751395449</v>
+        <v>0.02518771716973631</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2807233881936897</v>
+        <v>0.04226221481776133</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2226095293735827</v>
+        <v>0.2261068219654546</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2806161363268536</v>
+        <v>0.1719578694296441</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2997251158685011</v>
+        <v>0.3114535615278178</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2807233881936897</v>
+        <v>0.1717793817375617</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1921611471994176</v>
+        <v>0.02405886235868299</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2831086138124915</v>
+        <v>0.04225336959006589</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1438673763164086</v>
+        <v>0.02405886235868299</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2823184074447902</v>
+        <v>0.04225336959006589</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2203411561507103</v>
+        <v>0.2247472892032602</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2822105461923471</v>
+        <v>0.1729349027786762</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2947632650075194</v>
+        <v>0.3078995100166885</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2823184074447902</v>
+        <v>0.1727554009519797</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1856018283332397</v>
+        <v>0.02294524339456272</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2847080975063474</v>
+        <v>0.04224452436237045</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1426832199596208</v>
+        <v>0.02294524339456272</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2839134266958907</v>
+        <v>0.04224452436237045</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2158616948254597</v>
+        <v>0.2244901059876703</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2838049560578406</v>
+        <v>0.1739119361277082</v>
       </c>
       <c r="N243" t="n">
-        <v>0.291986481262444</v>
+        <v>0.3085545870230243</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2839134266958907</v>
+        <v>0.1737314201663977</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.1670324845792432</v>
+        <v>0.02184794513012076</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2863075812002033</v>
+        <v>0.04223567913467501</v>
       </c>
       <c r="J244" t="n">
-        <v>0.140391699382378</v>
+        <v>0.02184794513012076</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2855084459469913</v>
+        <v>0.04223567913467501</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2142709824835115</v>
+        <v>0.2265352998912427</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2853993659233341</v>
+        <v>0.1748889694767403</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2874945451177009</v>
+        <v>0.3103190887101936</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2855084459469913</v>
+        <v>0.1747074393808156</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1874529701744251</v>
+        <v>0.02076805241810201</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2879070648940592</v>
+        <v>0.04222683390697957</v>
       </c>
       <c r="J245" t="n">
-        <v>0.137492707897877</v>
+        <v>0.02076805241810201</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2871034651980918</v>
+        <v>0.04222683390697957</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2119688562105467</v>
+        <v>0.2246828984865356</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2869937757888275</v>
+        <v>0.1758660028257724</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2834872370577156</v>
+        <v>0.3076933112415654</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2871034651980918</v>
+        <v>0.1756834585952336</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.1738631393557823</v>
+        <v>0.01970665011124945</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2895065485879151</v>
+        <v>0.04221798867928412</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1363861388193145</v>
+        <v>0.01970665011124945</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2886984844491923</v>
+        <v>0.04221798867928412</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2090551530922458</v>
+        <v>0.2241329293461066</v>
       </c>
       <c r="M246" t="n">
-        <v>0.288588185654321</v>
+        <v>0.1768430361748044</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2794643375669135</v>
+        <v>0.3090775507805082</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2886984844491923</v>
+        <v>0.1766594778096516</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.1622628463603121</v>
+        <v>0.01866482306230816</v>
       </c>
       <c r="G247" t="n">
-        <v>0.291106032281771</v>
+        <v>0.04220914345158868</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1342718854598872</v>
+        <v>0.01866482306230816</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2902935037002927</v>
+        <v>0.04220914345158868</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2051297102142898</v>
+        <v>0.2263854200425139</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2901825955198145</v>
+        <v>0.1778200695238365</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2755256271297206</v>
+        <v>0.3081721034903905</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2902935037002927</v>
+        <v>0.1776354970240695</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1696519454250115</v>
+        <v>0.01764365612402308</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2927055159756268</v>
+        <v>0.04220029822389324</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1331498411327917</v>
+        <v>0.01764365612402308</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2918885229513933</v>
+        <v>0.04220029822389324</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2019923646623594</v>
+        <v>0.2252403981483154</v>
       </c>
       <c r="M248" t="n">
-        <v>0.291777005385308</v>
+        <v>0.1787971028728686</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2709708862305624</v>
+        <v>0.3054772655345813</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2918885229513933</v>
+        <v>0.1786115162384875</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1740302907868773</v>
+        <v>0.01664423414913732</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2943049996694828</v>
+        <v>0.0421914529961978</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1305198991512247</v>
+        <v>0.01664423414913732</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2934835422024938</v>
+        <v>0.0421914529961978</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2005429535221354</v>
+        <v>0.2257978912360689</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2933714152508015</v>
+        <v>0.1797741362219006</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2695998953538644</v>
+        <v>0.3077933330764488</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2934835422024938</v>
+        <v>0.1795875354529055</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1723977366829069</v>
+        <v>0.01566764199039583</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2959044833633386</v>
+        <v>0.04218260776850235</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1275819528283831</v>
+        <v>0.01566764199039583</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2950785614535943</v>
+        <v>0.04218260776850235</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1976813138792986</v>
+        <v>0.2247579268783324</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2949658251162949</v>
+        <v>0.1807511695709327</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2651124349840523</v>
+        <v>0.3067206022793625</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2950785614535943</v>
+        <v>0.1805635546673234</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1527541373500971</v>
+        <v>0.01471496450054355</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2975039670571945</v>
+        <v>0.04217376254080691</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1262358954774634</v>
+        <v>0.01471496450054355</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2966735807046948</v>
+        <v>0.04217376254080691</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1935072828195297</v>
+        <v>0.2246205326476637</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2965602349817885</v>
+        <v>0.1817282029199648</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2616082856055517</v>
+        <v>0.3072593693066902</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2966735807046948</v>
+        <v>0.1815395738817414</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.1560993470254451</v>
+        <v>0.01378728653232367</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2991034507510504</v>
+        <v>0.04216491731311147</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1247816204116623</v>
+        <v>0.01378728653232367</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2982685999557953</v>
+        <v>0.04216491731311147</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1910206974285096</v>
+        <v>0.2261857361166211</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2981546448472819</v>
+        <v>0.1827052362689968</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2547872277027883</v>
+        <v>0.3067099303218008</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2982685999557953</v>
+        <v>0.1825155930961594</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.149433219945948</v>
+        <v>0.01288569293848107</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3007029344449063</v>
+        <v>0.04215607208541602</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1229190209441764</v>
+        <v>0.01288569293848107</v>
       </c>
       <c r="K253" t="n">
-        <v>0.2998636192068959</v>
+        <v>0.04215607208541602</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1868213947919191</v>
+        <v>0.2237535648577623</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2997490547127755</v>
+        <v>0.1836822696180289</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2511490417601877</v>
+        <v>0.3067725814880632</v>
       </c>
       <c r="O253" t="n">
-        <v>0.2998636192068959</v>
+        <v>0.1834916123105773</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.1607556103486028</v>
+        <v>0.01201126857176071</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3023024181387621</v>
+        <v>0.04214722685772058</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1201479903882028</v>
+        <v>0.01201126857176071</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3014586384579963</v>
+        <v>0.04214722685772058</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1835092119954389</v>
+        <v>0.2245240464436452</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3013434645782689</v>
+        <v>0.184659302967061</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2500935082621756</v>
+        <v>0.3060476189688457</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3014586384579963</v>
+        <v>0.1844676315249953</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1550663724704064</v>
+        <v>0.01116509828490578</v>
       </c>
       <c r="G255" t="n">
-        <v>0.303901901832618</v>
+        <v>0.04213838163002514</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1192684220569376</v>
+        <v>0.01116509828490578</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3030536577090968</v>
+        <v>0.04213838163002514</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1804839861247498</v>
+        <v>0.2242972084468277</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3029378744437624</v>
+        <v>0.1856363363160931</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2439204076931775</v>
+        <v>0.3033353389275174</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3030536577090968</v>
+        <v>0.1854436507394132</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.139365360548356</v>
+        <v>0.01034826693066124</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3055013855264739</v>
+        <v>0.04212953640232969</v>
       </c>
       <c r="J256" t="n">
-        <v>0.116780209263578</v>
+        <v>0.01034826693066124</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3046486769601973</v>
+        <v>0.04212953640232969</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1778455542655326</v>
+        <v>0.2237730784398679</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3045322843092559</v>
+        <v>0.1866133696651251</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2402295205376188</v>
+        <v>0.3041360375274467</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3046486769601973</v>
+        <v>0.1864196699538312</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.1446524288194487</v>
+        <v>0.009561859361771868</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3071008692203298</v>
+        <v>0.04212069117463426</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1145832453213206</v>
+        <v>0.009561859361771868</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3062436962112979</v>
+        <v>0.04212069117463426</v>
       </c>
       <c r="L257" t="n">
-        <v>0.175293753503468</v>
+        <v>0.2233516839953236</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3061266941747494</v>
+        <v>0.1875904030141572</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2343206272799258</v>
+        <v>0.302850010932002</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3062436962112979</v>
+        <v>0.1873956891682492</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1419274315206814</v>
+        <v>0.008806960430981003</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3087003529141857</v>
+        <v>0.04211184594693881</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1132774235433618</v>
+        <v>0.008806960430981003</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3078387154623984</v>
+        <v>0.04211184594693881</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1717284209242369</v>
+        <v>0.2258330526857529</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3077211040402428</v>
+        <v>0.1885674363631893</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2303935084045233</v>
+        <v>0.3023775553045527</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3078387154623984</v>
+        <v>0.1883717083826671</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1301902228890513</v>
+        <v>0.008084654991033585</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3102998366080416</v>
+        <v>0.04210300071924337</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1112626372428986</v>
+        <v>0.008084654991033585</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3094337347134989</v>
+        <v>0.04210300071924337</v>
       </c>
       <c r="L259" t="n">
-        <v>0.16974939361352</v>
+        <v>0.2237172120837135</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3093155139057363</v>
+        <v>0.1895444697122214</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2265479443958375</v>
+        <v>0.3044189668084666</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3094337347134989</v>
+        <v>0.1893477275970851</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1404406571615552</v>
+        <v>0.007396027894674279</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3118993203018975</v>
+        <v>0.04209415549154793</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1085387797331276</v>
+        <v>0.007396027894674279</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3110287539645994</v>
+        <v>0.04209415549154793</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1661565086569982</v>
+        <v>0.2239041897617636</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3109099237712298</v>
+        <v>0.1905215030612534</v>
       </c>
       <c r="N260" t="n">
-        <v>0.223883715738294</v>
+        <v>0.3037745416071128</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3110287539645994</v>
+        <v>0.1903237468115031</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.1276785885751905</v>
+        <v>0.006742163994646666</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3134988039957534</v>
+        <v>0.04208531026385248</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1075057443272456</v>
+        <v>0.006742163994646666</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3126237732156999</v>
+        <v>0.04208531026385248</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1618496031403522</v>
+        <v>0.2234940132924609</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3125043336367233</v>
+        <v>0.1914985364102855</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2200006029163183</v>
+        <v>0.3033445758638603</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3126237732156999</v>
+        <v>0.191299766025921</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.1409038713669541</v>
+        <v>0.00612414814369544</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3150982876896092</v>
+        <v>0.04207646503615704</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1044634243384489</v>
+        <v>0.00612414814369544</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3142187924668004</v>
+        <v>0.04207646503615704</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1611285141492627</v>
+        <v>0.2249867102483634</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3140987435022168</v>
+        <v>0.1924755697593175</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2141983864143359</v>
+        <v>0.303329365742077</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3142187924668004</v>
+        <v>0.192275785240339</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1281163597738431</v>
+        <v>0.00554306519456535</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3166977713834651</v>
+        <v>0.0420676198084616</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1025117130799347</v>
+        <v>0.00554306519456535</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3158138117179009</v>
+        <v>0.0420676198084616</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1580930787694106</v>
+        <v>0.2252823082020292</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3156931533677103</v>
+        <v>0.1934526031083496</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2098768467167725</v>
+        <v>0.302629207405132</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3158138117179009</v>
+        <v>0.193251804454757</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1313159080328545</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.318297255077321</v>
+        <v>0.04205877458076616</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1013505038648993</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3174088309690014</v>
+        <v>0.04205877458076616</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1539431340864766</v>
+        <v>0.2236808347260159</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3172875632332038</v>
+        <v>0.1944296364573817</v>
       </c>
       <c r="N264" t="n">
-        <v>0.208335764308054</v>
+        <v>0.3029443970163942</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3174088309690014</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1942278236691749</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04204561668602932</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04204561668602932</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006725271776869629</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04204588521449333</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006725271776869629</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04204588521449333</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.008439330626227981</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04204615374295735</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.008439330626227981</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04204615374295735</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01014201596864997</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04204642227142136</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01014201596864997</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04204642227142136</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01183316722485922</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04204669079988538</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01183316722485922</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04204669079988538</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01351262381543156</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0420469593283494</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01351262381543156</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.0420469593283494</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01518022516108958</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04204722785681342</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01518022516108958</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04204722785681342</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01683581068241019</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04204749638527744</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01683581068241019</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04204749638527744</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01847921980011494</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04204776491374146</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01847921980011494</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04204776491374146</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02011029193478175</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04204803344220547</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02011029193478175</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04204803344220547</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02172886650713113</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04204830197066949</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02172886650713113</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04204830197066949</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02333478293774202</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04204857049913351</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02333478293774202</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04204857049913351</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.02492788064733389</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04204883902759753</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.02492788064733389</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04204883902759753</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0265079990564869</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04204910755606154</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.0265079990564869</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04204910755606154</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02807497758591923</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04204937608452556</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02807497758591923</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04204937608452556</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.02962865565621217</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04204964461298957</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.02962865565621217</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04204964461298957</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03116887268808285</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04204991314145359</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03116887268808285</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04204991314145359</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03269546810211374</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04205018166991761</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03269546810211374</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04205018166991761</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0342082813189879</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04205045019838163</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.0342082813189879</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04205045019838163</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.03570715175938738</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04205071872684565</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.03570715175938738</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04205071872684565</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.03719191884389639</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04205098725530966</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.03719191884389639</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04205098725530966</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.038662421993229</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04205125578377368</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.038662421993229</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04205125578377368</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0401185006279707</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04205152431223769</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.0401185006279707</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04205152431223769</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04155999416883438</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04205179284070171</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04155999416883438</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04205179284070171</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.04298674203640676</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04205206136916573</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.04298674203640676</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04205206136916573</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.04439923935041398</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04205232989762975</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.04439923935041398</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04205232989762975</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.04580125972553184</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04205259842609376</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.04580125972553184</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04205259842609376</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.04719329828148539</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04205286695455778</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.04719329828148539</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04205286695455778</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.04857519443886357</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04205313548302179</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.04857519443886357</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04205313548302179</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.04994678761837601</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04205340401148581</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.04994678761837601</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04205340401148581</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.05130791724061246</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04205367253994983</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.05130791724061246</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04205367253994983</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.05265842272628171</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04205394106841385</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.05265842272628171</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04205394106841385</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0539981434959744</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04205420959687787</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.0539981434959744</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04205420959687787</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.05532691897036951</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04205447812534188</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.05532691897036951</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04205447812534188</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.05664458857014512</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0420547466538059</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.05664458857014512</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.0420547466538059</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.05795099171589338</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04205501518226992</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.05795099171589338</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04205501518226992</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.05924596782832056</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04205528371073394</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.05924596782832056</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04205528371073394</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.06052935632801981</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04205555223919795</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.06052935632801981</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04205555223919795</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.06180099663569652</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04205582076766197</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.06180099663569652</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04205582076766197</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.06306072817194475</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04205608929612598</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.06306072817194475</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04205608929612598</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.06430839035746883</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04205635782459</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.06430839035746883</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04205635782459</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.06554382261286393</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04205662635305402</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.06554382261286393</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04205662635305402</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.06676686435883333</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04205689488151804</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.06676686435883333</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04205689488151804</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.06797735501597324</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04205716340998206</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.06797735501597324</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04205716340998206</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.06917513400498587</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04205743193844608</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.06917513400498587</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04205743193844608</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.07036004074646854</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04205770046691009</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.07036004074646854</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04205770046691009</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0715319146611223</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04205796899537411</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.0715319146611223</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04205796899537411</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.07269059516954562</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04205823752383812</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.07269059516954562</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04205823752383812</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.07383592169243844</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04205850605230214</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.07383592169243844</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04205850605230214</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.07496773365040035</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04205877458076616</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.07496773365040035</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04205877458076616</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.07496773365040035</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04204561668602932</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.07496773365040035</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04204561668602932</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.07661472879429548</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0420549989706528</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.07661472879429548</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.0420549989706528</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.07824741468944416</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04206438125527627</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.07824741468944416</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04206438125527627</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.07986545405278775</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04207376353989975</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.07986545405278775</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04207376353989975</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.08146850960126364</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04208314582452322</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.08146850960126364</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04208314582452322</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.08305624405181317</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0420925281091467</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.08305624405181317</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.0420925281091467</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.08462832012137467</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04210191039377018</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.08462832012137467</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04210191039377018</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.08618440052688653</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04211129267839366</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.08618440052688653</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04211129267839366</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.08772414798529007</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04212067496301714</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.08772414798529007</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04212067496301714</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.08924722521352371</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04213005724764061</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.08924722521352371</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04213005724764061</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0907532949285258</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04213943953226409</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.0907532949285258</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04213943953226409</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.09224201984723762</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04214882181688756</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.09224201984723762</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04214882181688756</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.09371306268659671</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04215820410151103</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.09371306268659671</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04215820410151103</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.09516608616354422</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04216758638613451</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.09516608616354422</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04216758638613451</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.09660075299501855</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04217696867075799</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.09660075299501855</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04217696867075799</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.09801672589795823</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04218635095538147</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.09801672589795823</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04218635095538147</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.09941366758930442</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04219573324000495</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.09941366758930442</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04219573324000495</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1007912407859947</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04220511552462842</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1007912407859947</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04220511552462842</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1021491082049701</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0422144978092519</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1021491082049701</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.0422144978092519</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1034869325631691</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04222388009387538</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1034869325631691</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04222388009387538</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1048043765775304</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04223326237849885</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1048043765775304</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04223326237849885</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1061011029649949</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04224264466312233</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1061011029649949</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04224264466312233</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1073767744425003</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0422520269477458</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1073767744425003</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.0422520269477458</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1086310537269876</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04226140923236928</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1086310537269876</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04226140923236928</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1098636035353953</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04227079151699276</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1098636035353953</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04227079151699276</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1110754638238265</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04228017380161624</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1110754638238265</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04228017380161624</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1122745607442075</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04228955608623972</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1122745607442075</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04228955608623972</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1134619342526413</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0422989383708632</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1134619342526413</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.0422989383708632</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1146372470660666</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04230832065548667</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1146372470660666</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04230832065548667</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1158001619014241</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04231770294011015</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1158001619014241</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04231770294011015</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1169503414756517</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04232708522473362</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1169503414756517</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04232708522473362</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1180874485056903</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0423364675093571</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1180874485056903</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.0423364675093571</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1192111457084785</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04234584979398057</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1192111457084785</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04234584979398057</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.120321095800955</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04235523207860405</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.120321095800955</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04235523207860405</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1214169615000604</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04236461436322753</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1214169615000604</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04236461436322753</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1224984055227329</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.042373996647851</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.1224984055227329</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.042373996647851</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1235650905859131</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04238337893247448</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1235650905859131</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04238337893247448</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1246166794065396</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04239276121709796</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1246166794065396</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04239276121709796</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1256528347015513</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04240214350172143</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1256528347015513</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04240214350172143</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1266732191878887</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04241152578634491</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1266732191878887</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04241152578634491</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.12767749558249</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04242090807096838</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.12767749558249</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04242090807096838</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1286653266022957</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04243029035559186</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1286653266022957</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04243029035559186</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1296363749642447</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04243967264021534</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1296363749642447</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04243967264021534</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1305903033852755</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04244905492483882</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1305903033852755</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04244905492483882</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1315267745823288</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0424584372094623</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1315267745823288</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0424584372094623</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1324454512723434</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04246781949408578</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1324454512723434</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04246781949408578</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1333459961722581</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04247720177870925</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1333459961722581</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04247720177870925</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1342280719990133</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04248658406333273</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1342280719990133</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04248658406333273</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1350913414695475</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0424959663479562</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1350913414695475</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0424959663479562</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1359354673008007</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04250534863257968</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1359354673008007</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04250534863257968</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1359354673008007</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04250534863257968</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1359354673008007</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04250534863257968</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1335643008629795</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04568577498123878</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1335643008629795</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04568577498123878</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1314663654126115</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04886620132989787</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1314663654126115</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04886620132989787</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1296259684341242</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05204662767855697</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1296259684341242</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05204662767855697</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1280274174119453</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05522705402721607</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1280274174119453</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05522705402721607</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1266550198305026</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05840748037587516</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1266550198305026</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05840748037587516</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1254930831742236</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06158790672453426</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1254930831742236</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06158790672453426</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1245259149275359</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06476833307319335</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1245259149275359</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06476833307319335</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1237378225748673</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06794875942185245</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1237378225748673</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06794875942185245</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1231131136006455</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07112918577051154</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1231131136006455</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07112918577051154</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.122636095489298</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07430961211917063</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.122636095489298</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07430961211917063</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1222910757252525</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07749003846782973</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1222910757252525</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07749003846782973</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1220623617929367</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08067046481648883</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1220623617929367</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08067046481648883</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1219342611767782</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08385089116514792</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1219342611767782</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08385089116514792</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1218910813612047</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08703131751380702</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1218910813612047</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08703131751380702</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1222900812680231</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09021174386246612</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1222900812680231</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09021174386246612</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1234843886415244</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09339217021112522</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1234843886415244</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09339217021112522</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.125217243495561</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09657259655978431</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.125217243495561</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09657259655978431</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1272282085785371</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09975302290844341</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1272282085785371</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.09975302290844341</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.129256846638857</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1029334492571025</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.129256846638857</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1029334492571025</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1310427204249247</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1061138756057616</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1310427204249247</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1061138756057616</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1323253926851443</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1092943019544207</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1323253926851443</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1092943019544207</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.13284442616792</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1124747283030798</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.13284442616792</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1124747283030798</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1326131994684608</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1156551546517389</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1326131994684608</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1156551546517389</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1318957105278337</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.118835581000398</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1318957105278337</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.118835581000398</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1307372169222792</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1220160073490571</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1307372169222792</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1220160073490571</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1291823736816331</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1251964336977162</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1291823736816331</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1251964336977162</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1272758358357315</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1283768600463753</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1272758358357315</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1283768600463753</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.1250622584144101</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1315572863950344</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.1250622584144101</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1315572863950344</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.122586296447505</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1347377127436935</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.122586296447505</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1347377127436935</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1198926049648521</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1379181390923525</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1198926049648521</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1379181390923525</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1170258389962872</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1410985654410117</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1170258389962872</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1410985654410117</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1140306535716464</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1442789917896707</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1140306535716464</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1442789917896707</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1109517037207655</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1474594181383298</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1109517037207655</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1474594181383298</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1075617327219021</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1075617327219021</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1017232700135229</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.153820270835648</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1017232700135229</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.153820270835648</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09520255363994318</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1570006971843071</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.09520255363994318</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1570006971843071</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09079709546896492</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1601811235329662</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.09079709546896492</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1601811235329662</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09025435245676255</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1633615498816253</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.09025435245676255</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1633615498816253</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09028715129015427</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1665419762302844</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.09028715129015427</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1665419762302844</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09035304920149842</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1697224025789435</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.09035304920149842</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1697224025789435</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09045430164859211</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1729028289276026</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.09045430164859211</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1729028289276026</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09059316408923243</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1760832552762617</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.09059316408923243</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1760832552762617</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09077189198121646</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1792636816249208</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.09077189198121646</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1792636816249208</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09099274078234129</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1824441079735799</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.09099274078234129</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1824441079735799</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.09125796595040395</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.185624534322239</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.09125796595040395</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.185624534322239</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09174702172624244</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1888049606708981</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.09174702172624244</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1888049606708981</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.09405717588852658</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1919853870195572</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.09405717588852658</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1919853870195572</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.09729870427120529</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1951658133682163</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.09729870427120529</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1951658133682163</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.09988581718305434</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1983462397168754</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.09988581718305434</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.1983462397168754</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1017402484248031</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2015266660655345</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1017402484248031</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2015266660655345</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1034126890088137</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2047070924141935</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1034126890088137</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2047070924141935</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.104953712673314</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2078875187628527</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.104953712673314</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2078875187628527</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1064138931565321</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2110679451115118</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1064138931565321</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2110679451115118</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1078438041966957</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2142483714601708</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1078438041966957</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2142483714601708</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.109274946599252</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.21742879780883</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.109274946599252</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.21742879780883</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.110551037545663</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.220609224157489</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.110551037545663</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.220609224157489</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1117609622358303</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2237896505061482</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1117609622358303</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2237896505061482</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1130762394732476</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2269700768548072</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1130762394732476</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2269700768548072</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1146683880614083</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2301505032034663</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1146683880614083</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2301505032034663</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1168183496905442</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2333309295521254</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1168183496905442</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2333309295521254</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1196536834388935</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2365113559007845</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1196536834388935</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2365113559007845</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1230815222795958</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2396917822494436</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.1230815222795958</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2396917822494436</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1270087852668473</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2428722085981027</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1270087852668473</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2428722085981027</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1313423914548439</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2460526349467618</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1313423914548439</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2460526349467618</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1359892598977822</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2492330612954209</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1359892598977822</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2492330612954209</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1408563096498579</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.25241348764408</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1408563096498579</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.25241348764408</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1458504597652676</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2555939139927391</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1458504597652676</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2555939139927391</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1508786292982072</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2587743403413982</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1508786292982072</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2587743403413982</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.155847737302873</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2619547666900573</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.155847737302873</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2619547666900573</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1606647028334611</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2651351930387164</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1606647028334611</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2651351930387164</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1652364449441677</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2683156193873755</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1652364449441677</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2683156193873755</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.169469882689189</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2714960457360346</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.169469882689189</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2714960457360346</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1732719351227212</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2746764720846937</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1732719351227212</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2746764720846937</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1765495212989603</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2778568984333528</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1765495212989603</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2778568984333528</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1792095602721027</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2810373247820119</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1792095602721027</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2810373247820119</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1811589710963445</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2842177511306709</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1811589710963445</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2842177511306709</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1825806230677343</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2873981774793301</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1825806230677343</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2873981774793301</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1823873394582562</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2905786038279892</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1823873394582562</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2905786038279892</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1776969054513694</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2937590301766482</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1776969054513694</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2937590301766482</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1680223111087633</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2969394565253073</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1680223111087633</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2969394565253073</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1550813185297935</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3001198828739665</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1550813185297935</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3001198828739665</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1405916898138156</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3033003092226256</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1405916898138156</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3033003092226256</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1262711870601852</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3064807355712846</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1262711870601852</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3064807355712846</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.113837572368258</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3096611619199438</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.113837572368258</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3096611619199438</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1050086078373897</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3128415882686029</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1050086078373897</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3128415882686029</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1002535909297838</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3160220146172619</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1002535909297838</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3160220146172619</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.09603494495304574</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.319202440965921</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.09603494495304574</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.319202440965921</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.09200958682398855</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3223828673145802</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.09200958682398855</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3223828673145802</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.08820261001658986</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3255632936632392</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.08820261001658986</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3255632936632392</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.08463910800482735</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3287437200118983</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.08463910800482735</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3287437200118983</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.08134417426267865</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3319241463605574</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.08134417426267865</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3319241463605574</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.07834290226412136</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3351045727092165</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.07834290226412136</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3351045727092165</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.07566038548313317</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3382849990578756</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.07566038548313317</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3382849990578756</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.07332171739369167</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3414654254065347</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.07332171739369167</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3414654254065347</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.07135199146977453</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3446458517551938</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.07135199146977453</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3446458517551938</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.06977630118535941</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3478262781038529</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.06977630118535941</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3478262781038529</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.06861974001442389</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.351006704452512</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.06861974001442389</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.351006704452512</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.06790740143094567</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3541871308011711</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.06790740143094567</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3541871308011711</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.06766437890890234</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3573675571498302</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.06766437890890234</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3573675571498302</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
